--- a/LapSim.xlsx
+++ b/LapSim.xlsx
@@ -5,14 +5,15 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kuwano\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kuwano\Documents\LapTimeSim\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="18270" windowHeight="7920"/>
+    <workbookView xWindow="1860" yWindow="0" windowWidth="18270" windowHeight="7920" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Traveling Line" sheetId="1" r:id="rId1"/>
+    <sheet name="Speed Calc" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="64">
   <si>
     <t>距離</t>
     <rPh sb="0" eb="2">
@@ -162,13 +163,321 @@
     <t>m</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>最大横G</t>
+    <rPh sb="0" eb="2">
+      <t>サイダイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヨコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最大減速G</t>
+    <rPh sb="0" eb="2">
+      <t>サイダイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ゲンソク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最大加速G</t>
+    <rPh sb="0" eb="2">
+      <t>サイダイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カソク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出力補正</t>
+    <rPh sb="0" eb="2">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ホセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>横G抵抗</t>
+    <rPh sb="0" eb="1">
+      <t>ヨコ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>テイコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最高速度</t>
+    <rPh sb="0" eb="2">
+      <t>サイコウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ソクド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>区間数</t>
+    <rPh sb="0" eb="2">
+      <t>クカン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>車両重量</t>
+    <rPh sb="0" eb="2">
+      <t>シャリョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>走行抵抗(0 km/h)</t>
+    <rPh sb="0" eb="2">
+      <t>ソウコウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>テイコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>走行抵抗(180 km/h)</t>
+    <rPh sb="0" eb="2">
+      <t>ソウコウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>テイコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>走行抵抗係数</t>
+    <rPh sb="0" eb="2">
+      <t>ソウコウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>テイコウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ケイスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>kg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>kgf</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>kgf/(km/h)2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>axmax</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>aydmax</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ayamax</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ke</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>kxg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Vmax</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>合計時間</t>
+    <rPh sb="0" eb="2">
+      <t>ゴウケイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Accele Cal</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Decele Cal</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sec</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>横G速度</t>
+    <rPh sb="0" eb="1">
+      <t>ヨコ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ソクド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>速度</t>
+    <rPh sb="0" eb="2">
+      <t>ソクド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>速度増加</t>
+    <rPh sb="0" eb="2">
+      <t>ソクド</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ゾウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>区間時間</t>
+    <rPh sb="0" eb="2">
+      <t>クカン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>横G</t>
+    <rPh sb="0" eb="1">
+      <t>ヨコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>前後G</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイヤ
+使用率</t>
+    <rPh sb="4" eb="6">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>リツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ENG加速</t>
+    <rPh sb="3" eb="5">
+      <t>カソク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイヤ
+使用率</t>
+    <rPh sb="4" eb="7">
+      <t>シヨウリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>計算速度</t>
+    <rPh sb="0" eb="2">
+      <t>ケイサン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ソクド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>時間</t>
+    <rPh sb="0" eb="2">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>減速計算</t>
+    <rPh sb="0" eb="2">
+      <t>ゲンソク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケイサン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>加速計算</t>
+    <rPh sb="0" eb="2">
+      <t>カソク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケイサン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最終結果</t>
+    <rPh sb="0" eb="2">
+      <t>サイシュウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケッカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Vymax</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>m/s</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="0.000"/>
+  <numFmts count="2">
+    <numFmt numFmtId="176" formatCode="0.000"/>
+    <numFmt numFmtId="179" formatCode="0.0"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -230,7 +539,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -243,10 +552,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
@@ -257,6 +566,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -273,6 +594,1359 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Traveling Line'!$E$5:$E$85</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="81"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.398165980169729</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2.8203170288780539</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-4.2664175924228278</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-5.7364315183652792</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-7.2303220564338222</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-8.7480518594428123</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-10.289582984226223</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-11.854876892586223</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-13.443894452256629</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-15.056595937881209</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-16.692941032006818</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-18.352888826091331</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-20.036397821526347</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-21.743425930674665</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-23.473930477922465</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-25.227868200746197</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-27.005195250794142</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-28.805867194982614</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-30.629839016606795</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-32.477065116466143</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-34.347499314004367</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-36.241094848463952</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-38.157804380055161</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-40.097579991139533</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-42.060373187427821</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-44.046134899192346</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-46.054815482493737</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-48.086364720422026</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-50.140731824352081</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-52.217865435213305</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-54.317713624773603</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-56.44022389693761</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-58.58534318905906</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-60.753017873267382</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-62.943193757808366</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-65.155816088398979</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-67.390829549596191</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-69.648178266179869</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-71.927805804549678</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-74.2296551741359</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-76.553668828824172</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-78.899788668394166</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-81.267956039972091</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-83.658111739497002</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-86.070196013200885</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-88.504148559102532</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-90.959908528515072</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-93.437414527567171</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-95.936604618737888</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-98.457416322405109</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-100.99978661840754</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-103.56365194762019</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-106.14894821354336</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-108.75561078390507</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-111.38357449227681</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-114.03277363970274</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-116.70314199634215</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-119.39461280312523</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-122.10711877342196</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-124.84059209472439</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-127.59496443034183</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-130.37016692110936</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-133.16613018710925</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-135.98278432940546</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>-138.82005893179115</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-141.67788306254903</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>-144.55618527622468</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>-147.45489361541266</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>-150.37393561255547</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>-153.31323829175523</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>-156.27272817059801</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>-159.252331261991</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>-162.25197307601212</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>-165.27157862177222</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>-168.31107240928995</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>-171.37037845137894</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>-174.44942026554745</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>-177.54812087591048</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>-180.6664028151142</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>-183.80418812627252</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Traveling Line'!$F$5:$F$85</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="81"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-4.8005291175672644</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-9.5940074278731462</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-14.380315094209546</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-19.159332459134095</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-23.930940047461576</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-28.695018569250802</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-33.451448922786852</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-38.200112197558624</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-42.940889677231574</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-47.673662842615627</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-52.398313374628145</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-57.114723157251902</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-61.822774280487977</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-66.522349043303507</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-71.213329956574185</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-75.895599746021503</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-80.569041355144591</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-85.233537948146633</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-89.888972912855735</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-94.535229863640268</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-99.172192644318443</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-103.79974533106225</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-108.41777223529554</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-113.02615790658623</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-117.62478713553257</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-122.21354495664333</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-126.79231665121199</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-131.36098775018465</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-135.9194440370218</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-140.46757155055369</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-145.00525658782936</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-149.53238570695922</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-154.04884572995107</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-158.55452374553957</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-163.04930711200899</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-167.53308346000929</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-172.00574069536529</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-176.46716700187906</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-180.91725084412531</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-185.35588097023975</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-189.7829464147004</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-194.19833650110175</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-198.60194084492159</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-202.99364935628066</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-207.37335224269492</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-211.74094001182033</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-216.09630347419014</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-220.43933374594462</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-224.7699222515532</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-229.08796072652879</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-233.3933412201344</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-237.68595609808193</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-241.96569804522301</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-246.23246006823183</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-250.48613549828008</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-254.72661799370354</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-258.9538015426607</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-263.16758046578298</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-267.36784941881677</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-271.55450339525703</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-275.7274377289724</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-279.88654809682185</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-284.03173052126283</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-288.16288137295061</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>-292.27989737332905</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-296.3826755972126</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>-300.47111347535935</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>-304.54510879703525</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>-308.60455971256948</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>-312.64936473590058</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>-316.67942274711356</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>-320.69463299496812</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>-324.69489509941718</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>-328.68010905411649</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>-332.6501752289247</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>-336.60499437239423</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>-340.54446761425248</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>-344.46849646787359</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>-348.37698283274057</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>-352.26982899689784</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-997550128"/>
+        <c:axId val="-997554480"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-997550128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-997554480"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-997554480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-997550128"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>445366</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>33771</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>501541</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>23091</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="グラフ 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -538,10 +2212,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:K10"/>
+  <dimension ref="B2:K85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:C85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -750,7 +2424,7 @@
         <v>3.4300049999999995</v>
       </c>
       <c r="J7" s="4">
-        <f t="shared" ref="J6:J10" si="6">ABS(C7)*(2*(1-COS(H7)))^0.5*SIN(I7)</f>
+        <f t="shared" ref="J7:J10" si="6">ABS(C7)*(2*(1-COS(H7)))^0.5*SIN(I7)</f>
         <v>-1.4221510487083251</v>
       </c>
       <c r="K7" s="4">
@@ -878,9 +2552,5660 @@
         <v>-4.7716075883274804</v>
       </c>
     </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B11" s="2">
+        <f t="shared" ref="B11:B25" si="7">B10+D11</f>
+        <v>30</v>
+      </c>
+      <c r="C11" s="3">
+        <v>1000</v>
+      </c>
+      <c r="D11" s="3">
+        <v>5</v>
+      </c>
+      <c r="E11" s="4">
+        <f t="shared" ref="E11:E25" si="8">E10+J11</f>
+        <v>-8.7480518594428123</v>
+      </c>
+      <c r="F11" s="4">
+        <f t="shared" ref="F11:F25" si="9">F10+K11</f>
+        <v>-28.695018569250802</v>
+      </c>
+      <c r="G11" s="7">
+        <f t="shared" ref="G11:G25" si="10">G10+H11</f>
+        <v>3.4499999999999993</v>
+      </c>
+      <c r="H11" s="2">
+        <f t="shared" ref="H11:H25" si="11">D11/C11</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I11" s="7">
+        <f t="shared" ref="I11:I25" si="12">G11+H11/C11</f>
+        <v>3.4500049999999991</v>
+      </c>
+      <c r="J11" s="4">
+        <f t="shared" ref="J11:J25" si="13">ABS(C11)*(2*(1-COS(H11)))^0.5*SIN(I11)</f>
+        <v>-1.5177298030089907</v>
+      </c>
+      <c r="K11" s="4">
+        <f t="shared" ref="K11:K25" si="14">ABS(C11)*(2*(1-COS(H11)))^0.5*COS(I11)</f>
+        <v>-4.7640785217892256</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B12" s="2">
+        <f t="shared" si="7"/>
+        <v>35</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1000</v>
+      </c>
+      <c r="D12" s="3">
+        <v>5</v>
+      </c>
+      <c r="E12" s="4">
+        <f t="shared" si="8"/>
+        <v>-10.289582984226223</v>
+      </c>
+      <c r="F12" s="4">
+        <f t="shared" si="9"/>
+        <v>-33.451448922786852</v>
+      </c>
+      <c r="G12" s="7">
+        <f t="shared" si="10"/>
+        <v>3.4549999999999992</v>
+      </c>
+      <c r="H12" s="2">
+        <f t="shared" si="11"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I12" s="7">
+        <f t="shared" si="12"/>
+        <v>3.455004999999999</v>
+      </c>
+      <c r="J12" s="4">
+        <f t="shared" si="13"/>
+        <v>-1.5415311247834109</v>
+      </c>
+      <c r="K12" s="4">
+        <f t="shared" si="14"/>
+        <v>-4.7564303535360537</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B13" s="2">
+        <f t="shared" si="7"/>
+        <v>40</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1000</v>
+      </c>
+      <c r="D13" s="3">
+        <v>5</v>
+      </c>
+      <c r="E13" s="4">
+        <f t="shared" si="8"/>
+        <v>-11.854876892586223</v>
+      </c>
+      <c r="F13" s="4">
+        <f t="shared" si="9"/>
+        <v>-38.200112197558624</v>
+      </c>
+      <c r="G13" s="7">
+        <f t="shared" si="10"/>
+        <v>3.4599999999999991</v>
+      </c>
+      <c r="H13" s="2">
+        <f t="shared" si="11"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I13" s="7">
+        <f t="shared" si="12"/>
+        <v>3.4600049999999989</v>
+      </c>
+      <c r="J13" s="4">
+        <f t="shared" si="13"/>
+        <v>-1.5652939083599997</v>
+      </c>
+      <c r="K13" s="4">
+        <f t="shared" si="14"/>
+        <v>-4.7486632747717747</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B14" s="2">
+        <f t="shared" si="7"/>
+        <v>45</v>
+      </c>
+      <c r="C14" s="3">
+        <v>1000</v>
+      </c>
+      <c r="D14" s="3">
+        <v>5</v>
+      </c>
+      <c r="E14" s="4">
+        <f t="shared" si="8"/>
+        <v>-13.443894452256629</v>
+      </c>
+      <c r="F14" s="4">
+        <f t="shared" si="9"/>
+        <v>-42.940889677231574</v>
+      </c>
+      <c r="G14" s="7">
+        <f t="shared" si="10"/>
+        <v>3.464999999999999</v>
+      </c>
+      <c r="H14" s="2">
+        <f t="shared" si="11"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I14" s="7">
+        <f t="shared" si="12"/>
+        <v>3.4650049999999988</v>
+      </c>
+      <c r="J14" s="4">
+        <f t="shared" si="13"/>
+        <v>-1.5890175596704053</v>
+      </c>
+      <c r="K14" s="4">
+        <f t="shared" si="14"/>
+        <v>-4.7407774796729516</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B15" s="2">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="C15" s="3">
+        <v>1000</v>
+      </c>
+      <c r="D15" s="3">
+        <v>5</v>
+      </c>
+      <c r="E15" s="4">
+        <f t="shared" si="8"/>
+        <v>-15.056595937881209</v>
+      </c>
+      <c r="F15" s="4">
+        <f t="shared" si="9"/>
+        <v>-47.673662842615627</v>
+      </c>
+      <c r="G15" s="7">
+        <f t="shared" si="10"/>
+        <v>3.4699999999999989</v>
+      </c>
+      <c r="H15" s="2">
+        <f t="shared" si="11"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I15" s="7">
+        <f t="shared" si="12"/>
+        <v>3.4700049999999987</v>
+      </c>
+      <c r="J15" s="4">
+        <f t="shared" si="13"/>
+        <v>-1.61270148562458</v>
+      </c>
+      <c r="K15" s="4">
+        <f t="shared" si="14"/>
+        <v>-4.732773165384053</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B16" s="2">
+        <f t="shared" si="7"/>
+        <v>55</v>
+      </c>
+      <c r="C16" s="3">
+        <v>1000</v>
+      </c>
+      <c r="D16" s="3">
+        <v>5</v>
+      </c>
+      <c r="E16" s="4">
+        <f t="shared" si="8"/>
+        <v>-16.692941032006818</v>
+      </c>
+      <c r="F16" s="4">
+        <f t="shared" si="9"/>
+        <v>-52.398313374628145</v>
+      </c>
+      <c r="G16" s="7">
+        <f t="shared" si="10"/>
+        <v>3.4749999999999988</v>
+      </c>
+      <c r="H16" s="2">
+        <f t="shared" si="11"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I16" s="7">
+        <f t="shared" si="12"/>
+        <v>3.4750049999999986</v>
+      </c>
+      <c r="J16" s="4">
+        <f t="shared" si="13"/>
+        <v>-1.6363450941256095</v>
+      </c>
+      <c r="K16" s="4">
+        <f t="shared" si="14"/>
+        <v>-4.7246505320125181</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B17" s="2">
+        <f t="shared" si="7"/>
+        <v>60</v>
+      </c>
+      <c r="C17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="D17" s="3">
+        <v>5</v>
+      </c>
+      <c r="E17" s="4">
+        <f t="shared" si="8"/>
+        <v>-18.352888826091331</v>
+      </c>
+      <c r="F17" s="4">
+        <f t="shared" si="9"/>
+        <v>-57.114723157251902</v>
+      </c>
+      <c r="G17" s="7">
+        <f t="shared" si="10"/>
+        <v>3.4799999999999986</v>
+      </c>
+      <c r="H17" s="2">
+        <f t="shared" si="11"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I17" s="7">
+        <f t="shared" si="12"/>
+        <v>3.4800049999999985</v>
+      </c>
+      <c r="J17" s="4">
+        <f t="shared" si="13"/>
+        <v>-1.6599477940845115</v>
+      </c>
+      <c r="K17" s="4">
+        <f t="shared" si="14"/>
+        <v>-4.7164097826237574</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B18" s="2">
+        <f t="shared" si="7"/>
+        <v>65</v>
+      </c>
+      <c r="C18" s="3">
+        <v>1000</v>
+      </c>
+      <c r="D18" s="3">
+        <v>5</v>
+      </c>
+      <c r="E18" s="4">
+        <f t="shared" si="8"/>
+        <v>-20.036397821526347</v>
+      </c>
+      <c r="F18" s="4">
+        <f t="shared" si="9"/>
+        <v>-61.822774280487977</v>
+      </c>
+      <c r="G18" s="7">
+        <f t="shared" si="10"/>
+        <v>3.4849999999999985</v>
+      </c>
+      <c r="H18" s="2">
+        <f t="shared" si="11"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I18" s="7">
+        <f t="shared" si="12"/>
+        <v>3.4850049999999984</v>
+      </c>
+      <c r="J18" s="4">
+        <f t="shared" si="13"/>
+        <v>-1.6835089954350171</v>
+      </c>
+      <c r="K18" s="4">
+        <f t="shared" si="14"/>
+        <v>-4.7080511232360784</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B19" s="2">
+        <f t="shared" si="7"/>
+        <v>70</v>
+      </c>
+      <c r="C19" s="3">
+        <v>1000</v>
+      </c>
+      <c r="D19" s="3">
+        <v>5</v>
+      </c>
+      <c r="E19" s="4">
+        <f t="shared" si="8"/>
+        <v>-21.743425930674665</v>
+      </c>
+      <c r="F19" s="4">
+        <f t="shared" si="9"/>
+        <v>-66.522349043303507</v>
+      </c>
+      <c r="G19" s="7">
+        <f t="shared" si="10"/>
+        <v>3.4899999999999984</v>
+      </c>
+      <c r="H19" s="2">
+        <f t="shared" si="11"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I19" s="7">
+        <f t="shared" si="12"/>
+        <v>3.4900049999999982</v>
+      </c>
+      <c r="J19" s="4">
+        <f t="shared" si="13"/>
+        <v>-1.7070281091483197</v>
+      </c>
+      <c r="K19" s="4">
+        <f t="shared" si="14"/>
+        <v>-4.6995747628155282</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B20" s="2">
+        <f t="shared" si="7"/>
+        <v>75</v>
+      </c>
+      <c r="C20" s="3">
+        <v>1000</v>
+      </c>
+      <c r="D20" s="3">
+        <v>5</v>
+      </c>
+      <c r="E20" s="4">
+        <f t="shared" si="8"/>
+        <v>-23.473930477922465</v>
+      </c>
+      <c r="F20" s="4">
+        <f t="shared" si="9"/>
+        <v>-71.213329956574185</v>
+      </c>
+      <c r="G20" s="7">
+        <f t="shared" si="10"/>
+        <v>3.4949999999999983</v>
+      </c>
+      <c r="H20" s="2">
+        <f t="shared" si="11"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I20" s="7">
+        <f t="shared" si="12"/>
+        <v>3.4950049999999981</v>
+      </c>
+      <c r="J20" s="4">
+        <f t="shared" si="13"/>
+        <v>-1.7305045472478013</v>
+      </c>
+      <c r="K20" s="4">
+        <f t="shared" si="14"/>
+        <v>-4.6909809132706775</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B21" s="2">
+        <f t="shared" si="7"/>
+        <v>80</v>
+      </c>
+      <c r="C21" s="3">
+        <v>1000</v>
+      </c>
+      <c r="D21" s="3">
+        <v>5</v>
+      </c>
+      <c r="E21" s="4">
+        <f t="shared" si="8"/>
+        <v>-25.227868200746197</v>
+      </c>
+      <c r="F21" s="4">
+        <f t="shared" si="9"/>
+        <v>-75.895599746021503</v>
+      </c>
+      <c r="G21" s="7">
+        <f t="shared" si="10"/>
+        <v>3.4999999999999982</v>
+      </c>
+      <c r="H21" s="2">
+        <f t="shared" si="11"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I21" s="7">
+        <f t="shared" si="12"/>
+        <v>3.500004999999998</v>
+      </c>
+      <c r="J21" s="4">
+        <f t="shared" si="13"/>
+        <v>-1.7539377228237318</v>
+      </c>
+      <c r="K21" s="4">
+        <f t="shared" si="14"/>
+        <v>-4.6822697894473162</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B22" s="2">
+        <f t="shared" si="7"/>
+        <v>85</v>
+      </c>
+      <c r="C22" s="3">
+        <v>1000</v>
+      </c>
+      <c r="D22" s="3">
+        <v>5</v>
+      </c>
+      <c r="E22" s="4">
+        <f t="shared" si="8"/>
+        <v>-27.005195250794142</v>
+      </c>
+      <c r="F22" s="4">
+        <f t="shared" si="9"/>
+        <v>-80.569041355144591</v>
+      </c>
+      <c r="G22" s="7">
+        <f t="shared" si="10"/>
+        <v>3.5049999999999981</v>
+      </c>
+      <c r="H22" s="2">
+        <f t="shared" si="11"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I22" s="7">
+        <f t="shared" si="12"/>
+        <v>3.5050049999999979</v>
+      </c>
+      <c r="J22" s="4">
+        <f t="shared" si="13"/>
+        <v>-1.7773270500479426</v>
+      </c>
+      <c r="K22" s="4">
+        <f t="shared" si="14"/>
+        <v>-4.6734416091230875</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B23" s="2">
+        <f t="shared" si="7"/>
+        <v>90</v>
+      </c>
+      <c r="C23" s="3">
+        <v>1000</v>
+      </c>
+      <c r="D23" s="3">
+        <v>5</v>
+      </c>
+      <c r="E23" s="4">
+        <f t="shared" si="8"/>
+        <v>-28.805867194982614</v>
+      </c>
+      <c r="F23" s="4">
+        <f t="shared" si="9"/>
+        <v>-85.233537948146633</v>
+      </c>
+      <c r="G23" s="7">
+        <f t="shared" si="10"/>
+        <v>3.509999999999998</v>
+      </c>
+      <c r="H23" s="2">
+        <f t="shared" si="11"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I23" s="7">
+        <f t="shared" si="12"/>
+        <v>3.5100049999999978</v>
+      </c>
+      <c r="J23" s="4">
+        <f t="shared" si="13"/>
+        <v>-1.8006719441884713</v>
+      </c>
+      <c r="K23" s="4">
+        <f t="shared" si="14"/>
+        <v>-4.6644965930020392</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B24" s="2">
+        <f t="shared" si="7"/>
+        <v>95</v>
+      </c>
+      <c r="C24" s="3">
+        <v>1000</v>
+      </c>
+      <c r="D24" s="3">
+        <v>5</v>
+      </c>
+      <c r="E24" s="4">
+        <f t="shared" si="8"/>
+        <v>-30.629839016606795</v>
+      </c>
+      <c r="F24" s="4">
+        <f t="shared" si="9"/>
+        <v>-89.888972912855735</v>
+      </c>
+      <c r="G24" s="7">
+        <f t="shared" si="10"/>
+        <v>3.5149999999999979</v>
+      </c>
+      <c r="H24" s="2">
+        <f t="shared" si="11"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I24" s="7">
+        <f t="shared" si="12"/>
+        <v>3.5150049999999977</v>
+      </c>
+      <c r="J24" s="4">
+        <f t="shared" si="13"/>
+        <v>-1.8239718216241805</v>
+      </c>
+      <c r="K24" s="4">
+        <f t="shared" si="14"/>
+        <v>-4.6554349647091069</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B25" s="2">
+        <f t="shared" si="7"/>
+        <v>100</v>
+      </c>
+      <c r="C25" s="3">
+        <v>1000</v>
+      </c>
+      <c r="D25" s="3">
+        <v>5</v>
+      </c>
+      <c r="E25" s="4">
+        <f t="shared" si="8"/>
+        <v>-32.477065116466143</v>
+      </c>
+      <c r="F25" s="4">
+        <f t="shared" si="9"/>
+        <v>-94.535229863640268</v>
+      </c>
+      <c r="G25" s="7">
+        <f t="shared" si="10"/>
+        <v>3.5199999999999978</v>
+      </c>
+      <c r="H25" s="2">
+        <f t="shared" si="11"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I25" s="7">
+        <f t="shared" si="12"/>
+        <v>3.5200049999999976</v>
+      </c>
+      <c r="J25" s="4">
+        <f t="shared" si="13"/>
+        <v>-1.8472260998593473</v>
+      </c>
+      <c r="K25" s="4">
+        <f t="shared" si="14"/>
+        <v>-4.6462569507845286</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B26" s="2">
+        <f t="shared" ref="B26:B85" si="15">B25+D26</f>
+        <v>105</v>
+      </c>
+      <c r="C26" s="3">
+        <v>1000</v>
+      </c>
+      <c r="D26" s="3">
+        <v>5</v>
+      </c>
+      <c r="E26" s="4">
+        <f t="shared" ref="E26:E85" si="16">E25+J26</f>
+        <v>-34.347499314004367</v>
+      </c>
+      <c r="F26" s="4">
+        <f t="shared" ref="F26:F85" si="17">F25+K26</f>
+        <v>-99.172192644318443</v>
+      </c>
+      <c r="G26" s="7">
+        <f t="shared" ref="G26:G85" si="18">G25+H26</f>
+        <v>3.5249999999999977</v>
+      </c>
+      <c r="H26" s="2">
+        <f t="shared" ref="H26:H85" si="19">D26/C26</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I26" s="7">
+        <f t="shared" ref="I26:I85" si="20">G26+H26/C26</f>
+        <v>3.5250049999999975</v>
+      </c>
+      <c r="J26" s="4">
+        <f t="shared" ref="J26:J85" si="21">ABS(C26)*(2*(1-COS(H26)))^0.5*SIN(I26)</f>
+        <v>-1.8704341975382268</v>
+      </c>
+      <c r="K26" s="4">
+        <f t="shared" ref="K26:K85" si="22">ABS(C26)*(2*(1-COS(H26)))^0.5*COS(I26)</f>
+        <v>-4.6369627806781715</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B27" s="2">
+        <f t="shared" si="15"/>
+        <v>110</v>
+      </c>
+      <c r="C27" s="3">
+        <v>1000</v>
+      </c>
+      <c r="D27" s="3">
+        <v>5</v>
+      </c>
+      <c r="E27" s="4">
+        <f t="shared" si="16"/>
+        <v>-36.241094848463952</v>
+      </c>
+      <c r="F27" s="4">
+        <f t="shared" si="17"/>
+        <v>-103.79974533106225</v>
+      </c>
+      <c r="G27" s="7">
+        <f t="shared" si="18"/>
+        <v>3.5299999999999976</v>
+      </c>
+      <c r="H27" s="2">
+        <f t="shared" si="19"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I27" s="7">
+        <f t="shared" si="20"/>
+        <v>3.5300049999999974</v>
+      </c>
+      <c r="J27" s="4">
+        <f t="shared" si="21"/>
+        <v>-1.8935955344595867</v>
+      </c>
+      <c r="K27" s="4">
+        <f t="shared" si="22"/>
+        <v>-4.6275526867438073</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B28" s="2">
+        <f t="shared" si="15"/>
+        <v>115</v>
+      </c>
+      <c r="C28" s="3">
+        <v>1000</v>
+      </c>
+      <c r="D28" s="3">
+        <v>5</v>
+      </c>
+      <c r="E28" s="4">
+        <f t="shared" si="16"/>
+        <v>-38.157804380055161</v>
+      </c>
+      <c r="F28" s="4">
+        <f t="shared" si="17"/>
+        <v>-108.41777223529554</v>
+      </c>
+      <c r="G28" s="7">
+        <f t="shared" si="18"/>
+        <v>3.5349999999999975</v>
+      </c>
+      <c r="H28" s="2">
+        <f t="shared" si="19"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I28" s="7">
+        <f t="shared" si="20"/>
+        <v>3.5350049999999973</v>
+      </c>
+      <c r="J28" s="4">
+        <f t="shared" si="21"/>
+        <v>-1.9167095315912097</v>
+      </c>
+      <c r="K28" s="4">
+        <f t="shared" si="22"/>
+        <v>-4.6180269042332922</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B29" s="2">
+        <f t="shared" si="15"/>
+        <v>120</v>
+      </c>
+      <c r="C29" s="3">
+        <v>1000</v>
+      </c>
+      <c r="D29" s="3">
+        <v>5</v>
+      </c>
+      <c r="E29" s="4">
+        <f t="shared" si="16"/>
+        <v>-40.097579991139533</v>
+      </c>
+      <c r="F29" s="4">
+        <f t="shared" si="17"/>
+        <v>-113.02615790658623</v>
+      </c>
+      <c r="G29" s="7">
+        <f t="shared" si="18"/>
+        <v>3.5399999999999974</v>
+      </c>
+      <c r="H29" s="2">
+        <f t="shared" si="19"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I29" s="7">
+        <f t="shared" si="20"/>
+        <v>3.5400049999999972</v>
+      </c>
+      <c r="J29" s="4">
+        <f t="shared" si="21"/>
+        <v>-1.9397756110843718</v>
+      </c>
+      <c r="K29" s="4">
+        <f t="shared" si="22"/>
+        <v>-4.6083856712906925</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B30" s="2">
+        <f t="shared" si="15"/>
+        <v>125</v>
+      </c>
+      <c r="C30" s="3">
+        <v>1000</v>
+      </c>
+      <c r="D30" s="3">
+        <v>5</v>
+      </c>
+      <c r="E30" s="4">
+        <f t="shared" si="16"/>
+        <v>-42.060373187427821</v>
+      </c>
+      <c r="F30" s="4">
+        <f t="shared" si="17"/>
+        <v>-117.62478713553257</v>
+      </c>
+      <c r="G30" s="7">
+        <f t="shared" si="18"/>
+        <v>3.5449999999999973</v>
+      </c>
+      <c r="H30" s="2">
+        <f t="shared" si="19"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I30" s="7">
+        <f t="shared" si="20"/>
+        <v>3.5450049999999971</v>
+      </c>
+      <c r="J30" s="4">
+        <f t="shared" si="21"/>
+        <v>-1.9627931962882861</v>
+      </c>
+      <c r="K30" s="4">
+        <f t="shared" si="22"/>
+        <v>-4.5986292289463311</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B31" s="2">
+        <f t="shared" si="15"/>
+        <v>130</v>
+      </c>
+      <c r="C31" s="3">
+        <v>1000</v>
+      </c>
+      <c r="D31" s="3">
+        <v>5</v>
+      </c>
+      <c r="E31" s="4">
+        <f t="shared" si="16"/>
+        <v>-44.046134899192346</v>
+      </c>
+      <c r="F31" s="4">
+        <f t="shared" si="17"/>
+        <v>-122.21354495664333</v>
+      </c>
+      <c r="G31" s="7">
+        <f t="shared" si="18"/>
+        <v>3.5499999999999972</v>
+      </c>
+      <c r="H31" s="2">
+        <f t="shared" si="19"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I31" s="7">
+        <f t="shared" si="20"/>
+        <v>3.550004999999997</v>
+      </c>
+      <c r="J31" s="4">
+        <f t="shared" si="21"/>
+        <v>-1.9857617117645223</v>
+      </c>
+      <c r="K31" s="4">
+        <f t="shared" si="22"/>
+        <v>-4.5887578211107583</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B32" s="2">
+        <f t="shared" si="15"/>
+        <v>135</v>
+      </c>
+      <c r="C32" s="3">
+        <v>1000</v>
+      </c>
+      <c r="D32" s="3">
+        <v>5</v>
+      </c>
+      <c r="E32" s="4">
+        <f t="shared" si="16"/>
+        <v>-46.054815482493737</v>
+      </c>
+      <c r="F32" s="4">
+        <f t="shared" si="17"/>
+        <v>-126.79231665121199</v>
+      </c>
+      <c r="G32" s="7">
+        <f t="shared" si="18"/>
+        <v>3.5549999999999971</v>
+      </c>
+      <c r="H32" s="2">
+        <f t="shared" si="19"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I32" s="7">
+        <f t="shared" si="20"/>
+        <v>3.5550049999999969</v>
+      </c>
+      <c r="J32" s="4">
+        <f t="shared" si="21"/>
+        <v>-2.008680583301389</v>
+      </c>
+      <c r="K32" s="4">
+        <f t="shared" si="22"/>
+        <v>-4.5787716945686547</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B33" s="2">
+        <f t="shared" si="15"/>
+        <v>140</v>
+      </c>
+      <c r="C33" s="3">
+        <v>1000</v>
+      </c>
+      <c r="D33" s="3">
+        <v>5</v>
+      </c>
+      <c r="E33" s="4">
+        <f t="shared" si="16"/>
+        <v>-48.086364720422026</v>
+      </c>
+      <c r="F33" s="4">
+        <f t="shared" si="17"/>
+        <v>-131.36098775018465</v>
+      </c>
+      <c r="G33" s="7">
+        <f t="shared" si="18"/>
+        <v>3.5599999999999969</v>
+      </c>
+      <c r="H33" s="2">
+        <f t="shared" si="19"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I33" s="7">
+        <f t="shared" si="20"/>
+        <v>3.5600049999999968</v>
+      </c>
+      <c r="J33" s="4">
+        <f t="shared" si="21"/>
+        <v>-2.0315492379282922</v>
+      </c>
+      <c r="K33" s="4">
+        <f t="shared" si="22"/>
+        <v>-4.568671098972664</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B34" s="2">
+        <f t="shared" si="15"/>
+        <v>145</v>
+      </c>
+      <c r="C34" s="3">
+        <v>1000</v>
+      </c>
+      <c r="D34" s="3">
+        <v>5</v>
+      </c>
+      <c r="E34" s="4">
+        <f t="shared" si="16"/>
+        <v>-50.140731824352081</v>
+      </c>
+      <c r="F34" s="4">
+        <f t="shared" si="17"/>
+        <v>-135.9194440370218</v>
+      </c>
+      <c r="G34" s="7">
+        <f t="shared" si="18"/>
+        <v>3.5649999999999968</v>
+      </c>
+      <c r="H34" s="2">
+        <f t="shared" si="19"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I34" s="7">
+        <f t="shared" si="20"/>
+        <v>3.5650049999999966</v>
+      </c>
+      <c r="J34" s="4">
+        <f t="shared" si="21"/>
+        <v>-2.0543671039300571</v>
+      </c>
+      <c r="K34" s="4">
+        <f t="shared" si="22"/>
+        <v>-4.558456286837151</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B35" s="2">
+        <f t="shared" si="15"/>
+        <v>150</v>
+      </c>
+      <c r="C35" s="3">
+        <v>1000</v>
+      </c>
+      <c r="D35" s="3">
+        <v>5</v>
+      </c>
+      <c r="E35" s="4">
+        <f t="shared" si="16"/>
+        <v>-52.217865435213305</v>
+      </c>
+      <c r="F35" s="4">
+        <f t="shared" si="17"/>
+        <v>-140.46757155055369</v>
+      </c>
+      <c r="G35" s="7">
+        <f t="shared" si="18"/>
+        <v>3.5699999999999967</v>
+      </c>
+      <c r="H35" s="2">
+        <f t="shared" si="19"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I35" s="7">
+        <f t="shared" si="20"/>
+        <v>3.5700049999999965</v>
+      </c>
+      <c r="J35" s="4">
+        <f t="shared" si="21"/>
+        <v>-2.0771336108612215</v>
+      </c>
+      <c r="K35" s="4">
+        <f t="shared" si="22"/>
+        <v>-4.5481275135318864</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B36" s="2">
+        <f t="shared" si="15"/>
+        <v>155</v>
+      </c>
+      <c r="C36" s="3">
+        <v>1000</v>
+      </c>
+      <c r="D36" s="3">
+        <v>5</v>
+      </c>
+      <c r="E36" s="4">
+        <f t="shared" si="16"/>
+        <v>-54.317713624773603</v>
+      </c>
+      <c r="F36" s="4">
+        <f t="shared" si="17"/>
+        <v>-145.00525658782936</v>
+      </c>
+      <c r="G36" s="7">
+        <f t="shared" si="18"/>
+        <v>3.5749999999999966</v>
+      </c>
+      <c r="H36" s="2">
+        <f t="shared" si="19"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I36" s="7">
+        <f t="shared" si="20"/>
+        <v>3.5750049999999964</v>
+      </c>
+      <c r="J36" s="4">
+        <f t="shared" si="21"/>
+        <v>-2.0998481895602987</v>
+      </c>
+      <c r="K36" s="4">
+        <f t="shared" si="22"/>
+        <v>-4.537685037275665</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B37" s="2">
+        <f t="shared" si="15"/>
+        <v>160</v>
+      </c>
+      <c r="C37" s="3">
+        <v>1000</v>
+      </c>
+      <c r="D37" s="3">
+        <v>5</v>
+      </c>
+      <c r="E37" s="4">
+        <f t="shared" si="16"/>
+        <v>-56.44022389693761</v>
+      </c>
+      <c r="F37" s="4">
+        <f t="shared" si="17"/>
+        <v>-149.53238570695922</v>
+      </c>
+      <c r="G37" s="7">
+        <f t="shared" si="18"/>
+        <v>3.5799999999999965</v>
+      </c>
+      <c r="H37" s="2">
+        <f t="shared" si="19"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I37" s="7">
+        <f t="shared" si="20"/>
+        <v>3.5800049999999963</v>
+      </c>
+      <c r="J37" s="4">
+        <f t="shared" si="21"/>
+        <v>-2.1225102721640039</v>
+      </c>
+      <c r="K37" s="4">
+        <f t="shared" si="22"/>
+        <v>-4.5271291191298486</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B38" s="2">
+        <f t="shared" si="15"/>
+        <v>165</v>
+      </c>
+      <c r="C38" s="3">
+        <v>1000</v>
+      </c>
+      <c r="D38" s="3">
+        <v>5</v>
+      </c>
+      <c r="E38" s="4">
+        <f t="shared" si="16"/>
+        <v>-58.58534318905906</v>
+      </c>
+      <c r="F38" s="4">
+        <f t="shared" si="17"/>
+        <v>-154.04884572995107</v>
+      </c>
+      <c r="G38" s="7">
+        <f t="shared" si="18"/>
+        <v>3.5849999999999964</v>
+      </c>
+      <c r="H38" s="2">
+        <f t="shared" si="19"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I38" s="7">
+        <f t="shared" si="20"/>
+        <v>3.5850049999999962</v>
+      </c>
+      <c r="J38" s="4">
+        <f t="shared" si="21"/>
+        <v>-2.1451192921214521</v>
+      </c>
+      <c r="K38" s="4">
+        <f t="shared" si="22"/>
+        <v>-4.5164600229918426</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B39" s="2">
+        <f t="shared" si="15"/>
+        <v>170</v>
+      </c>
+      <c r="C39" s="3">
+        <v>1000</v>
+      </c>
+      <c r="D39" s="3">
+        <v>5</v>
+      </c>
+      <c r="E39" s="4">
+        <f t="shared" si="16"/>
+        <v>-60.753017873267382</v>
+      </c>
+      <c r="F39" s="4">
+        <f t="shared" si="17"/>
+        <v>-158.55452374553957</v>
+      </c>
+      <c r="G39" s="7">
+        <f t="shared" si="18"/>
+        <v>3.5899999999999963</v>
+      </c>
+      <c r="H39" s="2">
+        <f t="shared" si="19"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I39" s="7">
+        <f t="shared" si="20"/>
+        <v>3.5900049999999961</v>
+      </c>
+      <c r="J39" s="4">
+        <f t="shared" si="21"/>
+        <v>-2.1676746842083223</v>
+      </c>
+      <c r="K39" s="4">
+        <f t="shared" si="22"/>
+        <v>-4.5056780155884937</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B40" s="2">
+        <f t="shared" si="15"/>
+        <v>175</v>
+      </c>
+      <c r="C40" s="3">
+        <v>1000</v>
+      </c>
+      <c r="D40" s="3">
+        <v>5</v>
+      </c>
+      <c r="E40" s="4">
+        <f t="shared" si="16"/>
+        <v>-62.943193757808366</v>
+      </c>
+      <c r="F40" s="4">
+        <f t="shared" si="17"/>
+        <v>-163.04930711200899</v>
+      </c>
+      <c r="G40" s="7">
+        <f t="shared" si="18"/>
+        <v>3.5949999999999962</v>
+      </c>
+      <c r="H40" s="2">
+        <f t="shared" si="19"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I40" s="7">
+        <f t="shared" si="20"/>
+        <v>3.595004999999996</v>
+      </c>
+      <c r="J40" s="4">
+        <f t="shared" si="21"/>
+        <v>-2.1901758845409867</v>
+      </c>
+      <c r="K40" s="4">
+        <f t="shared" si="22"/>
+        <v>-4.4947833664694254</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B41" s="2">
+        <f t="shared" si="15"/>
+        <v>180</v>
+      </c>
+      <c r="C41" s="3">
+        <v>1000</v>
+      </c>
+      <c r="D41" s="3">
+        <v>5</v>
+      </c>
+      <c r="E41" s="4">
+        <f t="shared" si="16"/>
+        <v>-65.155816088398979</v>
+      </c>
+      <c r="F41" s="4">
+        <f t="shared" si="17"/>
+        <v>-167.53308346000929</v>
+      </c>
+      <c r="G41" s="7">
+        <f t="shared" si="18"/>
+        <v>3.5999999999999961</v>
+      </c>
+      <c r="H41" s="2">
+        <f t="shared" si="19"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I41" s="7">
+        <f t="shared" si="20"/>
+        <v>3.6000049999999959</v>
+      </c>
+      <c r="J41" s="4">
+        <f t="shared" si="21"/>
+        <v>-2.2126223305906092</v>
+      </c>
+      <c r="K41" s="4">
+        <f t="shared" si="22"/>
+        <v>-4.4837763480002986</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B42" s="2">
+        <f t="shared" si="15"/>
+        <v>185</v>
+      </c>
+      <c r="C42" s="3">
+        <v>1000</v>
+      </c>
+      <c r="D42" s="3">
+        <v>5</v>
+      </c>
+      <c r="E42" s="4">
+        <f t="shared" si="16"/>
+        <v>-67.390829549596191</v>
+      </c>
+      <c r="F42" s="4">
+        <f t="shared" si="17"/>
+        <v>-172.00574069536529</v>
+      </c>
+      <c r="G42" s="7">
+        <f t="shared" si="18"/>
+        <v>3.604999999999996</v>
+      </c>
+      <c r="H42" s="2">
+        <f t="shared" si="19"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I42" s="7">
+        <f t="shared" si="20"/>
+        <v>3.6050049999999958</v>
+      </c>
+      <c r="J42" s="4">
+        <f t="shared" si="21"/>
+        <v>-2.2350134611972079</v>
+      </c>
+      <c r="K42" s="4">
+        <f t="shared" si="22"/>
+        <v>-4.4726572353560012</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B43" s="2">
+        <f t="shared" si="15"/>
+        <v>190</v>
+      </c>
+      <c r="C43" s="3">
+        <v>1000</v>
+      </c>
+      <c r="D43" s="3">
+        <v>5</v>
+      </c>
+      <c r="E43" s="4">
+        <f t="shared" si="16"/>
+        <v>-69.648178266179869</v>
+      </c>
+      <c r="F43" s="4">
+        <f t="shared" si="17"/>
+        <v>-176.46716700187906</v>
+      </c>
+      <c r="G43" s="7">
+        <f t="shared" si="18"/>
+        <v>3.6099999999999959</v>
+      </c>
+      <c r="H43" s="2">
+        <f t="shared" si="19"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I43" s="7">
+        <f t="shared" si="20"/>
+        <v>3.6100049999999957</v>
+      </c>
+      <c r="J43" s="4">
+        <f t="shared" si="21"/>
+        <v>-2.257348716583683</v>
+      </c>
+      <c r="K43" s="4">
+        <f t="shared" si="22"/>
+        <v>-4.461426306513772</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B44" s="2">
+        <f t="shared" si="15"/>
+        <v>195</v>
+      </c>
+      <c r="C44" s="3">
+        <v>1000</v>
+      </c>
+      <c r="D44" s="3">
+        <v>5</v>
+      </c>
+      <c r="E44" s="4">
+        <f t="shared" si="16"/>
+        <v>-71.927805804549678</v>
+      </c>
+      <c r="F44" s="4">
+        <f t="shared" si="17"/>
+        <v>-180.91725084412531</v>
+      </c>
+      <c r="G44" s="7">
+        <f t="shared" si="18"/>
+        <v>3.6149999999999958</v>
+      </c>
+      <c r="H44" s="2">
+        <f t="shared" si="19"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I44" s="7">
+        <f t="shared" si="20"/>
+        <v>3.6150049999999956</v>
+      </c>
+      <c r="J44" s="4">
+        <f t="shared" si="21"/>
+        <v>-2.2796275383698141</v>
+      </c>
+      <c r="K44" s="4">
+        <f t="shared" si="22"/>
+        <v>-4.4500838422462445</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B45" s="2">
+        <f t="shared" si="15"/>
+        <v>200</v>
+      </c>
+      <c r="C45" s="3">
+        <v>1000</v>
+      </c>
+      <c r="D45" s="3">
+        <v>5</v>
+      </c>
+      <c r="E45" s="4">
+        <f t="shared" si="16"/>
+        <v>-74.2296551741359</v>
+      </c>
+      <c r="F45" s="4">
+        <f t="shared" si="17"/>
+        <v>-185.35588097023975</v>
+      </c>
+      <c r="G45" s="7">
+        <f t="shared" si="18"/>
+        <v>3.6199999999999957</v>
+      </c>
+      <c r="H45" s="2">
+        <f t="shared" si="19"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I45" s="7">
+        <f t="shared" si="20"/>
+        <v>3.6200049999999955</v>
+      </c>
+      <c r="J45" s="4">
+        <f t="shared" si="21"/>
+        <v>-2.3018493695862161</v>
+      </c>
+      <c r="K45" s="4">
+        <f t="shared" si="22"/>
+        <v>-4.4386301261144361</v>
+      </c>
+    </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B46" s="2">
+        <f t="shared" si="15"/>
+        <v>205</v>
+      </c>
+      <c r="C46" s="3">
+        <v>1000</v>
+      </c>
+      <c r="D46" s="3">
+        <v>5</v>
+      </c>
+      <c r="E46" s="4">
+        <f t="shared" si="16"/>
+        <v>-76.553668828824172</v>
+      </c>
+      <c r="F46" s="4">
+        <f t="shared" si="17"/>
+        <v>-189.7829464147004</v>
+      </c>
+      <c r="G46" s="7">
+        <f t="shared" si="18"/>
+        <v>3.6249999999999956</v>
+      </c>
+      <c r="H46" s="2">
+        <f t="shared" si="19"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I46" s="7">
+        <f t="shared" si="20"/>
+        <v>3.6250049999999954</v>
+      </c>
+      <c r="J46" s="4">
+        <f t="shared" si="21"/>
+        <v>-2.3240136546882666</v>
+      </c>
+      <c r="K46" s="4">
+        <f t="shared" si="22"/>
+        <v>-4.4270654444606539</v>
+      </c>
+    </row>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B47" s="2">
+        <f t="shared" si="15"/>
+        <v>210</v>
+      </c>
+      <c r="C47" s="3">
+        <v>1000</v>
+      </c>
+      <c r="D47" s="3">
+        <v>5</v>
+      </c>
+      <c r="E47" s="4">
+        <f t="shared" si="16"/>
+        <v>-78.899788668394166</v>
+      </c>
+      <c r="F47" s="4">
+        <f t="shared" si="17"/>
+        <v>-194.19833650110175</v>
+      </c>
+      <c r="G47" s="7">
+        <f t="shared" si="18"/>
+        <v>3.6299999999999955</v>
+      </c>
+      <c r="H47" s="2">
+        <f t="shared" si="19"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I47" s="7">
+        <f t="shared" si="20"/>
+        <v>3.6300049999999953</v>
+      </c>
+      <c r="J47" s="4">
+        <f t="shared" si="21"/>
+        <v>-2.3461198395699925</v>
+      </c>
+      <c r="K47" s="4">
+        <f t="shared" si="22"/>
+        <v>-4.4153900864013353</v>
+      </c>
+    </row>
+    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B48" s="2">
+        <f t="shared" si="15"/>
+        <v>215</v>
+      </c>
+      <c r="C48" s="3">
+        <v>1000</v>
+      </c>
+      <c r="D48" s="3">
+        <v>5</v>
+      </c>
+      <c r="E48" s="4">
+        <f t="shared" si="16"/>
+        <v>-81.267956039972091</v>
+      </c>
+      <c r="F48" s="4">
+        <f t="shared" si="17"/>
+        <v>-198.60194084492159</v>
+      </c>
+      <c r="G48" s="7">
+        <f t="shared" si="18"/>
+        <v>3.6349999999999953</v>
+      </c>
+      <c r="H48" s="2">
+        <f t="shared" si="19"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I48" s="7">
+        <f t="shared" si="20"/>
+        <v>3.6350049999999952</v>
+      </c>
+      <c r="J48" s="4">
+        <f t="shared" si="21"/>
+        <v>-2.3681673715779223</v>
+      </c>
+      <c r="K48" s="4">
+        <f t="shared" si="22"/>
+        <v>-4.4036043438198256</v>
+      </c>
+    </row>
+    <row r="49" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B49" s="2">
+        <f t="shared" si="15"/>
+        <v>220</v>
+      </c>
+      <c r="C49" s="3">
+        <v>1000</v>
+      </c>
+      <c r="D49" s="3">
+        <v>5</v>
+      </c>
+      <c r="E49" s="4">
+        <f t="shared" si="16"/>
+        <v>-83.658111739497002</v>
+      </c>
+      <c r="F49" s="4">
+        <f t="shared" si="17"/>
+        <v>-202.99364935628066</v>
+      </c>
+      <c r="G49" s="7">
+        <f t="shared" si="18"/>
+        <v>3.6399999999999952</v>
+      </c>
+      <c r="H49" s="2">
+        <f t="shared" si="19"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I49" s="7">
+        <f t="shared" si="20"/>
+        <v>3.6400049999999951</v>
+      </c>
+      <c r="J49" s="4">
+        <f t="shared" si="21"/>
+        <v>-2.3901556995249047</v>
+      </c>
+      <c r="K49" s="4">
+        <f t="shared" si="22"/>
+        <v>-4.3917085113590737</v>
+      </c>
+    </row>
+    <row r="50" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B50" s="2">
+        <f t="shared" si="15"/>
+        <v>225</v>
+      </c>
+      <c r="C50" s="3">
+        <v>1000</v>
+      </c>
+      <c r="D50" s="3">
+        <v>5</v>
+      </c>
+      <c r="E50" s="4">
+        <f t="shared" si="16"/>
+        <v>-86.070196013200885</v>
+      </c>
+      <c r="F50" s="4">
+        <f t="shared" si="17"/>
+        <v>-207.37335224269492</v>
+      </c>
+      <c r="G50" s="7">
+        <f t="shared" si="18"/>
+        <v>3.6449999999999951</v>
+      </c>
+      <c r="H50" s="2">
+        <f t="shared" si="19"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I50" s="7">
+        <f t="shared" si="20"/>
+        <v>3.6450049999999949</v>
+      </c>
+      <c r="J50" s="4">
+        <f t="shared" si="21"/>
+        <v>-2.4120842737038863</v>
+      </c>
+      <c r="K50" s="4">
+        <f t="shared" si="22"/>
+        <v>-4.3797028864142726</v>
+      </c>
+    </row>
+    <row r="51" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B51" s="2">
+        <f t="shared" si="15"/>
+        <v>230</v>
+      </c>
+      <c r="C51" s="3">
+        <v>1000</v>
+      </c>
+      <c r="D51" s="3">
+        <v>5</v>
+      </c>
+      <c r="E51" s="4">
+        <f t="shared" si="16"/>
+        <v>-88.504148559102532</v>
+      </c>
+      <c r="F51" s="4">
+        <f t="shared" si="17"/>
+        <v>-211.74094001182033</v>
+      </c>
+      <c r="G51" s="7">
+        <f t="shared" si="18"/>
+        <v>3.649999999999995</v>
+      </c>
+      <c r="H51" s="2">
+        <f t="shared" si="19"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I51" s="7">
+        <f t="shared" si="20"/>
+        <v>3.6500049999999948</v>
+      </c>
+      <c r="J51" s="4">
+        <f t="shared" si="21"/>
+        <v>-2.4339525459016542</v>
+      </c>
+      <c r="K51" s="4">
+        <f t="shared" si="22"/>
+        <v>-4.3675877691254206</v>
+      </c>
+    </row>
+    <row r="52" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B52" s="2">
+        <f t="shared" si="15"/>
+        <v>235</v>
+      </c>
+      <c r="C52" s="3">
+        <v>1000</v>
+      </c>
+      <c r="D52" s="3">
+        <v>5</v>
+      </c>
+      <c r="E52" s="4">
+        <f t="shared" si="16"/>
+        <v>-90.959908528515072</v>
+      </c>
+      <c r="F52" s="4">
+        <f t="shared" si="17"/>
+        <v>-216.09630347419014</v>
+      </c>
+      <c r="G52" s="7">
+        <f t="shared" si="18"/>
+        <v>3.6549999999999949</v>
+      </c>
+      <c r="H52" s="2">
+        <f t="shared" si="19"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I52" s="7">
+        <f t="shared" si="20"/>
+        <v>3.6550049999999947</v>
+      </c>
+      <c r="J52" s="4">
+        <f t="shared" si="21"/>
+        <v>-2.4557599694125432</v>
+      </c>
+      <c r="K52" s="4">
+        <f t="shared" si="22"/>
+        <v>-4.3553634623698194</v>
+      </c>
+    </row>
+    <row r="53" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B53" s="2">
+        <f t="shared" si="15"/>
+        <v>240</v>
+      </c>
+      <c r="C53" s="3">
+        <v>1000</v>
+      </c>
+      <c r="D53" s="3">
+        <v>5</v>
+      </c>
+      <c r="E53" s="4">
+        <f t="shared" si="16"/>
+        <v>-93.437414527567171</v>
+      </c>
+      <c r="F53" s="4">
+        <f t="shared" si="17"/>
+        <v>-220.43933374594462</v>
+      </c>
+      <c r="G53" s="7">
+        <f t="shared" si="18"/>
+        <v>3.6599999999999948</v>
+      </c>
+      <c r="H53" s="2">
+        <f t="shared" si="19"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I53" s="7">
+        <f t="shared" si="20"/>
+        <v>3.6600049999999946</v>
+      </c>
+      <c r="J53" s="4">
+        <f t="shared" si="21"/>
+        <v>-2.4775059990521009</v>
+      </c>
+      <c r="K53" s="4">
+        <f t="shared" si="22"/>
+        <v>-4.3430302717545004</v>
+      </c>
+    </row>
+    <row r="54" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B54" s="2">
+        <f t="shared" si="15"/>
+        <v>245</v>
+      </c>
+      <c r="C54" s="3">
+        <v>1000</v>
+      </c>
+      <c r="D54" s="3">
+        <v>5</v>
+      </c>
+      <c r="E54" s="4">
+        <f t="shared" si="16"/>
+        <v>-95.936604618737888</v>
+      </c>
+      <c r="F54" s="4">
+        <f t="shared" si="17"/>
+        <v>-224.7699222515532</v>
+      </c>
+      <c r="G54" s="7">
+        <f t="shared" si="18"/>
+        <v>3.6649999999999947</v>
+      </c>
+      <c r="H54" s="2">
+        <f t="shared" si="19"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I54" s="7">
+        <f t="shared" si="20"/>
+        <v>3.6650049999999945</v>
+      </c>
+      <c r="J54" s="4">
+        <f t="shared" si="21"/>
+        <v>-2.499190091170719</v>
+      </c>
+      <c r="K54" s="4">
+        <f t="shared" si="22"/>
+        <v>-4.3305885056085867</v>
+      </c>
+    </row>
+    <row r="55" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B55" s="2">
+        <f t="shared" si="15"/>
+        <v>250</v>
+      </c>
+      <c r="C55" s="3">
+        <v>1000</v>
+      </c>
+      <c r="D55" s="3">
+        <v>5</v>
+      </c>
+      <c r="E55" s="4">
+        <f t="shared" si="16"/>
+        <v>-98.457416322405109</v>
+      </c>
+      <c r="F55" s="4">
+        <f t="shared" si="17"/>
+        <v>-229.08796072652879</v>
+      </c>
+      <c r="G55" s="7">
+        <f t="shared" si="18"/>
+        <v>3.6699999999999946</v>
+      </c>
+      <c r="H55" s="2">
+        <f t="shared" si="19"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I55" s="7">
+        <f t="shared" si="20"/>
+        <v>3.6700049999999944</v>
+      </c>
+      <c r="J55" s="4">
+        <f t="shared" si="21"/>
+        <v>-2.5208117036672237</v>
+      </c>
+      <c r="K55" s="4">
+        <f t="shared" si="22"/>
+        <v>-4.3180384749755838</v>
+      </c>
+    </row>
+    <row r="56" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B56" s="2">
+        <f t="shared" si="15"/>
+        <v>255</v>
+      </c>
+      <c r="C56" s="3">
+        <v>1000</v>
+      </c>
+      <c r="D56" s="3">
+        <v>5</v>
+      </c>
+      <c r="E56" s="4">
+        <f t="shared" si="16"/>
+        <v>-100.99978661840754</v>
+      </c>
+      <c r="F56" s="4">
+        <f t="shared" si="17"/>
+        <v>-233.3933412201344</v>
+      </c>
+      <c r="G56" s="7">
+        <f t="shared" si="18"/>
+        <v>3.6749999999999945</v>
+      </c>
+      <c r="H56" s="2">
+        <f t="shared" si="19"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I56" s="7">
+        <f t="shared" si="20"/>
+        <v>3.6750049999999943</v>
+      </c>
+      <c r="J56" s="4">
+        <f t="shared" si="21"/>
+        <v>-2.5423702960024293</v>
+      </c>
+      <c r="K56" s="4">
+        <f t="shared" si="22"/>
+        <v>-4.3053804936056048</v>
+      </c>
+    </row>
+    <row r="57" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B57" s="2">
+        <f t="shared" si="15"/>
+        <v>260</v>
+      </c>
+      <c r="C57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="D57" s="3">
+        <v>5</v>
+      </c>
+      <c r="E57" s="4">
+        <f t="shared" si="16"/>
+        <v>-103.56365194762019</v>
+      </c>
+      <c r="F57" s="4">
+        <f t="shared" si="17"/>
+        <v>-237.68595609808193</v>
+      </c>
+      <c r="G57" s="7">
+        <f t="shared" si="18"/>
+        <v>3.6799999999999944</v>
+      </c>
+      <c r="H57" s="2">
+        <f t="shared" si="19"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I57" s="7">
+        <f t="shared" si="20"/>
+        <v>3.6800049999999942</v>
+      </c>
+      <c r="J57" s="4">
+        <f t="shared" si="21"/>
+        <v>-2.563865329212649</v>
+      </c>
+      <c r="K57" s="4">
+        <f t="shared" si="22"/>
+        <v>-4.2926148779475231</v>
+      </c>
+    </row>
+    <row r="58" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B58" s="2">
+        <f t="shared" si="15"/>
+        <v>265</v>
+      </c>
+      <c r="C58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="D58" s="3">
+        <v>5</v>
+      </c>
+      <c r="E58" s="4">
+        <f t="shared" si="16"/>
+        <v>-106.14894821354336</v>
+      </c>
+      <c r="F58" s="4">
+        <f t="shared" si="17"/>
+        <v>-241.96569804522301</v>
+      </c>
+      <c r="G58" s="7">
+        <f t="shared" si="18"/>
+        <v>3.6849999999999943</v>
+      </c>
+      <c r="H58" s="2">
+        <f t="shared" si="19"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I58" s="7">
+        <f t="shared" si="20"/>
+        <v>3.6850049999999941</v>
+      </c>
+      <c r="J58" s="4">
+        <f t="shared" si="21"/>
+        <v>-2.5852962659231733</v>
+      </c>
+      <c r="K58" s="4">
+        <f t="shared" si="22"/>
+        <v>-4.2797419471410674</v>
+      </c>
+    </row>
+    <row r="59" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B59" s="2">
+        <f t="shared" si="15"/>
+        <v>270</v>
+      </c>
+      <c r="C59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="D59" s="3">
+        <v>5</v>
+      </c>
+      <c r="E59" s="4">
+        <f t="shared" si="16"/>
+        <v>-108.75561078390507</v>
+      </c>
+      <c r="F59" s="4">
+        <f t="shared" si="17"/>
+        <v>-246.23246006823183</v>
+      </c>
+      <c r="G59" s="7">
+        <f t="shared" si="18"/>
+        <v>3.6899999999999942</v>
+      </c>
+      <c r="H59" s="2">
+        <f t="shared" si="19"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I59" s="7">
+        <f t="shared" si="20"/>
+        <v>3.690004999999994</v>
+      </c>
+      <c r="J59" s="4">
+        <f t="shared" si="21"/>
+        <v>-2.6066625703617006</v>
+      </c>
+      <c r="K59" s="4">
+        <f t="shared" si="22"/>
+        <v>-4.2667620230088357</v>
+      </c>
+    </row>
+    <row r="60" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B60" s="2">
+        <f t="shared" si="15"/>
+        <v>275</v>
+      </c>
+      <c r="C60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="D60" s="3">
+        <v>5</v>
+      </c>
+      <c r="E60" s="4">
+        <f t="shared" si="16"/>
+        <v>-111.38357449227681</v>
+      </c>
+      <c r="F60" s="4">
+        <f t="shared" si="17"/>
+        <v>-250.48613549828008</v>
+      </c>
+      <c r="G60" s="7">
+        <f t="shared" si="18"/>
+        <v>3.6949999999999941</v>
+      </c>
+      <c r="H60" s="2">
+        <f t="shared" si="19"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I60" s="7">
+        <f t="shared" si="20"/>
+        <v>3.6950049999999939</v>
+      </c>
+      <c r="J60" s="4">
+        <f t="shared" si="21"/>
+        <v>-2.6279637083717322</v>
+      </c>
+      <c r="K60" s="4">
+        <f t="shared" si="22"/>
+        <v>-4.253675430048256</v>
+      </c>
+    </row>
+    <row r="61" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B61" s="2">
+        <f t="shared" si="15"/>
+        <v>280</v>
+      </c>
+      <c r="C61" s="3">
+        <v>1000</v>
+      </c>
+      <c r="D61" s="3">
+        <v>5</v>
+      </c>
+      <c r="E61" s="4">
+        <f t="shared" si="16"/>
+        <v>-114.03277363970274</v>
+      </c>
+      <c r="F61" s="4">
+        <f t="shared" si="17"/>
+        <v>-254.72661799370354</v>
+      </c>
+      <c r="G61" s="7">
+        <f t="shared" si="18"/>
+        <v>3.699999999999994</v>
+      </c>
+      <c r="H61" s="2">
+        <f t="shared" si="19"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I61" s="7">
+        <f t="shared" si="20"/>
+        <v>3.7000049999999938</v>
+      </c>
+      <c r="J61" s="4">
+        <f t="shared" si="21"/>
+        <v>-2.6491991474259273</v>
+      </c>
+      <c r="K61" s="4">
+        <f t="shared" si="22"/>
+        <v>-4.2404824954234694</v>
+      </c>
+    </row>
+    <row r="62" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B62" s="2">
+        <f t="shared" si="15"/>
+        <v>285</v>
+      </c>
+      <c r="C62" s="3">
+        <v>1000</v>
+      </c>
+      <c r="D62" s="3">
+        <v>5</v>
+      </c>
+      <c r="E62" s="4">
+        <f t="shared" si="16"/>
+        <v>-116.70314199634215</v>
+      </c>
+      <c r="F62" s="4">
+        <f t="shared" si="17"/>
+        <v>-258.9538015426607</v>
+      </c>
+      <c r="G62" s="7">
+        <f t="shared" si="18"/>
+        <v>3.7049999999999939</v>
+      </c>
+      <c r="H62" s="2">
+        <f t="shared" si="19"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I62" s="7">
+        <f t="shared" si="20"/>
+        <v>3.7050049999999937</v>
+      </c>
+      <c r="J62" s="4">
+        <f t="shared" si="21"/>
+        <v>-2.6703683566394161</v>
+      </c>
+      <c r="K62" s="4">
+        <f t="shared" si="22"/>
+        <v>-4.2271835489571563</v>
+      </c>
+    </row>
+    <row r="63" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B63" s="2">
+        <f t="shared" si="15"/>
+        <v>290</v>
+      </c>
+      <c r="C63" s="3">
+        <v>1000</v>
+      </c>
+      <c r="D63" s="3">
+        <v>5</v>
+      </c>
+      <c r="E63" s="4">
+        <f t="shared" si="16"/>
+        <v>-119.39461280312523</v>
+      </c>
+      <c r="F63" s="4">
+        <f t="shared" si="17"/>
+        <v>-263.16758046578298</v>
+      </c>
+      <c r="G63" s="7">
+        <f t="shared" si="18"/>
+        <v>3.7099999999999937</v>
+      </c>
+      <c r="H63" s="2">
+        <f t="shared" si="19"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I63" s="7">
+        <f t="shared" si="20"/>
+        <v>3.7100049999999936</v>
+      </c>
+      <c r="J63" s="4">
+        <f t="shared" si="21"/>
+        <v>-2.6914708067830704</v>
+      </c>
+      <c r="K63" s="4">
+        <f t="shared" si="22"/>
+        <v>-4.2137789231222857</v>
+      </c>
+    </row>
+    <row r="64" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B64" s="2">
+        <f t="shared" si="15"/>
+        <v>295</v>
+      </c>
+      <c r="C64" s="3">
+        <v>1000</v>
+      </c>
+      <c r="D64" s="3">
+        <v>5</v>
+      </c>
+      <c r="E64" s="4">
+        <f t="shared" si="16"/>
+        <v>-122.10711877342196</v>
+      </c>
+      <c r="F64" s="4">
+        <f t="shared" si="17"/>
+        <v>-267.36784941881677</v>
+      </c>
+      <c r="G64" s="7">
+        <f t="shared" si="18"/>
+        <v>3.7149999999999936</v>
+      </c>
+      <c r="H64" s="2">
+        <f t="shared" si="19"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I64" s="7">
+        <f t="shared" si="20"/>
+        <v>3.7150049999999935</v>
+      </c>
+      <c r="J64" s="4">
+        <f t="shared" si="21"/>
+        <v>-2.7125059702967356</v>
+      </c>
+      <c r="K64" s="4">
+        <f t="shared" si="22"/>
+        <v>-4.2002689530338033</v>
+      </c>
+    </row>
+    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B65" s="2">
+        <f t="shared" si="15"/>
+        <v>300</v>
+      </c>
+      <c r="C65" s="3">
+        <v>1000</v>
+      </c>
+      <c r="D65" s="3">
+        <v>5</v>
+      </c>
+      <c r="E65" s="4">
+        <f t="shared" si="16"/>
+        <v>-124.84059209472439</v>
+      </c>
+      <c r="F65" s="4">
+        <f t="shared" si="17"/>
+        <v>-271.55450339525703</v>
+      </c>
+      <c r="G65" s="7">
+        <f t="shared" si="18"/>
+        <v>3.7199999999999935</v>
+      </c>
+      <c r="H65" s="2">
+        <f t="shared" si="19"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I65" s="7">
+        <f t="shared" si="20"/>
+        <v>3.7200049999999933</v>
+      </c>
+      <c r="J65" s="4">
+        <f t="shared" si="21"/>
+        <v>-2.7334733213024198</v>
+      </c>
+      <c r="K65" s="4">
+        <f t="shared" si="22"/>
+        <v>-4.1866539764402591</v>
+      </c>
+    </row>
+    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B66" s="2">
+        <f t="shared" si="15"/>
+        <v>305</v>
+      </c>
+      <c r="C66" s="3">
+        <v>1000</v>
+      </c>
+      <c r="D66" s="3">
+        <v>5</v>
+      </c>
+      <c r="E66" s="4">
+        <f t="shared" si="16"/>
+        <v>-127.59496443034183</v>
+      </c>
+      <c r="F66" s="4">
+        <f t="shared" si="17"/>
+        <v>-275.7274377289724</v>
+      </c>
+      <c r="G66" s="7">
+        <f t="shared" si="18"/>
+        <v>3.7249999999999934</v>
+      </c>
+      <c r="H66" s="2">
+        <f t="shared" si="19"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I66" s="7">
+        <f t="shared" si="20"/>
+        <v>3.7250049999999932</v>
+      </c>
+      <c r="J66" s="4">
+        <f t="shared" si="21"/>
+        <v>-2.7543723356174397</v>
+      </c>
+      <c r="K66" s="4">
+        <f t="shared" si="22"/>
+        <v>-4.172934333715359</v>
+      </c>
+    </row>
+    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B67" s="2">
+        <f t="shared" si="15"/>
+        <v>310</v>
+      </c>
+      <c r="C67" s="3">
+        <v>1000</v>
+      </c>
+      <c r="D67" s="3">
+        <v>5</v>
+      </c>
+      <c r="E67" s="4">
+        <f t="shared" si="16"/>
+        <v>-130.37016692110936</v>
+      </c>
+      <c r="F67" s="4">
+        <f t="shared" si="17"/>
+        <v>-279.88654809682185</v>
+      </c>
+      <c r="G67" s="7">
+        <f t="shared" si="18"/>
+        <v>3.7299999999999933</v>
+      </c>
+      <c r="H67" s="2">
+        <f t="shared" si="19"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I67" s="7">
+        <f t="shared" si="20"/>
+        <v>3.7300049999999931</v>
+      </c>
+      <c r="J67" s="4">
+        <f t="shared" si="21"/>
+        <v>-2.7752024907675263</v>
+      </c>
+      <c r="K67" s="4">
+        <f t="shared" si="22"/>
+        <v>-4.1591103678494559</v>
+      </c>
+    </row>
+    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B68" s="2">
+        <f t="shared" si="15"/>
+        <v>315</v>
+      </c>
+      <c r="C68" s="3">
+        <v>1000</v>
+      </c>
+      <c r="D68" s="3">
+        <v>5</v>
+      </c>
+      <c r="E68" s="4">
+        <f t="shared" si="16"/>
+        <v>-133.16613018710925</v>
+      </c>
+      <c r="F68" s="4">
+        <f t="shared" si="17"/>
+        <v>-284.03173052126283</v>
+      </c>
+      <c r="G68" s="7">
+        <f t="shared" si="18"/>
+        <v>3.7349999999999932</v>
+      </c>
+      <c r="H68" s="2">
+        <f t="shared" si="19"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I68" s="7">
+        <f t="shared" si="20"/>
+        <v>3.735004999999993</v>
+      </c>
+      <c r="J68" s="4">
+        <f t="shared" si="21"/>
+        <v>-2.7959632659998848</v>
+      </c>
+      <c r="K68" s="4">
+        <f t="shared" si="22"/>
+        <v>-4.1451824244409767</v>
+      </c>
+    </row>
+    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B69" s="2">
+        <f t="shared" si="15"/>
+        <v>320</v>
+      </c>
+      <c r="C69" s="3">
+        <v>1000</v>
+      </c>
+      <c r="D69" s="3">
+        <v>5</v>
+      </c>
+      <c r="E69" s="4">
+        <f t="shared" si="16"/>
+        <v>-135.98278432940546</v>
+      </c>
+      <c r="F69" s="4">
+        <f t="shared" si="17"/>
+        <v>-288.16288137295061</v>
+      </c>
+      <c r="G69" s="7">
+        <f t="shared" si="18"/>
+        <v>3.7399999999999931</v>
+      </c>
+      <c r="H69" s="2">
+        <f t="shared" si="19"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I69" s="7">
+        <f t="shared" si="20"/>
+        <v>3.7400049999999929</v>
+      </c>
+      <c r="J69" s="4">
+        <f t="shared" si="21"/>
+        <v>-2.8166541422962168</v>
+      </c>
+      <c r="K69" s="4">
+        <f t="shared" si="22"/>
+        <v>-4.1311508516877815</v>
+      </c>
+    </row>
+    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B70" s="2">
+        <f t="shared" si="15"/>
+        <v>325</v>
+      </c>
+      <c r="C70" s="3">
+        <v>1000</v>
+      </c>
+      <c r="D70" s="3">
+        <v>5</v>
+      </c>
+      <c r="E70" s="4">
+        <f t="shared" si="16"/>
+        <v>-138.82005893179115</v>
+      </c>
+      <c r="F70" s="4">
+        <f t="shared" si="17"/>
+        <v>-292.27989737332905</v>
+      </c>
+      <c r="G70" s="7">
+        <f t="shared" si="18"/>
+        <v>3.744999999999993</v>
+      </c>
+      <c r="H70" s="2">
+        <f t="shared" si="19"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I70" s="7">
+        <f t="shared" si="20"/>
+        <v>3.7450049999999928</v>
+      </c>
+      <c r="J70" s="4">
+        <f t="shared" si="21"/>
+        <v>-2.8372746023856914</v>
+      </c>
+      <c r="K70" s="4">
+        <f t="shared" si="22"/>
+        <v>-4.1170160003784577</v>
+      </c>
+    </row>
+    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B71" s="2">
+        <f t="shared" si="15"/>
+        <v>330</v>
+      </c>
+      <c r="C71" s="3">
+        <v>1000</v>
+      </c>
+      <c r="D71" s="3">
+        <v>5</v>
+      </c>
+      <c r="E71" s="4">
+        <f t="shared" si="16"/>
+        <v>-141.67788306254903</v>
+      </c>
+      <c r="F71" s="4">
+        <f t="shared" si="17"/>
+        <v>-296.3826755972126</v>
+      </c>
+      <c r="G71" s="7">
+        <f t="shared" si="18"/>
+        <v>3.7499999999999929</v>
+      </c>
+      <c r="H71" s="2">
+        <f t="shared" si="19"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I71" s="7">
+        <f t="shared" si="20"/>
+        <v>3.7500049999999927</v>
+      </c>
+      <c r="J71" s="4">
+        <f t="shared" si="21"/>
+        <v>-2.8578241307578813</v>
+      </c>
+      <c r="K71" s="4">
+        <f t="shared" si="22"/>
+        <v>-4.1027782238835524</v>
+      </c>
+    </row>
+    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B72" s="2">
+        <f t="shared" si="15"/>
+        <v>335</v>
+      </c>
+      <c r="C72" s="3">
+        <v>1000</v>
+      </c>
+      <c r="D72" s="3">
+        <v>5</v>
+      </c>
+      <c r="E72" s="4">
+        <f t="shared" si="16"/>
+        <v>-144.55618527622468</v>
+      </c>
+      <c r="F72" s="4">
+        <f t="shared" si="17"/>
+        <v>-300.47111347535935</v>
+      </c>
+      <c r="G72" s="7">
+        <f t="shared" si="18"/>
+        <v>3.7549999999999928</v>
+      </c>
+      <c r="H72" s="2">
+        <f t="shared" si="19"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I72" s="7">
+        <f t="shared" si="20"/>
+        <v>3.7550049999999926</v>
+      </c>
+      <c r="J72" s="4">
+        <f t="shared" si="21"/>
+        <v>-2.8783022136756471</v>
+      </c>
+      <c r="K72" s="4">
+        <f t="shared" si="22"/>
+        <v>-4.0884378781467356</v>
+      </c>
+    </row>
+    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B73" s="2">
+        <f t="shared" si="15"/>
+        <v>340</v>
+      </c>
+      <c r="C73" s="3">
+        <v>1000</v>
+      </c>
+      <c r="D73" s="3">
+        <v>5</v>
+      </c>
+      <c r="E73" s="4">
+        <f t="shared" si="16"/>
+        <v>-147.45489361541266</v>
+      </c>
+      <c r="F73" s="4">
+        <f t="shared" si="17"/>
+        <v>-304.54510879703525</v>
+      </c>
+      <c r="G73" s="7">
+        <f t="shared" si="18"/>
+        <v>3.7599999999999927</v>
+      </c>
+      <c r="H73" s="2">
+        <f t="shared" si="19"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I73" s="7">
+        <f t="shared" si="20"/>
+        <v>3.7600049999999925</v>
+      </c>
+      <c r="J73" s="4">
+        <f t="shared" si="21"/>
+        <v>-2.8987083391879827</v>
+      </c>
+      <c r="K73" s="4">
+        <f t="shared" si="22"/>
+        <v>-4.0739953216759055</v>
+      </c>
+    </row>
+    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B74" s="2">
+        <f t="shared" si="15"/>
+        <v>345</v>
+      </c>
+      <c r="C74" s="3">
+        <v>1000</v>
+      </c>
+      <c r="D74" s="3">
+        <v>5</v>
+      </c>
+      <c r="E74" s="4">
+        <f t="shared" si="16"/>
+        <v>-150.37393561255547</v>
+      </c>
+      <c r="F74" s="4">
+        <f t="shared" si="17"/>
+        <v>-308.60455971256948</v>
+      </c>
+      <c r="G74" s="7">
+        <f t="shared" si="18"/>
+        <v>3.7649999999999926</v>
+      </c>
+      <c r="H74" s="2">
+        <f t="shared" si="19"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I74" s="7">
+        <f t="shared" si="20"/>
+        <v>3.7650049999999924</v>
+      </c>
+      <c r="J74" s="4">
+        <f t="shared" si="21"/>
+        <v>-2.9190419971428123</v>
+      </c>
+      <c r="K74" s="4">
+        <f t="shared" si="22"/>
+        <v>-4.05945091553422</v>
+      </c>
+    </row>
+    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B75" s="2">
+        <f t="shared" si="15"/>
+        <v>350</v>
+      </c>
+      <c r="C75" s="3">
+        <v>1000</v>
+      </c>
+      <c r="D75" s="3">
+        <v>5</v>
+      </c>
+      <c r="E75" s="4">
+        <f t="shared" si="16"/>
+        <v>-153.31323829175523</v>
+      </c>
+      <c r="F75" s="4">
+        <f t="shared" si="17"/>
+        <v>-312.64936473590058</v>
+      </c>
+      <c r="G75" s="7">
+        <f t="shared" si="18"/>
+        <v>3.7699999999999925</v>
+      </c>
+      <c r="H75" s="2">
+        <f t="shared" si="19"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I75" s="7">
+        <f t="shared" si="20"/>
+        <v>3.7700049999999923</v>
+      </c>
+      <c r="J75" s="4">
+        <f t="shared" si="21"/>
+        <v>-2.9393026791997472</v>
+      </c>
+      <c r="K75" s="4">
+        <f t="shared" si="22"/>
+        <v>-4.0448050233310759</v>
+      </c>
+    </row>
+    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B76" s="2">
+        <f t="shared" si="15"/>
+        <v>355</v>
+      </c>
+      <c r="C76" s="3">
+        <v>1000</v>
+      </c>
+      <c r="D76" s="3">
+        <v>5</v>
+      </c>
+      <c r="E76" s="4">
+        <f t="shared" si="16"/>
+        <v>-156.27272817059801</v>
+      </c>
+      <c r="F76" s="4">
+        <f t="shared" si="17"/>
+        <v>-316.67942274711356</v>
+      </c>
+      <c r="G76" s="7">
+        <f t="shared" si="18"/>
+        <v>3.7749999999999924</v>
+      </c>
+      <c r="H76" s="2">
+        <f t="shared" si="19"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I76" s="7">
+        <f t="shared" si="20"/>
+        <v>3.7750049999999922</v>
+      </c>
+      <c r="J76" s="4">
+        <f t="shared" si="21"/>
+        <v>-2.9594898788427901</v>
+      </c>
+      <c r="K76" s="4">
+        <f t="shared" si="22"/>
+        <v>-4.0300580112130149</v>
+      </c>
+    </row>
+    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B77" s="2">
+        <f t="shared" si="15"/>
+        <v>360</v>
+      </c>
+      <c r="C77" s="3">
+        <v>1000</v>
+      </c>
+      <c r="D77" s="3">
+        <v>5</v>
+      </c>
+      <c r="E77" s="4">
+        <f t="shared" si="16"/>
+        <v>-159.252331261991</v>
+      </c>
+      <c r="F77" s="4">
+        <f t="shared" si="17"/>
+        <v>-320.69463299496812</v>
+      </c>
+      <c r="G77" s="7">
+        <f t="shared" si="18"/>
+        <v>3.7799999999999923</v>
+      </c>
+      <c r="H77" s="2">
+        <f t="shared" si="19"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I77" s="7">
+        <f t="shared" si="20"/>
+        <v>3.7800049999999921</v>
+      </c>
+      <c r="J77" s="4">
+        <f t="shared" si="21"/>
+        <v>-2.9796030913930025</v>
+      </c>
+      <c r="K77" s="4">
+        <f t="shared" si="22"/>
+        <v>-4.015210247854573</v>
+      </c>
+    </row>
+    <row r="78" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B78" s="2">
+        <f t="shared" si="15"/>
+        <v>365</v>
+      </c>
+      <c r="C78" s="3">
+        <v>1000</v>
+      </c>
+      <c r="D78" s="3">
+        <v>5</v>
+      </c>
+      <c r="E78" s="4">
+        <f t="shared" si="16"/>
+        <v>-162.25197307601212</v>
+      </c>
+      <c r="F78" s="4">
+        <f t="shared" si="17"/>
+        <v>-324.69489509941718</v>
+      </c>
+      <c r="G78" s="7">
+        <f t="shared" si="18"/>
+        <v>3.7849999999999921</v>
+      </c>
+      <c r="H78" s="2">
+        <f t="shared" si="19"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I78" s="7">
+        <f t="shared" si="20"/>
+        <v>3.785004999999992</v>
+      </c>
+      <c r="J78" s="4">
+        <f t="shared" si="21"/>
+        <v>-2.9996418140211172</v>
+      </c>
+      <c r="K78" s="4">
+        <f t="shared" si="22"/>
+        <v>-4.0002621044490594</v>
+      </c>
+    </row>
+    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B79" s="2">
+        <f t="shared" si="15"/>
+        <v>370</v>
+      </c>
+      <c r="C79" s="3">
+        <v>1000</v>
+      </c>
+      <c r="D79" s="3">
+        <v>5</v>
+      </c>
+      <c r="E79" s="4">
+        <f t="shared" si="16"/>
+        <v>-165.27157862177222</v>
+      </c>
+      <c r="F79" s="4">
+        <f t="shared" si="17"/>
+        <v>-328.68010905411649</v>
+      </c>
+      <c r="G79" s="7">
+        <f t="shared" si="18"/>
+        <v>3.789999999999992</v>
+      </c>
+      <c r="H79" s="2">
+        <f t="shared" si="19"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I79" s="7">
+        <f t="shared" si="20"/>
+        <v>3.7900049999999919</v>
+      </c>
+      <c r="J79" s="4">
+        <f t="shared" si="21"/>
+        <v>-3.0196055457601134</v>
+      </c>
+      <c r="K79" s="4">
+        <f t="shared" si="22"/>
+        <v>-3.9852139546992813</v>
+      </c>
+    </row>
+    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B80" s="2">
+        <f t="shared" si="15"/>
+        <v>375</v>
+      </c>
+      <c r="C80" s="3">
+        <v>1000</v>
+      </c>
+      <c r="D80" s="3">
+        <v>5</v>
+      </c>
+      <c r="E80" s="4">
+        <f t="shared" si="16"/>
+        <v>-168.31107240928995</v>
+      </c>
+      <c r="F80" s="4">
+        <f t="shared" si="17"/>
+        <v>-332.6501752289247</v>
+      </c>
+      <c r="G80" s="7">
+        <f t="shared" si="18"/>
+        <v>3.7949999999999919</v>
+      </c>
+      <c r="H80" s="2">
+        <f t="shared" si="19"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I80" s="7">
+        <f t="shared" si="20"/>
+        <v>3.7950049999999917</v>
+      </c>
+      <c r="J80" s="4">
+        <f t="shared" si="21"/>
+        <v>-3.0394937875177357</v>
+      </c>
+      <c r="K80" s="4">
+        <f t="shared" si="22"/>
+        <v>-3.9700661748081996</v>
+      </c>
+    </row>
+    <row r="81" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B81" s="2">
+        <f t="shared" si="15"/>
+        <v>380</v>
+      </c>
+      <c r="C81" s="3">
+        <v>1000</v>
+      </c>
+      <c r="D81" s="3">
+        <v>5</v>
+      </c>
+      <c r="E81" s="4">
+        <f t="shared" si="16"/>
+        <v>-171.37037845137894</v>
+      </c>
+      <c r="F81" s="4">
+        <f t="shared" si="17"/>
+        <v>-336.60499437239423</v>
+      </c>
+      <c r="G81" s="7">
+        <f t="shared" si="18"/>
+        <v>3.7999999999999918</v>
+      </c>
+      <c r="H81" s="2">
+        <f t="shared" si="19"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I81" s="7">
+        <f t="shared" si="20"/>
+        <v>3.8000049999999916</v>
+      </c>
+      <c r="J81" s="4">
+        <f t="shared" si="21"/>
+        <v>-3.0593060420889771</v>
+      </c>
+      <c r="K81" s="4">
+        <f t="shared" si="22"/>
+        <v>-3.9548191434695208</v>
+      </c>
+    </row>
+    <row r="82" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B82" s="2">
+        <f t="shared" si="15"/>
+        <v>385</v>
+      </c>
+      <c r="C82" s="3">
+        <v>1000</v>
+      </c>
+      <c r="D82" s="3">
+        <v>5</v>
+      </c>
+      <c r="E82" s="4">
+        <f t="shared" si="16"/>
+        <v>-174.44942026554745</v>
+      </c>
+      <c r="F82" s="4">
+        <f t="shared" si="17"/>
+        <v>-340.54446761425248</v>
+      </c>
+      <c r="G82" s="7">
+        <f t="shared" si="18"/>
+        <v>3.8049999999999917</v>
+      </c>
+      <c r="H82" s="2">
+        <f t="shared" si="19"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I82" s="7">
+        <f t="shared" si="20"/>
+        <v>3.8050049999999915</v>
+      </c>
+      <c r="J82" s="4">
+        <f t="shared" si="21"/>
+        <v>-3.0790418141685048</v>
+      </c>
+      <c r="K82" s="4">
+        <f t="shared" si="22"/>
+        <v>-3.9394732418582357</v>
+      </c>
+    </row>
+    <row r="83" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B83" s="2">
+        <f t="shared" si="15"/>
+        <v>390</v>
+      </c>
+      <c r="C83" s="3">
+        <v>1000</v>
+      </c>
+      <c r="D83" s="3">
+        <v>5</v>
+      </c>
+      <c r="E83" s="4">
+        <f t="shared" si="16"/>
+        <v>-177.54812087591048</v>
+      </c>
+      <c r="F83" s="4">
+        <f t="shared" si="17"/>
+        <v>-344.46849646787359</v>
+      </c>
+      <c r="G83" s="7">
+        <f t="shared" si="18"/>
+        <v>3.8099999999999916</v>
+      </c>
+      <c r="H83" s="2">
+        <f t="shared" si="19"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I83" s="7">
+        <f t="shared" si="20"/>
+        <v>3.8100049999999914</v>
+      </c>
+      <c r="J83" s="4">
+        <f t="shared" si="21"/>
+        <v>-3.098700610363045</v>
+      </c>
+      <c r="K83" s="4">
+        <f t="shared" si="22"/>
+        <v>-3.9240288536210852</v>
+      </c>
+    </row>
+    <row r="84" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B84" s="2">
+        <f t="shared" si="15"/>
+        <v>395</v>
+      </c>
+      <c r="C84" s="3">
+        <v>1000</v>
+      </c>
+      <c r="D84" s="3">
+        <v>5</v>
+      </c>
+      <c r="E84" s="4">
+        <f t="shared" si="16"/>
+        <v>-180.6664028151142</v>
+      </c>
+      <c r="F84" s="4">
+        <f t="shared" si="17"/>
+        <v>-348.37698283274057</v>
+      </c>
+      <c r="G84" s="7">
+        <f t="shared" si="18"/>
+        <v>3.8149999999999915</v>
+      </c>
+      <c r="H84" s="2">
+        <f t="shared" si="19"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I84" s="7">
+        <f t="shared" si="20"/>
+        <v>3.8150049999999913</v>
+      </c>
+      <c r="J84" s="4">
+        <f t="shared" si="21"/>
+        <v>-3.1182819392037167</v>
+      </c>
+      <c r="K84" s="4">
+        <f t="shared" si="22"/>
+        <v>-3.9084863648669703</v>
+      </c>
+    </row>
+    <row r="85" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B85" s="2">
+        <f t="shared" si="15"/>
+        <v>400</v>
+      </c>
+      <c r="C85" s="3">
+        <v>1000</v>
+      </c>
+      <c r="D85" s="3">
+        <v>5</v>
+      </c>
+      <c r="E85" s="4">
+        <f t="shared" si="16"/>
+        <v>-183.80418812627252</v>
+      </c>
+      <c r="F85" s="4">
+        <f t="shared" si="17"/>
+        <v>-352.26982899689784</v>
+      </c>
+      <c r="G85" s="7">
+        <f t="shared" si="18"/>
+        <v>3.8199999999999914</v>
+      </c>
+      <c r="H85" s="2">
+        <f t="shared" si="19"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I85" s="7">
+        <f t="shared" si="20"/>
+        <v>3.8200049999999912</v>
+      </c>
+      <c r="J85" s="4">
+        <f t="shared" si="21"/>
+        <v>-3.1377853111583192</v>
+      </c>
+      <c r="K85" s="4">
+        <f t="shared" si="22"/>
+        <v>-3.8928461641573002</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:S95"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" customWidth="1"/>
+    <col min="9" max="9" width="11.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="9"/>
+      <c r="H2" s="3">
+        <v>1350</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.85</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="9"/>
+      <c r="H3" s="3">
+        <v>20</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.45</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="9"/>
+      <c r="H4" s="3">
+        <v>150</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="9"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="3">
+        <v>150</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="F8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="11" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B11" s="2"/>
+      <c r="C11" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+    </row>
+    <row r="12" spans="2:19" ht="26" x14ac:dyDescent="0.2">
+      <c r="B12" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="O12" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="R12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="S12" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B13" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2" t="str">
+        <f>'Traveling Line'!B3</f>
+        <v>L</v>
+      </c>
+      <c r="S13" s="2" t="str">
+        <f>'Traveling Line'!C3</f>
+        <v>m</v>
+      </c>
+    </row>
+    <row r="14" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B14" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2" t="str">
+        <f>'Traveling Line'!B4</f>
+        <v>m</v>
+      </c>
+      <c r="S14" s="2" t="str">
+        <f>'Traveling Line'!C4</f>
+        <v>m</v>
+      </c>
+    </row>
+    <row r="15" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B15" s="12">
+        <f>IF((ABS(S17)*C$2*9.806)^0.5&gt;C$7/3.6,C$7/3.6,(ABS(S17)*C$2*9.806)^0.5)</f>
+        <v>41.666666666666664</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2">
+        <f>'Traveling Line'!B5</f>
+        <v>0</v>
+      </c>
+      <c r="S15" s="2">
+        <f>'Traveling Line'!C5</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="16" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B16" s="12">
+        <f t="shared" ref="B16:B79" si="0">IF((ABS(S18)*C$2*9.806)^0.5&gt;C$7/3.6,C$7/3.6,(ABS(S18)*C$2*9.806)^0.5)</f>
+        <v>41.666666666666664</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2">
+        <f>'Traveling Line'!B6</f>
+        <v>5</v>
+      </c>
+      <c r="S16" s="2">
+        <f>'Traveling Line'!C6</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="17" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B17" s="12">
+        <f t="shared" si="0"/>
+        <v>41.666666666666664</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2">
+        <f>'Traveling Line'!B7</f>
+        <v>10</v>
+      </c>
+      <c r="S17" s="2">
+        <f>'Traveling Line'!C7</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="18" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B18" s="12">
+        <f t="shared" si="0"/>
+        <v>41.666666666666664</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2">
+        <f>'Traveling Line'!B8</f>
+        <v>15</v>
+      </c>
+      <c r="S18" s="2">
+        <f>'Traveling Line'!C8</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="19" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B19" s="12">
+        <f t="shared" si="0"/>
+        <v>41.666666666666664</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2">
+        <f>'Traveling Line'!B9</f>
+        <v>20</v>
+      </c>
+      <c r="S19" s="2">
+        <f>'Traveling Line'!C9</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="20" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B20" s="12">
+        <f t="shared" si="0"/>
+        <v>41.666666666666664</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2">
+        <f>'Traveling Line'!B10</f>
+        <v>25</v>
+      </c>
+      <c r="S20" s="2">
+        <f>'Traveling Line'!C10</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="21" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B21" s="12">
+        <f t="shared" si="0"/>
+        <v>41.666666666666664</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2">
+        <f>'Traveling Line'!B11</f>
+        <v>30</v>
+      </c>
+      <c r="S21" s="2">
+        <f>'Traveling Line'!C11</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="22" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B22" s="12">
+        <f t="shared" si="0"/>
+        <v>41.666666666666664</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2">
+        <f>'Traveling Line'!B12</f>
+        <v>35</v>
+      </c>
+      <c r="S22" s="2">
+        <f>'Traveling Line'!C12</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="23" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B23" s="12">
+        <f t="shared" si="0"/>
+        <v>41.666666666666664</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2">
+        <f>'Traveling Line'!B13</f>
+        <v>40</v>
+      </c>
+      <c r="S23" s="2">
+        <f>'Traveling Line'!C13</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="24" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B24" s="12">
+        <f t="shared" si="0"/>
+        <v>41.666666666666664</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2">
+        <f>'Traveling Line'!B14</f>
+        <v>45</v>
+      </c>
+      <c r="S24" s="2">
+        <f>'Traveling Line'!C14</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="25" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B25" s="12">
+        <f t="shared" si="0"/>
+        <v>41.666666666666664</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2">
+        <f>'Traveling Line'!B15</f>
+        <v>50</v>
+      </c>
+      <c r="S25" s="2">
+        <f>'Traveling Line'!C15</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="26" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B26" s="12">
+        <f t="shared" si="0"/>
+        <v>41.666666666666664</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2">
+        <f>'Traveling Line'!B16</f>
+        <v>55</v>
+      </c>
+      <c r="S26" s="2">
+        <f>'Traveling Line'!C16</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="27" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B27" s="12">
+        <f t="shared" si="0"/>
+        <v>41.666666666666664</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2">
+        <f>'Traveling Line'!B17</f>
+        <v>60</v>
+      </c>
+      <c r="S27" s="2">
+        <f>'Traveling Line'!C17</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="28" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B28" s="12">
+        <f t="shared" si="0"/>
+        <v>41.666666666666664</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="2">
+        <f>'Traveling Line'!B18</f>
+        <v>65</v>
+      </c>
+      <c r="S28" s="2">
+        <f>'Traveling Line'!C18</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="29" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B29" s="12">
+        <f t="shared" si="0"/>
+        <v>41.666666666666664</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2"/>
+      <c r="R29" s="2">
+        <f>'Traveling Line'!B19</f>
+        <v>70</v>
+      </c>
+      <c r="S29" s="2">
+        <f>'Traveling Line'!C19</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="30" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B30" s="12">
+        <f t="shared" si="0"/>
+        <v>41.666666666666664</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="2"/>
+      <c r="R30" s="2">
+        <f>'Traveling Line'!B20</f>
+        <v>75</v>
+      </c>
+      <c r="S30" s="2">
+        <f>'Traveling Line'!C20</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="31" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B31" s="12">
+        <f t="shared" si="0"/>
+        <v>41.666666666666664</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2"/>
+      <c r="R31" s="2">
+        <f>'Traveling Line'!B21</f>
+        <v>80</v>
+      </c>
+      <c r="S31" s="2">
+        <f>'Traveling Line'!C21</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="32" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B32" s="12">
+        <f t="shared" si="0"/>
+        <v>41.666666666666664</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="2"/>
+      <c r="R32" s="2">
+        <f>'Traveling Line'!B22</f>
+        <v>85</v>
+      </c>
+      <c r="S32" s="2">
+        <f>'Traveling Line'!C22</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B33" s="12">
+        <f t="shared" si="0"/>
+        <v>41.666666666666664</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2">
+        <f>'Traveling Line'!B23</f>
+        <v>90</v>
+      </c>
+      <c r="S33" s="2">
+        <f>'Traveling Line'!C23</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B34" s="12">
+        <f t="shared" si="0"/>
+        <v>41.666666666666664</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
+      <c r="R34" s="2">
+        <f>'Traveling Line'!B24</f>
+        <v>95</v>
+      </c>
+      <c r="S34" s="2">
+        <f>'Traveling Line'!C24</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B35" s="12">
+        <f t="shared" si="0"/>
+        <v>41.666666666666664</v>
+      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
+      <c r="R35" s="2">
+        <f>'Traveling Line'!B25</f>
+        <v>100</v>
+      </c>
+      <c r="S35" s="2">
+        <f>'Traveling Line'!C25</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="36" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B36" s="12">
+        <f t="shared" si="0"/>
+        <v>41.666666666666664</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="2">
+        <f>'Traveling Line'!B26</f>
+        <v>105</v>
+      </c>
+      <c r="S36" s="2">
+        <f>'Traveling Line'!C26</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B37" s="12">
+        <f t="shared" si="0"/>
+        <v>41.666666666666664</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2"/>
+      <c r="R37" s="2">
+        <f>'Traveling Line'!B27</f>
+        <v>110</v>
+      </c>
+      <c r="S37" s="2">
+        <f>'Traveling Line'!C27</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B38" s="12">
+        <f t="shared" si="0"/>
+        <v>41.666666666666664</v>
+      </c>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="2"/>
+      <c r="R38" s="2">
+        <f>'Traveling Line'!B28</f>
+        <v>115</v>
+      </c>
+      <c r="S38" s="2">
+        <f>'Traveling Line'!C28</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B39" s="12">
+        <f t="shared" si="0"/>
+        <v>41.666666666666664</v>
+      </c>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
+      <c r="P39" s="2"/>
+      <c r="Q39" s="2"/>
+      <c r="R39" s="2">
+        <f>'Traveling Line'!B29</f>
+        <v>120</v>
+      </c>
+      <c r="S39" s="2">
+        <f>'Traveling Line'!C29</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B40" s="12">
+        <f t="shared" si="0"/>
+        <v>41.666666666666664</v>
+      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
+      <c r="P40" s="2"/>
+      <c r="Q40" s="2"/>
+      <c r="R40" s="2">
+        <f>'Traveling Line'!B30</f>
+        <v>125</v>
+      </c>
+      <c r="S40" s="2">
+        <f>'Traveling Line'!C30</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B41" s="12">
+        <f t="shared" si="0"/>
+        <v>41.666666666666664</v>
+      </c>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+      <c r="P41" s="2"/>
+      <c r="Q41" s="2"/>
+      <c r="R41" s="2">
+        <f>'Traveling Line'!B31</f>
+        <v>130</v>
+      </c>
+      <c r="S41" s="2">
+        <f>'Traveling Line'!C31</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B42" s="12">
+        <f t="shared" si="0"/>
+        <v>41.666666666666664</v>
+      </c>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
+      <c r="P42" s="2"/>
+      <c r="Q42" s="2"/>
+      <c r="R42" s="2">
+        <f>'Traveling Line'!B32</f>
+        <v>135</v>
+      </c>
+      <c r="S42" s="2">
+        <f>'Traveling Line'!C32</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B43" s="12">
+        <f t="shared" si="0"/>
+        <v>41.666666666666664</v>
+      </c>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
+      <c r="P43" s="2"/>
+      <c r="Q43" s="2"/>
+      <c r="R43" s="2">
+        <f>'Traveling Line'!B33</f>
+        <v>140</v>
+      </c>
+      <c r="S43" s="2">
+        <f>'Traveling Line'!C33</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B44" s="12">
+        <f t="shared" si="0"/>
+        <v>41.666666666666664</v>
+      </c>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
+      <c r="P44" s="2"/>
+      <c r="Q44" s="2"/>
+      <c r="R44" s="2">
+        <f>'Traveling Line'!B34</f>
+        <v>145</v>
+      </c>
+      <c r="S44" s="2">
+        <f>'Traveling Line'!C34</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B45" s="12">
+        <f t="shared" si="0"/>
+        <v>41.666666666666664</v>
+      </c>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="2"/>
+      <c r="L45" s="2"/>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
+      <c r="P45" s="2"/>
+      <c r="Q45" s="2"/>
+      <c r="R45" s="2">
+        <f>'Traveling Line'!B35</f>
+        <v>150</v>
+      </c>
+      <c r="S45" s="2">
+        <f>'Traveling Line'!C35</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B46" s="12">
+        <f t="shared" si="0"/>
+        <v>41.666666666666664</v>
+      </c>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
+      <c r="K46" s="2"/>
+      <c r="L46" s="2"/>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
+      <c r="O46" s="2"/>
+      <c r="P46" s="2"/>
+      <c r="Q46" s="2"/>
+      <c r="R46" s="2">
+        <f>'Traveling Line'!B36</f>
+        <v>155</v>
+      </c>
+      <c r="S46" s="2">
+        <f>'Traveling Line'!C36</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B47" s="12">
+        <f t="shared" si="0"/>
+        <v>41.666666666666664</v>
+      </c>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2"/>
+      <c r="K47" s="2"/>
+      <c r="L47" s="2"/>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2"/>
+      <c r="O47" s="2"/>
+      <c r="P47" s="2"/>
+      <c r="Q47" s="2"/>
+      <c r="R47" s="2">
+        <f>'Traveling Line'!B37</f>
+        <v>160</v>
+      </c>
+      <c r="S47" s="2">
+        <f>'Traveling Line'!C37</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B48" s="12">
+        <f t="shared" si="0"/>
+        <v>41.666666666666664</v>
+      </c>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
+      <c r="K48" s="2"/>
+      <c r="L48" s="2"/>
+      <c r="M48" s="2"/>
+      <c r="N48" s="2"/>
+      <c r="O48" s="2"/>
+      <c r="P48" s="2"/>
+      <c r="Q48" s="2"/>
+      <c r="R48" s="2">
+        <f>'Traveling Line'!B38</f>
+        <v>165</v>
+      </c>
+      <c r="S48" s="2">
+        <f>'Traveling Line'!C38</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="49" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B49" s="12">
+        <f t="shared" si="0"/>
+        <v>41.666666666666664</v>
+      </c>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2"/>
+      <c r="K49" s="2"/>
+      <c r="L49" s="2"/>
+      <c r="M49" s="2"/>
+      <c r="N49" s="2"/>
+      <c r="O49" s="2"/>
+      <c r="P49" s="2"/>
+      <c r="Q49" s="2"/>
+      <c r="R49" s="2">
+        <f>'Traveling Line'!B39</f>
+        <v>170</v>
+      </c>
+      <c r="S49" s="2">
+        <f>'Traveling Line'!C39</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="50" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B50" s="12">
+        <f t="shared" si="0"/>
+        <v>41.666666666666664</v>
+      </c>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2"/>
+      <c r="K50" s="2"/>
+      <c r="L50" s="2"/>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2"/>
+      <c r="O50" s="2"/>
+      <c r="P50" s="2"/>
+      <c r="Q50" s="2"/>
+      <c r="R50" s="2">
+        <f>'Traveling Line'!B40</f>
+        <v>175</v>
+      </c>
+      <c r="S50" s="2">
+        <f>'Traveling Line'!C40</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="51" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B51" s="12">
+        <f t="shared" si="0"/>
+        <v>41.666666666666664</v>
+      </c>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="2"/>
+      <c r="K51" s="2"/>
+      <c r="L51" s="2"/>
+      <c r="M51" s="2"/>
+      <c r="N51" s="2"/>
+      <c r="O51" s="2"/>
+      <c r="P51" s="2"/>
+      <c r="Q51" s="2"/>
+      <c r="R51" s="2">
+        <f>'Traveling Line'!B41</f>
+        <v>180</v>
+      </c>
+      <c r="S51" s="2">
+        <f>'Traveling Line'!C41</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="52" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B52" s="12">
+        <f t="shared" si="0"/>
+        <v>41.666666666666664</v>
+      </c>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
+      <c r="J52" s="2"/>
+      <c r="K52" s="2"/>
+      <c r="L52" s="2"/>
+      <c r="M52" s="2"/>
+      <c r="N52" s="2"/>
+      <c r="O52" s="2"/>
+      <c r="P52" s="2"/>
+      <c r="Q52" s="2"/>
+      <c r="R52" s="2">
+        <f>'Traveling Line'!B42</f>
+        <v>185</v>
+      </c>
+      <c r="S52" s="2">
+        <f>'Traveling Line'!C42</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="53" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B53" s="12">
+        <f t="shared" si="0"/>
+        <v>41.666666666666664</v>
+      </c>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
+      <c r="J53" s="2"/>
+      <c r="K53" s="2"/>
+      <c r="L53" s="2"/>
+      <c r="M53" s="2"/>
+      <c r="N53" s="2"/>
+      <c r="O53" s="2"/>
+      <c r="P53" s="2"/>
+      <c r="Q53" s="2"/>
+      <c r="R53" s="2">
+        <f>'Traveling Line'!B43</f>
+        <v>190</v>
+      </c>
+      <c r="S53" s="2">
+        <f>'Traveling Line'!C43</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="54" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B54" s="12">
+        <f t="shared" si="0"/>
+        <v>41.666666666666664</v>
+      </c>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
+      <c r="J54" s="2"/>
+      <c r="K54" s="2"/>
+      <c r="L54" s="2"/>
+      <c r="M54" s="2"/>
+      <c r="N54" s="2"/>
+      <c r="O54" s="2"/>
+      <c r="P54" s="2"/>
+      <c r="Q54" s="2"/>
+      <c r="R54" s="2">
+        <f>'Traveling Line'!B44</f>
+        <v>195</v>
+      </c>
+      <c r="S54" s="2">
+        <f>'Traveling Line'!C44</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="55" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B55" s="12">
+        <f t="shared" si="0"/>
+        <v>41.666666666666664</v>
+      </c>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2"/>
+      <c r="J55" s="2"/>
+      <c r="K55" s="2"/>
+      <c r="L55" s="2"/>
+      <c r="M55" s="2"/>
+      <c r="N55" s="2"/>
+      <c r="O55" s="2"/>
+      <c r="P55" s="2"/>
+      <c r="Q55" s="2"/>
+      <c r="R55" s="2">
+        <f>'Traveling Line'!B45</f>
+        <v>200</v>
+      </c>
+      <c r="S55" s="2">
+        <f>'Traveling Line'!C45</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="56" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B56" s="12">
+        <f t="shared" si="0"/>
+        <v>41.666666666666664</v>
+      </c>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
+      <c r="J56" s="2"/>
+      <c r="K56" s="2"/>
+      <c r="L56" s="2"/>
+      <c r="M56" s="2"/>
+      <c r="N56" s="2"/>
+      <c r="O56" s="2"/>
+      <c r="P56" s="2"/>
+      <c r="Q56" s="2"/>
+      <c r="R56" s="2">
+        <f>'Traveling Line'!B46</f>
+        <v>205</v>
+      </c>
+      <c r="S56" s="2">
+        <f>'Traveling Line'!C46</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="57" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B57" s="12">
+        <f t="shared" si="0"/>
+        <v>41.666666666666664</v>
+      </c>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2"/>
+      <c r="J57" s="2"/>
+      <c r="K57" s="2"/>
+      <c r="L57" s="2"/>
+      <c r="M57" s="2"/>
+      <c r="N57" s="2"/>
+      <c r="O57" s="2"/>
+      <c r="P57" s="2"/>
+      <c r="Q57" s="2"/>
+      <c r="R57" s="2">
+        <f>'Traveling Line'!B47</f>
+        <v>210</v>
+      </c>
+      <c r="S57" s="2">
+        <f>'Traveling Line'!C47</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="58" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B58" s="12">
+        <f t="shared" si="0"/>
+        <v>41.666666666666664</v>
+      </c>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
+      <c r="I58" s="2"/>
+      <c r="J58" s="2"/>
+      <c r="K58" s="2"/>
+      <c r="L58" s="2"/>
+      <c r="M58" s="2"/>
+      <c r="N58" s="2"/>
+      <c r="O58" s="2"/>
+      <c r="P58" s="2"/>
+      <c r="Q58" s="2"/>
+      <c r="R58" s="2">
+        <f>'Traveling Line'!B48</f>
+        <v>215</v>
+      </c>
+      <c r="S58" s="2">
+        <f>'Traveling Line'!C48</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="59" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B59" s="12">
+        <f t="shared" si="0"/>
+        <v>41.666666666666664</v>
+      </c>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="2"/>
+      <c r="J59" s="2"/>
+      <c r="K59" s="2"/>
+      <c r="L59" s="2"/>
+      <c r="M59" s="2"/>
+      <c r="N59" s="2"/>
+      <c r="O59" s="2"/>
+      <c r="P59" s="2"/>
+      <c r="Q59" s="2"/>
+      <c r="R59" s="2">
+        <f>'Traveling Line'!B49</f>
+        <v>220</v>
+      </c>
+      <c r="S59" s="2">
+        <f>'Traveling Line'!C49</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="60" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B60" s="12">
+        <f t="shared" si="0"/>
+        <v>41.666666666666664</v>
+      </c>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="2"/>
+      <c r="J60" s="2"/>
+      <c r="K60" s="2"/>
+      <c r="L60" s="2"/>
+      <c r="M60" s="2"/>
+      <c r="N60" s="2"/>
+      <c r="O60" s="2"/>
+      <c r="P60" s="2"/>
+      <c r="Q60" s="2"/>
+      <c r="R60" s="2">
+        <f>'Traveling Line'!B50</f>
+        <v>225</v>
+      </c>
+      <c r="S60" s="2">
+        <f>'Traveling Line'!C50</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="61" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B61" s="12">
+        <f t="shared" si="0"/>
+        <v>41.666666666666664</v>
+      </c>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
+      <c r="I61" s="2"/>
+      <c r="J61" s="2"/>
+      <c r="K61" s="2"/>
+      <c r="L61" s="2"/>
+      <c r="M61" s="2"/>
+      <c r="N61" s="2"/>
+      <c r="O61" s="2"/>
+      <c r="P61" s="2"/>
+      <c r="Q61" s="2"/>
+      <c r="R61" s="2">
+        <f>'Traveling Line'!B51</f>
+        <v>230</v>
+      </c>
+      <c r="S61" s="2">
+        <f>'Traveling Line'!C51</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="62" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B62" s="12">
+        <f t="shared" si="0"/>
+        <v>41.666666666666664</v>
+      </c>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
+      <c r="H62" s="2"/>
+      <c r="I62" s="2"/>
+      <c r="J62" s="2"/>
+      <c r="K62" s="2"/>
+      <c r="L62" s="2"/>
+      <c r="M62" s="2"/>
+      <c r="N62" s="2"/>
+      <c r="O62" s="2"/>
+      <c r="P62" s="2"/>
+      <c r="Q62" s="2"/>
+      <c r="R62" s="2">
+        <f>'Traveling Line'!B52</f>
+        <v>235</v>
+      </c>
+      <c r="S62" s="2">
+        <f>'Traveling Line'!C52</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="63" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B63" s="12">
+        <f t="shared" si="0"/>
+        <v>41.666666666666664</v>
+      </c>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
+      <c r="I63" s="2"/>
+      <c r="J63" s="2"/>
+      <c r="K63" s="2"/>
+      <c r="L63" s="2"/>
+      <c r="M63" s="2"/>
+      <c r="N63" s="2"/>
+      <c r="O63" s="2"/>
+      <c r="P63" s="2"/>
+      <c r="Q63" s="2"/>
+      <c r="R63" s="2">
+        <f>'Traveling Line'!B53</f>
+        <v>240</v>
+      </c>
+      <c r="S63" s="2">
+        <f>'Traveling Line'!C53</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="64" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B64" s="12">
+        <f t="shared" si="0"/>
+        <v>41.666666666666664</v>
+      </c>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="2"/>
+      <c r="H64" s="2"/>
+      <c r="I64" s="2"/>
+      <c r="J64" s="2"/>
+      <c r="K64" s="2"/>
+      <c r="L64" s="2"/>
+      <c r="M64" s="2"/>
+      <c r="N64" s="2"/>
+      <c r="O64" s="2"/>
+      <c r="P64" s="2"/>
+      <c r="Q64" s="2"/>
+      <c r="R64" s="2">
+        <f>'Traveling Line'!B54</f>
+        <v>245</v>
+      </c>
+      <c r="S64" s="2">
+        <f>'Traveling Line'!C54</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B65" s="12">
+        <f t="shared" si="0"/>
+        <v>41.666666666666664</v>
+      </c>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="2"/>
+      <c r="H65" s="2"/>
+      <c r="I65" s="2"/>
+      <c r="J65" s="2"/>
+      <c r="K65" s="2"/>
+      <c r="L65" s="2"/>
+      <c r="M65" s="2"/>
+      <c r="N65" s="2"/>
+      <c r="O65" s="2"/>
+      <c r="P65" s="2"/>
+      <c r="Q65" s="2"/>
+      <c r="R65" s="2">
+        <f>'Traveling Line'!B55</f>
+        <v>250</v>
+      </c>
+      <c r="S65" s="2">
+        <f>'Traveling Line'!C55</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B66" s="12">
+        <f t="shared" si="0"/>
+        <v>41.666666666666664</v>
+      </c>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="2"/>
+      <c r="G66" s="2"/>
+      <c r="H66" s="2"/>
+      <c r="I66" s="2"/>
+      <c r="J66" s="2"/>
+      <c r="K66" s="2"/>
+      <c r="L66" s="2"/>
+      <c r="M66" s="2"/>
+      <c r="N66" s="2"/>
+      <c r="O66" s="2"/>
+      <c r="P66" s="2"/>
+      <c r="Q66" s="2"/>
+      <c r="R66" s="2">
+        <f>'Traveling Line'!B56</f>
+        <v>255</v>
+      </c>
+      <c r="S66" s="2">
+        <f>'Traveling Line'!C56</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B67" s="12">
+        <f t="shared" si="0"/>
+        <v>41.666666666666664</v>
+      </c>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
+      <c r="G67" s="2"/>
+      <c r="H67" s="2"/>
+      <c r="I67" s="2"/>
+      <c r="J67" s="2"/>
+      <c r="K67" s="2"/>
+      <c r="L67" s="2"/>
+      <c r="M67" s="2"/>
+      <c r="N67" s="2"/>
+      <c r="O67" s="2"/>
+      <c r="P67" s="2"/>
+      <c r="Q67" s="2"/>
+      <c r="R67" s="2">
+        <f>'Traveling Line'!B57</f>
+        <v>260</v>
+      </c>
+      <c r="S67" s="2">
+        <f>'Traveling Line'!C57</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B68" s="12">
+        <f t="shared" si="0"/>
+        <v>41.666666666666664</v>
+      </c>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2"/>
+      <c r="F68" s="2"/>
+      <c r="G68" s="2"/>
+      <c r="H68" s="2"/>
+      <c r="I68" s="2"/>
+      <c r="J68" s="2"/>
+      <c r="K68" s="2"/>
+      <c r="L68" s="2"/>
+      <c r="M68" s="2"/>
+      <c r="N68" s="2"/>
+      <c r="O68" s="2"/>
+      <c r="P68" s="2"/>
+      <c r="Q68" s="2"/>
+      <c r="R68" s="2">
+        <f>'Traveling Line'!B58</f>
+        <v>265</v>
+      </c>
+      <c r="S68" s="2">
+        <f>'Traveling Line'!C58</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B69" s="12">
+        <f t="shared" si="0"/>
+        <v>41.666666666666664</v>
+      </c>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="2"/>
+      <c r="G69" s="2"/>
+      <c r="H69" s="2"/>
+      <c r="I69" s="2"/>
+      <c r="J69" s="2"/>
+      <c r="K69" s="2"/>
+      <c r="L69" s="2"/>
+      <c r="M69" s="2"/>
+      <c r="N69" s="2"/>
+      <c r="O69" s="2"/>
+      <c r="P69" s="2"/>
+      <c r="Q69" s="2"/>
+      <c r="R69" s="2">
+        <f>'Traveling Line'!B59</f>
+        <v>270</v>
+      </c>
+      <c r="S69" s="2">
+        <f>'Traveling Line'!C59</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B70" s="12">
+        <f t="shared" si="0"/>
+        <v>41.666666666666664</v>
+      </c>
+      <c r="C70" s="2"/>
+      <c r="D70" s="2"/>
+      <c r="E70" s="2"/>
+      <c r="F70" s="2"/>
+      <c r="G70" s="2"/>
+      <c r="H70" s="2"/>
+      <c r="I70" s="2"/>
+      <c r="J70" s="2"/>
+      <c r="K70" s="2"/>
+      <c r="L70" s="2"/>
+      <c r="M70" s="2"/>
+      <c r="N70" s="2"/>
+      <c r="O70" s="2"/>
+      <c r="P70" s="2"/>
+      <c r="Q70" s="2"/>
+      <c r="R70" s="2">
+        <f>'Traveling Line'!B60</f>
+        <v>275</v>
+      </c>
+      <c r="S70" s="2">
+        <f>'Traveling Line'!C60</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B71" s="12">
+        <f t="shared" si="0"/>
+        <v>41.666666666666664</v>
+      </c>
+      <c r="C71" s="2"/>
+      <c r="D71" s="2"/>
+      <c r="E71" s="2"/>
+      <c r="F71" s="2"/>
+      <c r="G71" s="2"/>
+      <c r="H71" s="2"/>
+      <c r="I71" s="2"/>
+      <c r="J71" s="2"/>
+      <c r="K71" s="2"/>
+      <c r="L71" s="2"/>
+      <c r="M71" s="2"/>
+      <c r="N71" s="2"/>
+      <c r="O71" s="2"/>
+      <c r="P71" s="2"/>
+      <c r="Q71" s="2"/>
+      <c r="R71" s="2">
+        <f>'Traveling Line'!B61</f>
+        <v>280</v>
+      </c>
+      <c r="S71" s="2">
+        <f>'Traveling Line'!C61</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B72" s="12">
+        <f t="shared" si="0"/>
+        <v>41.666666666666664</v>
+      </c>
+      <c r="C72" s="2"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2"/>
+      <c r="F72" s="2"/>
+      <c r="G72" s="2"/>
+      <c r="H72" s="2"/>
+      <c r="I72" s="2"/>
+      <c r="J72" s="2"/>
+      <c r="K72" s="2"/>
+      <c r="L72" s="2"/>
+      <c r="M72" s="2"/>
+      <c r="N72" s="2"/>
+      <c r="O72" s="2"/>
+      <c r="P72" s="2"/>
+      <c r="Q72" s="2"/>
+      <c r="R72" s="2">
+        <f>'Traveling Line'!B62</f>
+        <v>285</v>
+      </c>
+      <c r="S72" s="2">
+        <f>'Traveling Line'!C62</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B73" s="12">
+        <f t="shared" si="0"/>
+        <v>41.666666666666664</v>
+      </c>
+      <c r="C73" s="2"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="2"/>
+      <c r="F73" s="2"/>
+      <c r="G73" s="2"/>
+      <c r="H73" s="2"/>
+      <c r="I73" s="2"/>
+      <c r="J73" s="2"/>
+      <c r="K73" s="2"/>
+      <c r="L73" s="2"/>
+      <c r="M73" s="2"/>
+      <c r="N73" s="2"/>
+      <c r="O73" s="2"/>
+      <c r="P73" s="2"/>
+      <c r="Q73" s="2"/>
+      <c r="R73" s="2">
+        <f>'Traveling Line'!B63</f>
+        <v>290</v>
+      </c>
+      <c r="S73" s="2">
+        <f>'Traveling Line'!C63</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B74" s="12">
+        <f t="shared" si="0"/>
+        <v>41.666666666666664</v>
+      </c>
+      <c r="C74" s="2"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2"/>
+      <c r="F74" s="2"/>
+      <c r="G74" s="2"/>
+      <c r="H74" s="2"/>
+      <c r="I74" s="2"/>
+      <c r="J74" s="2"/>
+      <c r="K74" s="2"/>
+      <c r="L74" s="2"/>
+      <c r="M74" s="2"/>
+      <c r="N74" s="2"/>
+      <c r="O74" s="2"/>
+      <c r="P74" s="2"/>
+      <c r="Q74" s="2"/>
+      <c r="R74" s="2">
+        <f>'Traveling Line'!B64</f>
+        <v>295</v>
+      </c>
+      <c r="S74" s="2">
+        <f>'Traveling Line'!C64</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B75" s="12">
+        <f t="shared" si="0"/>
+        <v>41.666666666666664</v>
+      </c>
+      <c r="C75" s="2"/>
+      <c r="D75" s="2"/>
+      <c r="E75" s="2"/>
+      <c r="F75" s="2"/>
+      <c r="G75" s="2"/>
+      <c r="H75" s="2"/>
+      <c r="I75" s="2"/>
+      <c r="J75" s="2"/>
+      <c r="K75" s="2"/>
+      <c r="L75" s="2"/>
+      <c r="M75" s="2"/>
+      <c r="N75" s="2"/>
+      <c r="O75" s="2"/>
+      <c r="P75" s="2"/>
+      <c r="Q75" s="2"/>
+      <c r="R75" s="2">
+        <f>'Traveling Line'!B65</f>
+        <v>300</v>
+      </c>
+      <c r="S75" s="2">
+        <f>'Traveling Line'!C65</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B76" s="12">
+        <f t="shared" si="0"/>
+        <v>41.666666666666664</v>
+      </c>
+      <c r="C76" s="2"/>
+      <c r="D76" s="2"/>
+      <c r="E76" s="2"/>
+      <c r="F76" s="2"/>
+      <c r="G76" s="2"/>
+      <c r="H76" s="2"/>
+      <c r="I76" s="2"/>
+      <c r="J76" s="2"/>
+      <c r="K76" s="2"/>
+      <c r="L76" s="2"/>
+      <c r="M76" s="2"/>
+      <c r="N76" s="2"/>
+      <c r="O76" s="2"/>
+      <c r="P76" s="2"/>
+      <c r="Q76" s="2"/>
+      <c r="R76" s="2">
+        <f>'Traveling Line'!B66</f>
+        <v>305</v>
+      </c>
+      <c r="S76" s="2">
+        <f>'Traveling Line'!C66</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B77" s="12">
+        <f t="shared" si="0"/>
+        <v>41.666666666666664</v>
+      </c>
+      <c r="C77" s="2"/>
+      <c r="D77" s="2"/>
+      <c r="E77" s="2"/>
+      <c r="F77" s="2"/>
+      <c r="G77" s="2"/>
+      <c r="H77" s="2"/>
+      <c r="I77" s="2"/>
+      <c r="J77" s="2"/>
+      <c r="K77" s="2"/>
+      <c r="L77" s="2"/>
+      <c r="M77" s="2"/>
+      <c r="N77" s="2"/>
+      <c r="O77" s="2"/>
+      <c r="P77" s="2"/>
+      <c r="Q77" s="2"/>
+      <c r="R77" s="2">
+        <f>'Traveling Line'!B67</f>
+        <v>310</v>
+      </c>
+      <c r="S77" s="2">
+        <f>'Traveling Line'!C67</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="78" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B78" s="12">
+        <f t="shared" si="0"/>
+        <v>41.666666666666664</v>
+      </c>
+      <c r="C78" s="2"/>
+      <c r="D78" s="2"/>
+      <c r="E78" s="2"/>
+      <c r="F78" s="2"/>
+      <c r="G78" s="2"/>
+      <c r="H78" s="2"/>
+      <c r="I78" s="2"/>
+      <c r="J78" s="2"/>
+      <c r="K78" s="2"/>
+      <c r="L78" s="2"/>
+      <c r="M78" s="2"/>
+      <c r="N78" s="2"/>
+      <c r="O78" s="2"/>
+      <c r="P78" s="2"/>
+      <c r="Q78" s="2"/>
+      <c r="R78" s="2">
+        <f>'Traveling Line'!B68</f>
+        <v>315</v>
+      </c>
+      <c r="S78" s="2">
+        <f>'Traveling Line'!C68</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B79" s="12">
+        <f t="shared" si="0"/>
+        <v>41.666666666666664</v>
+      </c>
+      <c r="C79" s="2"/>
+      <c r="D79" s="2"/>
+      <c r="E79" s="2"/>
+      <c r="F79" s="2"/>
+      <c r="G79" s="2"/>
+      <c r="H79" s="2"/>
+      <c r="I79" s="2"/>
+      <c r="J79" s="2"/>
+      <c r="K79" s="2"/>
+      <c r="L79" s="2"/>
+      <c r="M79" s="2"/>
+      <c r="N79" s="2"/>
+      <c r="O79" s="2"/>
+      <c r="P79" s="2"/>
+      <c r="Q79" s="2"/>
+      <c r="R79" s="2">
+        <f>'Traveling Line'!B69</f>
+        <v>320</v>
+      </c>
+      <c r="S79" s="2">
+        <f>'Traveling Line'!C69</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B80" s="12">
+        <f t="shared" ref="B80:B95" si="1">IF((ABS(S82)*C$2*9.806)^0.5&gt;C$7/3.6,C$7/3.6,(ABS(S82)*C$2*9.806)^0.5)</f>
+        <v>41.666666666666664</v>
+      </c>
+      <c r="C80" s="2"/>
+      <c r="D80" s="2"/>
+      <c r="E80" s="2"/>
+      <c r="F80" s="2"/>
+      <c r="G80" s="2"/>
+      <c r="H80" s="2"/>
+      <c r="I80" s="2"/>
+      <c r="J80" s="2"/>
+      <c r="K80" s="2"/>
+      <c r="L80" s="2"/>
+      <c r="M80" s="2"/>
+      <c r="N80" s="2"/>
+      <c r="O80" s="2"/>
+      <c r="P80" s="2"/>
+      <c r="Q80" s="2"/>
+      <c r="R80" s="2">
+        <f>'Traveling Line'!B70</f>
+        <v>325</v>
+      </c>
+      <c r="S80" s="2">
+        <f>'Traveling Line'!C70</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="81" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B81" s="12">
+        <f t="shared" si="1"/>
+        <v>41.666666666666664</v>
+      </c>
+      <c r="C81" s="2"/>
+      <c r="D81" s="2"/>
+      <c r="E81" s="2"/>
+      <c r="F81" s="2"/>
+      <c r="G81" s="2"/>
+      <c r="H81" s="2"/>
+      <c r="I81" s="2"/>
+      <c r="J81" s="2"/>
+      <c r="K81" s="2"/>
+      <c r="L81" s="2"/>
+      <c r="M81" s="2"/>
+      <c r="N81" s="2"/>
+      <c r="O81" s="2"/>
+      <c r="P81" s="2"/>
+      <c r="Q81" s="2"/>
+      <c r="R81" s="2">
+        <f>'Traveling Line'!B71</f>
+        <v>330</v>
+      </c>
+      <c r="S81" s="2">
+        <f>'Traveling Line'!C71</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="82" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B82" s="12">
+        <f t="shared" si="1"/>
+        <v>41.666666666666664</v>
+      </c>
+      <c r="C82" s="2"/>
+      <c r="D82" s="2"/>
+      <c r="E82" s="2"/>
+      <c r="F82" s="2"/>
+      <c r="G82" s="2"/>
+      <c r="H82" s="2"/>
+      <c r="I82" s="2"/>
+      <c r="J82" s="2"/>
+      <c r="K82" s="2"/>
+      <c r="L82" s="2"/>
+      <c r="M82" s="2"/>
+      <c r="N82" s="2"/>
+      <c r="O82" s="2"/>
+      <c r="P82" s="2"/>
+      <c r="Q82" s="2"/>
+      <c r="R82" s="2">
+        <f>'Traveling Line'!B72</f>
+        <v>335</v>
+      </c>
+      <c r="S82" s="2">
+        <f>'Traveling Line'!C72</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="83" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B83" s="12">
+        <f t="shared" si="1"/>
+        <v>41.666666666666664</v>
+      </c>
+      <c r="C83" s="2"/>
+      <c r="D83" s="2"/>
+      <c r="E83" s="2"/>
+      <c r="F83" s="2"/>
+      <c r="G83" s="2"/>
+      <c r="H83" s="2"/>
+      <c r="I83" s="2"/>
+      <c r="J83" s="2"/>
+      <c r="K83" s="2"/>
+      <c r="L83" s="2"/>
+      <c r="M83" s="2"/>
+      <c r="N83" s="2"/>
+      <c r="O83" s="2"/>
+      <c r="P83" s="2"/>
+      <c r="Q83" s="2"/>
+      <c r="R83" s="2">
+        <f>'Traveling Line'!B73</f>
+        <v>340</v>
+      </c>
+      <c r="S83" s="2">
+        <f>'Traveling Line'!C73</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="84" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B84" s="12">
+        <f t="shared" si="1"/>
+        <v>41.666666666666664</v>
+      </c>
+      <c r="C84" s="2"/>
+      <c r="D84" s="2"/>
+      <c r="E84" s="2"/>
+      <c r="F84" s="2"/>
+      <c r="G84" s="2"/>
+      <c r="H84" s="2"/>
+      <c r="I84" s="2"/>
+      <c r="J84" s="2"/>
+      <c r="K84" s="2"/>
+      <c r="L84" s="2"/>
+      <c r="M84" s="2"/>
+      <c r="N84" s="2"/>
+      <c r="O84" s="2"/>
+      <c r="P84" s="2"/>
+      <c r="Q84" s="2"/>
+      <c r="R84" s="2">
+        <f>'Traveling Line'!B74</f>
+        <v>345</v>
+      </c>
+      <c r="S84" s="2">
+        <f>'Traveling Line'!C74</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="85" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B85" s="12">
+        <f t="shared" si="1"/>
+        <v>41.666666666666664</v>
+      </c>
+      <c r="C85" s="2"/>
+      <c r="D85" s="2"/>
+      <c r="E85" s="2"/>
+      <c r="F85" s="2"/>
+      <c r="G85" s="2"/>
+      <c r="H85" s="2"/>
+      <c r="I85" s="2"/>
+      <c r="J85" s="2"/>
+      <c r="K85" s="2"/>
+      <c r="L85" s="2"/>
+      <c r="M85" s="2"/>
+      <c r="N85" s="2"/>
+      <c r="O85" s="2"/>
+      <c r="P85" s="2"/>
+      <c r="Q85" s="2"/>
+      <c r="R85" s="2">
+        <f>'Traveling Line'!B75</f>
+        <v>350</v>
+      </c>
+      <c r="S85" s="2">
+        <f>'Traveling Line'!C75</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="86" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B86" s="12">
+        <f t="shared" si="1"/>
+        <v>41.666666666666664</v>
+      </c>
+      <c r="C86" s="2"/>
+      <c r="D86" s="2"/>
+      <c r="E86" s="2"/>
+      <c r="F86" s="2"/>
+      <c r="G86" s="2"/>
+      <c r="H86" s="2"/>
+      <c r="I86" s="2"/>
+      <c r="J86" s="2"/>
+      <c r="K86" s="2"/>
+      <c r="L86" s="2"/>
+      <c r="M86" s="2"/>
+      <c r="N86" s="2"/>
+      <c r="O86" s="2"/>
+      <c r="P86" s="2"/>
+      <c r="Q86" s="2"/>
+      <c r="R86" s="2">
+        <f>'Traveling Line'!B76</f>
+        <v>355</v>
+      </c>
+      <c r="S86" s="2">
+        <f>'Traveling Line'!C76</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="87" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B87" s="12">
+        <f t="shared" si="1"/>
+        <v>41.666666666666664</v>
+      </c>
+      <c r="C87" s="2"/>
+      <c r="D87" s="2"/>
+      <c r="E87" s="2"/>
+      <c r="F87" s="2"/>
+      <c r="G87" s="2"/>
+      <c r="H87" s="2"/>
+      <c r="I87" s="2"/>
+      <c r="J87" s="2"/>
+      <c r="K87" s="2"/>
+      <c r="L87" s="2"/>
+      <c r="M87" s="2"/>
+      <c r="N87" s="2"/>
+      <c r="O87" s="2"/>
+      <c r="P87" s="2"/>
+      <c r="Q87" s="2"/>
+      <c r="R87" s="2">
+        <f>'Traveling Line'!B77</f>
+        <v>360</v>
+      </c>
+      <c r="S87" s="2">
+        <f>'Traveling Line'!C77</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="88" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B88" s="12">
+        <f t="shared" si="1"/>
+        <v>41.666666666666664</v>
+      </c>
+      <c r="C88" s="2"/>
+      <c r="D88" s="2"/>
+      <c r="E88" s="2"/>
+      <c r="F88" s="2"/>
+      <c r="G88" s="2"/>
+      <c r="H88" s="2"/>
+      <c r="I88" s="2"/>
+      <c r="J88" s="2"/>
+      <c r="K88" s="2"/>
+      <c r="L88" s="2"/>
+      <c r="M88" s="2"/>
+      <c r="N88" s="2"/>
+      <c r="O88" s="2"/>
+      <c r="P88" s="2"/>
+      <c r="Q88" s="2"/>
+      <c r="R88" s="2">
+        <f>'Traveling Line'!B78</f>
+        <v>365</v>
+      </c>
+      <c r="S88" s="2">
+        <f>'Traveling Line'!C78</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="89" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B89" s="12">
+        <f t="shared" si="1"/>
+        <v>41.666666666666664</v>
+      </c>
+      <c r="C89" s="2"/>
+      <c r="D89" s="2"/>
+      <c r="E89" s="2"/>
+      <c r="F89" s="2"/>
+      <c r="G89" s="2"/>
+      <c r="H89" s="2"/>
+      <c r="I89" s="2"/>
+      <c r="J89" s="2"/>
+      <c r="K89" s="2"/>
+      <c r="L89" s="2"/>
+      <c r="M89" s="2"/>
+      <c r="N89" s="2"/>
+      <c r="O89" s="2"/>
+      <c r="P89" s="2"/>
+      <c r="Q89" s="2"/>
+      <c r="R89" s="2">
+        <f>'Traveling Line'!B79</f>
+        <v>370</v>
+      </c>
+      <c r="S89" s="2">
+        <f>'Traveling Line'!C79</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="90" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B90" s="12">
+        <f t="shared" si="1"/>
+        <v>41.666666666666664</v>
+      </c>
+      <c r="C90" s="2"/>
+      <c r="D90" s="2"/>
+      <c r="E90" s="2"/>
+      <c r="F90" s="2"/>
+      <c r="G90" s="2"/>
+      <c r="H90" s="2"/>
+      <c r="I90" s="2"/>
+      <c r="J90" s="2"/>
+      <c r="K90" s="2"/>
+      <c r="L90" s="2"/>
+      <c r="M90" s="2"/>
+      <c r="N90" s="2"/>
+      <c r="O90" s="2"/>
+      <c r="P90" s="2"/>
+      <c r="Q90" s="2"/>
+      <c r="R90" s="2">
+        <f>'Traveling Line'!B80</f>
+        <v>375</v>
+      </c>
+      <c r="S90" s="2">
+        <f>'Traveling Line'!C80</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="91" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B91" s="12">
+        <f t="shared" si="1"/>
+        <v>41.666666666666664</v>
+      </c>
+      <c r="C91" s="2"/>
+      <c r="D91" s="2"/>
+      <c r="E91" s="2"/>
+      <c r="F91" s="2"/>
+      <c r="G91" s="2"/>
+      <c r="H91" s="2"/>
+      <c r="I91" s="2"/>
+      <c r="J91" s="2"/>
+      <c r="K91" s="2"/>
+      <c r="L91" s="2"/>
+      <c r="M91" s="2"/>
+      <c r="N91" s="2"/>
+      <c r="O91" s="2"/>
+      <c r="P91" s="2"/>
+      <c r="Q91" s="2"/>
+      <c r="R91" s="2">
+        <f>'Traveling Line'!B81</f>
+        <v>380</v>
+      </c>
+      <c r="S91" s="2">
+        <f>'Traveling Line'!C81</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="92" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B92" s="12">
+        <f t="shared" si="1"/>
+        <v>41.666666666666664</v>
+      </c>
+      <c r="C92" s="2"/>
+      <c r="D92" s="2"/>
+      <c r="E92" s="2"/>
+      <c r="F92" s="2"/>
+      <c r="G92" s="2"/>
+      <c r="H92" s="2"/>
+      <c r="I92" s="2"/>
+      <c r="J92" s="2"/>
+      <c r="K92" s="2"/>
+      <c r="L92" s="2"/>
+      <c r="M92" s="2"/>
+      <c r="N92" s="2"/>
+      <c r="O92" s="2"/>
+      <c r="P92" s="2"/>
+      <c r="Q92" s="2"/>
+      <c r="R92" s="2">
+        <f>'Traveling Line'!B82</f>
+        <v>385</v>
+      </c>
+      <c r="S92" s="2">
+        <f>'Traveling Line'!C82</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="93" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B93" s="12">
+        <f t="shared" si="1"/>
+        <v>41.666666666666664</v>
+      </c>
+      <c r="C93" s="2"/>
+      <c r="D93" s="2"/>
+      <c r="E93" s="2"/>
+      <c r="F93" s="2"/>
+      <c r="G93" s="2"/>
+      <c r="H93" s="2"/>
+      <c r="I93" s="2"/>
+      <c r="J93" s="2"/>
+      <c r="K93" s="2"/>
+      <c r="L93" s="2"/>
+      <c r="M93" s="2"/>
+      <c r="N93" s="2"/>
+      <c r="O93" s="2"/>
+      <c r="P93" s="2"/>
+      <c r="Q93" s="2"/>
+      <c r="R93" s="2">
+        <f>'Traveling Line'!B83</f>
+        <v>390</v>
+      </c>
+      <c r="S93" s="2">
+        <f>'Traveling Line'!C83</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="94" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B94" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C94" s="2"/>
+      <c r="D94" s="2"/>
+      <c r="E94" s="2"/>
+      <c r="F94" s="2"/>
+      <c r="G94" s="2"/>
+      <c r="H94" s="2"/>
+      <c r="I94" s="2"/>
+      <c r="J94" s="2"/>
+      <c r="K94" s="2"/>
+      <c r="L94" s="2"/>
+      <c r="M94" s="2"/>
+      <c r="N94" s="2"/>
+      <c r="O94" s="2"/>
+      <c r="P94" s="2"/>
+      <c r="Q94" s="2"/>
+      <c r="R94" s="2">
+        <f>'Traveling Line'!B84</f>
+        <v>395</v>
+      </c>
+      <c r="S94" s="2">
+        <f>'Traveling Line'!C84</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="95" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B95" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C95" s="2"/>
+      <c r="D95" s="2"/>
+      <c r="E95" s="2"/>
+      <c r="F95" s="2"/>
+      <c r="G95" s="2"/>
+      <c r="H95" s="2"/>
+      <c r="I95" s="2"/>
+      <c r="J95" s="2"/>
+      <c r="K95" s="2"/>
+      <c r="L95" s="2"/>
+      <c r="M95" s="2"/>
+      <c r="N95" s="2"/>
+      <c r="O95" s="2"/>
+      <c r="P95" s="2"/>
+      <c r="Q95" s="2"/>
+      <c r="R95" s="2">
+        <f>'Traveling Line'!B85</f>
+        <v>400</v>
+      </c>
+      <c r="S95" s="2">
+        <f>'Traveling Line'!C85</f>
+        <v>1000</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="C11:H11"/>
+    <mergeCell ref="I11:O11"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/LapSim.xlsx
+++ b/LapSim.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="0" windowWidth="18270" windowHeight="7920" activeTab="1"/>
+    <workbookView xWindow="2790" yWindow="0" windowWidth="18270" windowHeight="7920" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Traveling Line" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="81">
   <si>
     <t>距離</t>
     <rPh sb="0" eb="2">
@@ -470,6 +470,74 @@
     <t>m/s</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>m/s</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dV</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>m/s</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sec</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ax</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>m/s2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ay</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>m/s2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ayemax</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>km/h</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sec</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -477,7 +545,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.000"/>
-    <numFmt numFmtId="179" formatCode="0.0"/>
+    <numFmt numFmtId="177" formatCode="0.0"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -510,7 +578,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -533,13 +601,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -573,11 +678,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1186,11 +1306,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-997550128"/>
-        <c:axId val="-997554480"/>
+        <c:axId val="754226928"/>
+        <c:axId val="754234000"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-997550128"/>
+        <c:axId val="754226928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1247,12 +1367,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-997554480"/>
+        <c:crossAx val="754234000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-997554480"/>
+        <c:axId val="754234000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1309,7 +1429,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-997550128"/>
+        <c:crossAx val="754226928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5562,295 +5682,400 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:S95"/>
+  <dimension ref="A2:V95"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9" customWidth="1"/>
-    <col min="9" max="9" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" customWidth="1"/>
+    <col min="8" max="8" width="11.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="3">
+      <c r="B2" s="3">
         <v>1.1499999999999999</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="E2" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="9"/>
-      <c r="H2" s="3">
+      <c r="F2" s="13"/>
+      <c r="G2" s="3">
         <v>1350</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B3" s="2" t="s">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="3">
+      <c r="B3" s="3">
         <v>0.85</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="E3" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="9"/>
-      <c r="H3" s="3">
+      <c r="F3" s="13"/>
+      <c r="G3" s="3">
         <v>20</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B4" s="2" t="s">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="3">
+      <c r="B4" s="3">
         <v>0.45</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="E4" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="9"/>
-      <c r="H4" s="3">
+      <c r="F4" s="13"/>
+      <c r="G4" s="3">
         <v>150</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B5" s="2" t="s">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="3">
+      <c r="B5" s="3">
         <v>0.9</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="E5" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="G5" s="9"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2" t="s">
+      <c r="F5" s="13"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B6" s="2" t="s">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="3">
+      <c r="B6" s="3">
         <v>0.05</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B7" s="2" t="s">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="3">
+      <c r="B7" s="3">
         <v>150</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2" t="s">
+      <c r="F7" s="2"/>
+      <c r="G7" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="F8" s="2" t="s">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="E8" s="2" t="s">
         <v>45</v>
       </c>
+      <c r="F8" s="2"/>
       <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-    </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B9" s="2" t="s">
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2" t="s">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>46</v>
       </c>
+      <c r="F9" s="2"/>
       <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-    </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B11" s="2"/>
-      <c r="C11" s="10" t="s">
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A11" s="2"/>
+      <c r="B11" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10" t="s">
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
-      <c r="P11" s="10" t="s">
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="Q11" s="10"/>
-      <c r="R11" s="2"/>
-      <c r="S11" s="2"/>
-    </row>
-    <row r="12" spans="2:19" ht="26" x14ac:dyDescent="0.2">
-      <c r="B12" s="2" t="s">
+      <c r="P11" s="16"/>
+      <c r="Q11" s="16"/>
+      <c r="R11" s="16"/>
+      <c r="S11" s="17"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
+    </row>
+    <row r="12" spans="1:22" ht="26" x14ac:dyDescent="0.2">
+      <c r="A12" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="B12" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="C12" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="D12" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="E12" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="F12" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="H12" s="11" t="s">
+      <c r="G12" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="H12" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="J12" s="2" t="s">
+      <c r="I12" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="K12" s="2" t="s">
+      <c r="J12" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="L12" s="2" t="s">
+      <c r="K12" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="M12" s="2" t="s">
+      <c r="L12" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="N12" s="2" t="s">
+      <c r="M12" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="O12" s="11" t="s">
+      <c r="N12" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="P12" s="2" t="s">
+      <c r="O12" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="Q12" s="2" t="s">
+      <c r="P12" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="R12" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="S12" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B13" s="2" t="s">
+      <c r="Q12" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="R12" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="S12" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="T12" s="10" t="str">
+        <f>'Traveling Line'!B2</f>
+        <v>距離</v>
+      </c>
+      <c r="U12" s="10" t="str">
+        <f>'Traveling Line'!C2</f>
+        <v>曲率半径</v>
+      </c>
+      <c r="V12" s="10" t="str">
+        <f>'Traveling Line'!D2</f>
+        <v>距離</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A13" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="2" t="str">
+      <c r="B13" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="J13" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="K13" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="L13" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="M13" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="N13" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="O13" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="P13" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q13" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="R13" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="S13" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="T13" s="10" t="str">
         <f>'Traveling Line'!B3</f>
         <v>L</v>
       </c>
-      <c r="S13" s="2" t="str">
+      <c r="U13" s="10" t="str">
         <f>'Traveling Line'!C3</f>
         <v>m</v>
       </c>
-    </row>
-    <row r="14" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B14" s="2" t="s">
+      <c r="V13" s="10" t="str">
+        <f>'Traveling Line'!D3</f>
+        <v>ΔL</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A14" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="2" t="str">
+      <c r="B14" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="J14" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="K14" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="L14" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="M14" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="N14" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="O14" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="P14" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q14" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="R14" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="S14" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="T14" s="10" t="str">
         <f>'Traveling Line'!B4</f>
         <v>m</v>
       </c>
-      <c r="S14" s="2" t="str">
+      <c r="U14" s="10" t="str">
         <f>'Traveling Line'!C4</f>
         <v>m</v>
       </c>
-    </row>
-    <row r="15" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B15" s="12">
-        <f>IF((ABS(S17)*C$2*9.806)^0.5&gt;C$7/3.6,C$7/3.6,(ABS(S17)*C$2*9.806)^0.5)</f>
+      <c r="V14" s="10" t="str">
+        <f>'Traveling Line'!D4</f>
+        <v>m</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A15" s="11">
+        <f>IF((ABS(U17)*B$2*9.806)^0.5&gt;B$7/3.6,B$7/3.6,(ABS(U17)*B$2*9.806)^0.5)</f>
         <v>41.666666666666664</v>
       </c>
+      <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -5865,21 +6090,28 @@
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="2">
+      <c r="Q15" s="9"/>
+      <c r="R15" s="9"/>
+      <c r="S15" s="9"/>
+      <c r="T15" s="2">
         <f>'Traveling Line'!B5</f>
         <v>0</v>
       </c>
-      <c r="S15" s="2">
+      <c r="U15" s="2">
         <f>'Traveling Line'!C5</f>
         <v>1000</v>
       </c>
-    </row>
-    <row r="16" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B16" s="12">
-        <f t="shared" ref="B16:B79" si="0">IF((ABS(S18)*C$2*9.806)^0.5&gt;C$7/3.6,C$7/3.6,(ABS(S18)*C$2*9.806)^0.5)</f>
+      <c r="V15" s="9">
+        <f>'Traveling Line'!D5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A16" s="11">
+        <f t="shared" ref="A16:A79" si="0">IF((ABS(U18)*B$2*9.806)^0.5&gt;B$7/3.6,B$7/3.6,(ABS(U18)*B$2*9.806)^0.5)</f>
         <v>41.666666666666664</v>
       </c>
+      <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -5894,21 +6126,28 @@
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="2">
+      <c r="Q16" s="9"/>
+      <c r="R16" s="9"/>
+      <c r="S16" s="9"/>
+      <c r="T16" s="2">
         <f>'Traveling Line'!B6</f>
         <v>5</v>
       </c>
-      <c r="S16" s="2">
+      <c r="U16" s="2">
         <f>'Traveling Line'!C6</f>
         <v>1000</v>
       </c>
-    </row>
-    <row r="17" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B17" s="12">
+      <c r="V16" s="9">
+        <f>'Traveling Line'!D6</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A17" s="11">
         <f t="shared" si="0"/>
         <v>41.666666666666664</v>
       </c>
+      <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
@@ -5923,21 +6162,28 @@
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
-      <c r="Q17" s="2"/>
-      <c r="R17" s="2">
+      <c r="Q17" s="9"/>
+      <c r="R17" s="9"/>
+      <c r="S17" s="9"/>
+      <c r="T17" s="2">
         <f>'Traveling Line'!B7</f>
         <v>10</v>
       </c>
-      <c r="S17" s="2">
+      <c r="U17" s="2">
         <f>'Traveling Line'!C7</f>
         <v>1000</v>
       </c>
-    </row>
-    <row r="18" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B18" s="12">
+      <c r="V17" s="9">
+        <f>'Traveling Line'!D7</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A18" s="11">
         <f t="shared" si="0"/>
         <v>41.666666666666664</v>
       </c>
+      <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
@@ -5952,21 +6198,28 @@
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
-      <c r="Q18" s="2"/>
-      <c r="R18" s="2">
+      <c r="Q18" s="9"/>
+      <c r="R18" s="9"/>
+      <c r="S18" s="9"/>
+      <c r="T18" s="2">
         <f>'Traveling Line'!B8</f>
         <v>15</v>
       </c>
-      <c r="S18" s="2">
+      <c r="U18" s="2">
         <f>'Traveling Line'!C8</f>
         <v>1000</v>
       </c>
-    </row>
-    <row r="19" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B19" s="12">
+      <c r="V18" s="9">
+        <f>'Traveling Line'!D8</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A19" s="11">
         <f t="shared" si="0"/>
         <v>41.666666666666664</v>
       </c>
+      <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
@@ -5981,21 +6234,28 @@
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
-      <c r="Q19" s="2"/>
-      <c r="R19" s="2">
+      <c r="Q19" s="9"/>
+      <c r="R19" s="9"/>
+      <c r="S19" s="9"/>
+      <c r="T19" s="2">
         <f>'Traveling Line'!B9</f>
         <v>20</v>
       </c>
-      <c r="S19" s="2">
+      <c r="U19" s="2">
         <f>'Traveling Line'!C9</f>
         <v>1000</v>
       </c>
-    </row>
-    <row r="20" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B20" s="12">
+      <c r="V19" s="9">
+        <f>'Traveling Line'!D9</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A20" s="11">
         <f t="shared" si="0"/>
         <v>41.666666666666664</v>
       </c>
+      <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
@@ -6010,21 +6270,28 @@
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
-      <c r="Q20" s="2"/>
-      <c r="R20" s="2">
+      <c r="Q20" s="9"/>
+      <c r="R20" s="9"/>
+      <c r="S20" s="9"/>
+      <c r="T20" s="2">
         <f>'Traveling Line'!B10</f>
         <v>25</v>
       </c>
-      <c r="S20" s="2">
+      <c r="U20" s="2">
         <f>'Traveling Line'!C10</f>
         <v>1000</v>
       </c>
-    </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B21" s="12">
+      <c r="V20" s="9">
+        <f>'Traveling Line'!D10</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A21" s="11">
         <f t="shared" si="0"/>
         <v>41.666666666666664</v>
       </c>
+      <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
@@ -6039,21 +6306,28 @@
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
-      <c r="Q21" s="2"/>
-      <c r="R21" s="2">
+      <c r="Q21" s="9"/>
+      <c r="R21" s="9"/>
+      <c r="S21" s="9"/>
+      <c r="T21" s="2">
         <f>'Traveling Line'!B11</f>
         <v>30</v>
       </c>
-      <c r="S21" s="2">
+      <c r="U21" s="2">
         <f>'Traveling Line'!C11</f>
         <v>1000</v>
       </c>
-    </row>
-    <row r="22" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B22" s="12">
+      <c r="V21" s="9">
+        <f>'Traveling Line'!D11</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A22" s="11">
         <f t="shared" si="0"/>
         <v>41.666666666666664</v>
       </c>
+      <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
@@ -6068,21 +6342,28 @@
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
-      <c r="Q22" s="2"/>
-      <c r="R22" s="2">
+      <c r="Q22" s="9"/>
+      <c r="R22" s="9"/>
+      <c r="S22" s="9"/>
+      <c r="T22" s="2">
         <f>'Traveling Line'!B12</f>
         <v>35</v>
       </c>
-      <c r="S22" s="2">
+      <c r="U22" s="2">
         <f>'Traveling Line'!C12</f>
         <v>1000</v>
       </c>
-    </row>
-    <row r="23" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B23" s="12">
+      <c r="V22" s="9">
+        <f>'Traveling Line'!D12</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A23" s="11">
         <f t="shared" si="0"/>
         <v>41.666666666666664</v>
       </c>
+      <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
@@ -6097,21 +6378,28 @@
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
-      <c r="Q23" s="2"/>
-      <c r="R23" s="2">
+      <c r="Q23" s="9"/>
+      <c r="R23" s="9"/>
+      <c r="S23" s="9"/>
+      <c r="T23" s="2">
         <f>'Traveling Line'!B13</f>
         <v>40</v>
       </c>
-      <c r="S23" s="2">
+      <c r="U23" s="2">
         <f>'Traveling Line'!C13</f>
         <v>1000</v>
       </c>
-    </row>
-    <row r="24" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B24" s="12">
+      <c r="V23" s="9">
+        <f>'Traveling Line'!D13</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A24" s="11">
         <f t="shared" si="0"/>
         <v>41.666666666666664</v>
       </c>
+      <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
@@ -6126,21 +6414,28 @@
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
-      <c r="Q24" s="2"/>
-      <c r="R24" s="2">
+      <c r="Q24" s="9"/>
+      <c r="R24" s="9"/>
+      <c r="S24" s="9"/>
+      <c r="T24" s="2">
         <f>'Traveling Line'!B14</f>
         <v>45</v>
       </c>
-      <c r="S24" s="2">
+      <c r="U24" s="2">
         <f>'Traveling Line'!C14</f>
         <v>1000</v>
       </c>
-    </row>
-    <row r="25" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B25" s="12">
+      <c r="V24" s="9">
+        <f>'Traveling Line'!D14</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A25" s="11">
         <f t="shared" si="0"/>
         <v>41.666666666666664</v>
       </c>
+      <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
@@ -6155,21 +6450,28 @@
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
-      <c r="Q25" s="2"/>
-      <c r="R25" s="2">
+      <c r="Q25" s="9"/>
+      <c r="R25" s="9"/>
+      <c r="S25" s="9"/>
+      <c r="T25" s="2">
         <f>'Traveling Line'!B15</f>
         <v>50</v>
       </c>
-      <c r="S25" s="2">
+      <c r="U25" s="2">
         <f>'Traveling Line'!C15</f>
         <v>1000</v>
       </c>
-    </row>
-    <row r="26" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B26" s="12">
+      <c r="V25" s="9">
+        <f>'Traveling Line'!D15</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A26" s="11">
         <f t="shared" si="0"/>
         <v>41.666666666666664</v>
       </c>
+      <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
@@ -6184,21 +6486,28 @@
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
-      <c r="Q26" s="2"/>
-      <c r="R26" s="2">
+      <c r="Q26" s="9"/>
+      <c r="R26" s="9"/>
+      <c r="S26" s="9"/>
+      <c r="T26" s="2">
         <f>'Traveling Line'!B16</f>
         <v>55</v>
       </c>
-      <c r="S26" s="2">
+      <c r="U26" s="2">
         <f>'Traveling Line'!C16</f>
         <v>1000</v>
       </c>
-    </row>
-    <row r="27" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B27" s="12">
+      <c r="V26" s="9">
+        <f>'Traveling Line'!D16</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A27" s="11">
         <f t="shared" si="0"/>
         <v>41.666666666666664</v>
       </c>
+      <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
@@ -6213,21 +6522,28 @@
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
-      <c r="Q27" s="2"/>
-      <c r="R27" s="2">
+      <c r="Q27" s="9"/>
+      <c r="R27" s="9"/>
+      <c r="S27" s="9"/>
+      <c r="T27" s="2">
         <f>'Traveling Line'!B17</f>
         <v>60</v>
       </c>
-      <c r="S27" s="2">
+      <c r="U27" s="2">
         <f>'Traveling Line'!C17</f>
         <v>1000</v>
       </c>
-    </row>
-    <row r="28" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B28" s="12">
+      <c r="V27" s="9">
+        <f>'Traveling Line'!D17</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A28" s="11">
         <f t="shared" si="0"/>
         <v>41.666666666666664</v>
       </c>
+      <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
@@ -6242,21 +6558,28 @@
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
-      <c r="Q28" s="2"/>
-      <c r="R28" s="2">
+      <c r="Q28" s="9"/>
+      <c r="R28" s="9"/>
+      <c r="S28" s="9"/>
+      <c r="T28" s="2">
         <f>'Traveling Line'!B18</f>
         <v>65</v>
       </c>
-      <c r="S28" s="2">
+      <c r="U28" s="2">
         <f>'Traveling Line'!C18</f>
         <v>1000</v>
       </c>
-    </row>
-    <row r="29" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B29" s="12">
+      <c r="V28" s="9">
+        <f>'Traveling Line'!D18</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A29" s="11">
         <f t="shared" si="0"/>
         <v>41.666666666666664</v>
       </c>
+      <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
@@ -6271,21 +6594,28 @@
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" s="2"/>
-      <c r="Q29" s="2"/>
-      <c r="R29" s="2">
+      <c r="Q29" s="9"/>
+      <c r="R29" s="9"/>
+      <c r="S29" s="9"/>
+      <c r="T29" s="2">
         <f>'Traveling Line'!B19</f>
         <v>70</v>
       </c>
-      <c r="S29" s="2">
+      <c r="U29" s="2">
         <f>'Traveling Line'!C19</f>
         <v>1000</v>
       </c>
-    </row>
-    <row r="30" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B30" s="12">
+      <c r="V29" s="9">
+        <f>'Traveling Line'!D19</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A30" s="11">
         <f t="shared" si="0"/>
         <v>41.666666666666664</v>
       </c>
+      <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
@@ -6300,21 +6630,28 @@
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
-      <c r="Q30" s="2"/>
-      <c r="R30" s="2">
+      <c r="Q30" s="9"/>
+      <c r="R30" s="9"/>
+      <c r="S30" s="9"/>
+      <c r="T30" s="2">
         <f>'Traveling Line'!B20</f>
         <v>75</v>
       </c>
-      <c r="S30" s="2">
+      <c r="U30" s="2">
         <f>'Traveling Line'!C20</f>
         <v>1000</v>
       </c>
-    </row>
-    <row r="31" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B31" s="12">
+      <c r="V30" s="9">
+        <f>'Traveling Line'!D20</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A31" s="11">
         <f t="shared" si="0"/>
         <v>41.666666666666664</v>
       </c>
+      <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
@@ -6329,21 +6666,28 @@
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
-      <c r="Q31" s="2"/>
-      <c r="R31" s="2">
+      <c r="Q31" s="9"/>
+      <c r="R31" s="9"/>
+      <c r="S31" s="9"/>
+      <c r="T31" s="2">
         <f>'Traveling Line'!B21</f>
         <v>80</v>
       </c>
-      <c r="S31" s="2">
+      <c r="U31" s="2">
         <f>'Traveling Line'!C21</f>
         <v>1000</v>
       </c>
-    </row>
-    <row r="32" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B32" s="12">
+      <c r="V31" s="9">
+        <f>'Traveling Line'!D21</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A32" s="11">
         <f t="shared" si="0"/>
         <v>41.666666666666664</v>
       </c>
+      <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
@@ -6358,21 +6702,28 @@
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" s="2"/>
-      <c r="Q32" s="2"/>
-      <c r="R32" s="2">
+      <c r="Q32" s="9"/>
+      <c r="R32" s="9"/>
+      <c r="S32" s="9"/>
+      <c r="T32" s="2">
         <f>'Traveling Line'!B22</f>
         <v>85</v>
       </c>
-      <c r="S32" s="2">
+      <c r="U32" s="2">
         <f>'Traveling Line'!C22</f>
         <v>1000</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B33" s="12">
+      <c r="V32" s="9">
+        <f>'Traveling Line'!D22</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A33" s="11">
         <f t="shared" si="0"/>
         <v>41.666666666666664</v>
       </c>
+      <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
@@ -6387,21 +6738,28 @@
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
       <c r="P33" s="2"/>
-      <c r="Q33" s="2"/>
-      <c r="R33" s="2">
+      <c r="Q33" s="9"/>
+      <c r="R33" s="9"/>
+      <c r="S33" s="9"/>
+      <c r="T33" s="2">
         <f>'Traveling Line'!B23</f>
         <v>90</v>
       </c>
-      <c r="S33" s="2">
+      <c r="U33" s="2">
         <f>'Traveling Line'!C23</f>
         <v>1000</v>
       </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B34" s="12">
+      <c r="V33" s="9">
+        <f>'Traveling Line'!D23</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A34" s="11">
         <f t="shared" si="0"/>
         <v>41.666666666666664</v>
       </c>
+      <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
@@ -6416,21 +6774,28 @@
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" s="2"/>
-      <c r="Q34" s="2"/>
-      <c r="R34" s="2">
+      <c r="Q34" s="9"/>
+      <c r="R34" s="9"/>
+      <c r="S34" s="9"/>
+      <c r="T34" s="2">
         <f>'Traveling Line'!B24</f>
         <v>95</v>
       </c>
-      <c r="S34" s="2">
+      <c r="U34" s="2">
         <f>'Traveling Line'!C24</f>
         <v>1000</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B35" s="12">
+      <c r="V34" s="9">
+        <f>'Traveling Line'!D24</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A35" s="11">
         <f t="shared" si="0"/>
         <v>41.666666666666664</v>
       </c>
+      <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
@@ -6445,21 +6810,28 @@
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" s="2"/>
-      <c r="Q35" s="2"/>
-      <c r="R35" s="2">
+      <c r="Q35" s="9"/>
+      <c r="R35" s="9"/>
+      <c r="S35" s="9"/>
+      <c r="T35" s="2">
         <f>'Traveling Line'!B25</f>
         <v>100</v>
       </c>
-      <c r="S35" s="2">
+      <c r="U35" s="2">
         <f>'Traveling Line'!C25</f>
         <v>1000</v>
       </c>
-    </row>
-    <row r="36" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B36" s="12">
+      <c r="V35" s="9">
+        <f>'Traveling Line'!D25</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A36" s="11">
         <f t="shared" si="0"/>
         <v>41.666666666666664</v>
       </c>
+      <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
@@ -6474,21 +6846,28 @@
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" s="2"/>
-      <c r="Q36" s="2"/>
-      <c r="R36" s="2">
+      <c r="Q36" s="9"/>
+      <c r="R36" s="9"/>
+      <c r="S36" s="9"/>
+      <c r="T36" s="2">
         <f>'Traveling Line'!B26</f>
         <v>105</v>
       </c>
-      <c r="S36" s="2">
+      <c r="U36" s="2">
         <f>'Traveling Line'!C26</f>
         <v>1000</v>
       </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B37" s="12">
+      <c r="V36" s="9">
+        <f>'Traveling Line'!D26</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A37" s="11">
         <f t="shared" si="0"/>
         <v>41.666666666666664</v>
       </c>
+      <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
@@ -6503,21 +6882,28 @@
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
       <c r="P37" s="2"/>
-      <c r="Q37" s="2"/>
-      <c r="R37" s="2">
+      <c r="Q37" s="9"/>
+      <c r="R37" s="9"/>
+      <c r="S37" s="9"/>
+      <c r="T37" s="2">
         <f>'Traveling Line'!B27</f>
         <v>110</v>
       </c>
-      <c r="S37" s="2">
+      <c r="U37" s="2">
         <f>'Traveling Line'!C27</f>
         <v>1000</v>
       </c>
-    </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B38" s="12">
+      <c r="V37" s="9">
+        <f>'Traveling Line'!D27</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A38" s="11">
         <f t="shared" si="0"/>
         <v>41.666666666666664</v>
       </c>
+      <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
@@ -6532,21 +6918,28 @@
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
       <c r="P38" s="2"/>
-      <c r="Q38" s="2"/>
-      <c r="R38" s="2">
+      <c r="Q38" s="9"/>
+      <c r="R38" s="9"/>
+      <c r="S38" s="9"/>
+      <c r="T38" s="2">
         <f>'Traveling Line'!B28</f>
         <v>115</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <f>'Traveling Line'!C28</f>
         <v>1000</v>
       </c>
-    </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B39" s="12">
+      <c r="V38" s="9">
+        <f>'Traveling Line'!D28</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A39" s="11">
         <f t="shared" si="0"/>
         <v>41.666666666666664</v>
       </c>
+      <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
@@ -6561,21 +6954,28 @@
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
       <c r="P39" s="2"/>
-      <c r="Q39" s="2"/>
-      <c r="R39" s="2">
+      <c r="Q39" s="9"/>
+      <c r="R39" s="9"/>
+      <c r="S39" s="9"/>
+      <c r="T39" s="2">
         <f>'Traveling Line'!B29</f>
         <v>120</v>
       </c>
-      <c r="S39" s="2">
+      <c r="U39" s="2">
         <f>'Traveling Line'!C29</f>
         <v>1000</v>
       </c>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B40" s="12">
+      <c r="V39" s="9">
+        <f>'Traveling Line'!D29</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A40" s="11">
         <f t="shared" si="0"/>
         <v>41.666666666666664</v>
       </c>
+      <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
@@ -6590,21 +6990,28 @@
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
       <c r="P40" s="2"/>
-      <c r="Q40" s="2"/>
-      <c r="R40" s="2">
+      <c r="Q40" s="9"/>
+      <c r="R40" s="9"/>
+      <c r="S40" s="9"/>
+      <c r="T40" s="2">
         <f>'Traveling Line'!B30</f>
         <v>125</v>
       </c>
-      <c r="S40" s="2">
+      <c r="U40" s="2">
         <f>'Traveling Line'!C30</f>
         <v>1000</v>
       </c>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B41" s="12">
+      <c r="V40" s="9">
+        <f>'Traveling Line'!D30</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A41" s="11">
         <f t="shared" si="0"/>
         <v>41.666666666666664</v>
       </c>
+      <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
@@ -6619,21 +7026,28 @@
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
       <c r="P41" s="2"/>
-      <c r="Q41" s="2"/>
-      <c r="R41" s="2">
+      <c r="Q41" s="9"/>
+      <c r="R41" s="9"/>
+      <c r="S41" s="9"/>
+      <c r="T41" s="2">
         <f>'Traveling Line'!B31</f>
         <v>130</v>
       </c>
-      <c r="S41" s="2">
+      <c r="U41" s="2">
         <f>'Traveling Line'!C31</f>
         <v>1000</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B42" s="12">
+      <c r="V41" s="9">
+        <f>'Traveling Line'!D31</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A42" s="11">
         <f t="shared" si="0"/>
         <v>41.666666666666664</v>
       </c>
+      <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
@@ -6648,21 +7062,28 @@
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
       <c r="P42" s="2"/>
-      <c r="Q42" s="2"/>
-      <c r="R42" s="2">
+      <c r="Q42" s="9"/>
+      <c r="R42" s="9"/>
+      <c r="S42" s="9"/>
+      <c r="T42" s="2">
         <f>'Traveling Line'!B32</f>
         <v>135</v>
       </c>
-      <c r="S42" s="2">
+      <c r="U42" s="2">
         <f>'Traveling Line'!C32</f>
         <v>1000</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B43" s="12">
+      <c r="V42" s="9">
+        <f>'Traveling Line'!D32</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A43" s="11">
         <f t="shared" si="0"/>
         <v>41.666666666666664</v>
       </c>
+      <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
@@ -6677,21 +7098,28 @@
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
       <c r="P43" s="2"/>
-      <c r="Q43" s="2"/>
-      <c r="R43" s="2">
+      <c r="Q43" s="9"/>
+      <c r="R43" s="9"/>
+      <c r="S43" s="9"/>
+      <c r="T43" s="2">
         <f>'Traveling Line'!B33</f>
         <v>140</v>
       </c>
-      <c r="S43" s="2">
+      <c r="U43" s="2">
         <f>'Traveling Line'!C33</f>
         <v>1000</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B44" s="12">
+      <c r="V43" s="9">
+        <f>'Traveling Line'!D33</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A44" s="11">
         <f t="shared" si="0"/>
         <v>41.666666666666664</v>
       </c>
+      <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
@@ -6706,21 +7134,28 @@
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
       <c r="P44" s="2"/>
-      <c r="Q44" s="2"/>
-      <c r="R44" s="2">
+      <c r="Q44" s="9"/>
+      <c r="R44" s="9"/>
+      <c r="S44" s="9"/>
+      <c r="T44" s="2">
         <f>'Traveling Line'!B34</f>
         <v>145</v>
       </c>
-      <c r="S44" s="2">
+      <c r="U44" s="2">
         <f>'Traveling Line'!C34</f>
         <v>1000</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B45" s="12">
+      <c r="V44" s="9">
+        <f>'Traveling Line'!D34</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A45" s="11">
         <f t="shared" si="0"/>
         <v>41.666666666666664</v>
       </c>
+      <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
@@ -6735,21 +7170,28 @@
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
       <c r="P45" s="2"/>
-      <c r="Q45" s="2"/>
-      <c r="R45" s="2">
+      <c r="Q45" s="9"/>
+      <c r="R45" s="9"/>
+      <c r="S45" s="9"/>
+      <c r="T45" s="2">
         <f>'Traveling Line'!B35</f>
         <v>150</v>
       </c>
-      <c r="S45" s="2">
+      <c r="U45" s="2">
         <f>'Traveling Line'!C35</f>
         <v>1000</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B46" s="12">
+      <c r="V45" s="9">
+        <f>'Traveling Line'!D35</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A46" s="11">
         <f t="shared" si="0"/>
         <v>41.666666666666664</v>
       </c>
+      <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
@@ -6764,21 +7206,28 @@
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
       <c r="P46" s="2"/>
-      <c r="Q46" s="2"/>
-      <c r="R46" s="2">
+      <c r="Q46" s="9"/>
+      <c r="R46" s="9"/>
+      <c r="S46" s="9"/>
+      <c r="T46" s="2">
         <f>'Traveling Line'!B36</f>
         <v>155</v>
       </c>
-      <c r="S46" s="2">
+      <c r="U46" s="2">
         <f>'Traveling Line'!C36</f>
         <v>1000</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B47" s="12">
+      <c r="V46" s="9">
+        <f>'Traveling Line'!D36</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A47" s="11">
         <f t="shared" si="0"/>
         <v>41.666666666666664</v>
       </c>
+      <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
@@ -6793,21 +7242,28 @@
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
       <c r="P47" s="2"/>
-      <c r="Q47" s="2"/>
-      <c r="R47" s="2">
+      <c r="Q47" s="9"/>
+      <c r="R47" s="9"/>
+      <c r="S47" s="9"/>
+      <c r="T47" s="2">
         <f>'Traveling Line'!B37</f>
         <v>160</v>
       </c>
-      <c r="S47" s="2">
+      <c r="U47" s="2">
         <f>'Traveling Line'!C37</f>
         <v>1000</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B48" s="12">
+      <c r="V47" s="9">
+        <f>'Traveling Line'!D37</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A48" s="11">
         <f t="shared" si="0"/>
         <v>41.666666666666664</v>
       </c>
+      <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
@@ -6822,21 +7278,28 @@
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
       <c r="P48" s="2"/>
-      <c r="Q48" s="2"/>
-      <c r="R48" s="2">
+      <c r="Q48" s="9"/>
+      <c r="R48" s="9"/>
+      <c r="S48" s="9"/>
+      <c r="T48" s="2">
         <f>'Traveling Line'!B38</f>
         <v>165</v>
       </c>
-      <c r="S48" s="2">
+      <c r="U48" s="2">
         <f>'Traveling Line'!C38</f>
         <v>1000</v>
       </c>
-    </row>
-    <row r="49" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B49" s="12">
+      <c r="V48" s="9">
+        <f>'Traveling Line'!D38</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A49" s="11">
         <f t="shared" si="0"/>
         <v>41.666666666666664</v>
       </c>
+      <c r="B49" s="2"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
@@ -6851,21 +7314,28 @@
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
       <c r="P49" s="2"/>
-      <c r="Q49" s="2"/>
-      <c r="R49" s="2">
+      <c r="Q49" s="9"/>
+      <c r="R49" s="9"/>
+      <c r="S49" s="9"/>
+      <c r="T49" s="2">
         <f>'Traveling Line'!B39</f>
         <v>170</v>
       </c>
-      <c r="S49" s="2">
+      <c r="U49" s="2">
         <f>'Traveling Line'!C39</f>
         <v>1000</v>
       </c>
-    </row>
-    <row r="50" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B50" s="12">
+      <c r="V49" s="9">
+        <f>'Traveling Line'!D39</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A50" s="11">
         <f t="shared" si="0"/>
         <v>41.666666666666664</v>
       </c>
+      <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
@@ -6880,21 +7350,28 @@
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
       <c r="P50" s="2"/>
-      <c r="Q50" s="2"/>
-      <c r="R50" s="2">
+      <c r="Q50" s="9"/>
+      <c r="R50" s="9"/>
+      <c r="S50" s="9"/>
+      <c r="T50" s="2">
         <f>'Traveling Line'!B40</f>
         <v>175</v>
       </c>
-      <c r="S50" s="2">
+      <c r="U50" s="2">
         <f>'Traveling Line'!C40</f>
         <v>1000</v>
       </c>
-    </row>
-    <row r="51" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B51" s="12">
+      <c r="V50" s="9">
+        <f>'Traveling Line'!D40</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A51" s="11">
         <f t="shared" si="0"/>
         <v>41.666666666666664</v>
       </c>
+      <c r="B51" s="2"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
@@ -6909,21 +7386,28 @@
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
       <c r="P51" s="2"/>
-      <c r="Q51" s="2"/>
-      <c r="R51" s="2">
+      <c r="Q51" s="9"/>
+      <c r="R51" s="9"/>
+      <c r="S51" s="9"/>
+      <c r="T51" s="2">
         <f>'Traveling Line'!B41</f>
         <v>180</v>
       </c>
-      <c r="S51" s="2">
+      <c r="U51" s="2">
         <f>'Traveling Line'!C41</f>
         <v>1000</v>
       </c>
-    </row>
-    <row r="52" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B52" s="12">
+      <c r="V51" s="9">
+        <f>'Traveling Line'!D41</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A52" s="11">
         <f t="shared" si="0"/>
         <v>41.666666666666664</v>
       </c>
+      <c r="B52" s="2"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
@@ -6938,21 +7422,28 @@
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
       <c r="P52" s="2"/>
-      <c r="Q52" s="2"/>
-      <c r="R52" s="2">
+      <c r="Q52" s="9"/>
+      <c r="R52" s="9"/>
+      <c r="S52" s="9"/>
+      <c r="T52" s="2">
         <f>'Traveling Line'!B42</f>
         <v>185</v>
       </c>
-      <c r="S52" s="2">
+      <c r="U52" s="2">
         <f>'Traveling Line'!C42</f>
         <v>1000</v>
       </c>
-    </row>
-    <row r="53" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B53" s="12">
+      <c r="V52" s="9">
+        <f>'Traveling Line'!D42</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A53" s="11">
         <f t="shared" si="0"/>
         <v>41.666666666666664</v>
       </c>
+      <c r="B53" s="2"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
@@ -6967,21 +7458,28 @@
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
       <c r="P53" s="2"/>
-      <c r="Q53" s="2"/>
-      <c r="R53" s="2">
+      <c r="Q53" s="9"/>
+      <c r="R53" s="9"/>
+      <c r="S53" s="9"/>
+      <c r="T53" s="2">
         <f>'Traveling Line'!B43</f>
         <v>190</v>
       </c>
-      <c r="S53" s="2">
+      <c r="U53" s="2">
         <f>'Traveling Line'!C43</f>
         <v>1000</v>
       </c>
-    </row>
-    <row r="54" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B54" s="12">
+      <c r="V53" s="9">
+        <f>'Traveling Line'!D43</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A54" s="11">
         <f t="shared" si="0"/>
         <v>41.666666666666664</v>
       </c>
+      <c r="B54" s="2"/>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
@@ -6996,21 +7494,28 @@
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
       <c r="P54" s="2"/>
-      <c r="Q54" s="2"/>
-      <c r="R54" s="2">
+      <c r="Q54" s="9"/>
+      <c r="R54" s="9"/>
+      <c r="S54" s="9"/>
+      <c r="T54" s="2">
         <f>'Traveling Line'!B44</f>
         <v>195</v>
       </c>
-      <c r="S54" s="2">
+      <c r="U54" s="2">
         <f>'Traveling Line'!C44</f>
         <v>1000</v>
       </c>
-    </row>
-    <row r="55" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B55" s="12">
+      <c r="V54" s="9">
+        <f>'Traveling Line'!D44</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A55" s="11">
         <f t="shared" si="0"/>
         <v>41.666666666666664</v>
       </c>
+      <c r="B55" s="2"/>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
@@ -7025,21 +7530,28 @@
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
       <c r="P55" s="2"/>
-      <c r="Q55" s="2"/>
-      <c r="R55" s="2">
+      <c r="Q55" s="9"/>
+      <c r="R55" s="9"/>
+      <c r="S55" s="9"/>
+      <c r="T55" s="2">
         <f>'Traveling Line'!B45</f>
         <v>200</v>
       </c>
-      <c r="S55" s="2">
+      <c r="U55" s="2">
         <f>'Traveling Line'!C45</f>
         <v>1000</v>
       </c>
-    </row>
-    <row r="56" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B56" s="12">
+      <c r="V55" s="9">
+        <f>'Traveling Line'!D45</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A56" s="11">
         <f t="shared" si="0"/>
         <v>41.666666666666664</v>
       </c>
+      <c r="B56" s="2"/>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
@@ -7054,21 +7566,28 @@
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
       <c r="P56" s="2"/>
-      <c r="Q56" s="2"/>
-      <c r="R56" s="2">
+      <c r="Q56" s="9"/>
+      <c r="R56" s="9"/>
+      <c r="S56" s="9"/>
+      <c r="T56" s="2">
         <f>'Traveling Line'!B46</f>
         <v>205</v>
       </c>
-      <c r="S56" s="2">
+      <c r="U56" s="2">
         <f>'Traveling Line'!C46</f>
         <v>1000</v>
       </c>
-    </row>
-    <row r="57" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B57" s="12">
+      <c r="V56" s="9">
+        <f>'Traveling Line'!D46</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A57" s="11">
         <f t="shared" si="0"/>
         <v>41.666666666666664</v>
       </c>
+      <c r="B57" s="2"/>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
@@ -7083,21 +7602,28 @@
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
       <c r="P57" s="2"/>
-      <c r="Q57" s="2"/>
-      <c r="R57" s="2">
+      <c r="Q57" s="9"/>
+      <c r="R57" s="9"/>
+      <c r="S57" s="9"/>
+      <c r="T57" s="2">
         <f>'Traveling Line'!B47</f>
         <v>210</v>
       </c>
-      <c r="S57" s="2">
+      <c r="U57" s="2">
         <f>'Traveling Line'!C47</f>
         <v>1000</v>
       </c>
-    </row>
-    <row r="58" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B58" s="12">
+      <c r="V57" s="9">
+        <f>'Traveling Line'!D47</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A58" s="11">
         <f t="shared" si="0"/>
         <v>41.666666666666664</v>
       </c>
+      <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
@@ -7112,21 +7638,28 @@
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
       <c r="P58" s="2"/>
-      <c r="Q58" s="2"/>
-      <c r="R58" s="2">
+      <c r="Q58" s="9"/>
+      <c r="R58" s="9"/>
+      <c r="S58" s="9"/>
+      <c r="T58" s="2">
         <f>'Traveling Line'!B48</f>
         <v>215</v>
       </c>
-      <c r="S58" s="2">
+      <c r="U58" s="2">
         <f>'Traveling Line'!C48</f>
         <v>1000</v>
       </c>
-    </row>
-    <row r="59" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B59" s="12">
+      <c r="V58" s="9">
+        <f>'Traveling Line'!D48</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A59" s="11">
         <f t="shared" si="0"/>
         <v>41.666666666666664</v>
       </c>
+      <c r="B59" s="2"/>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
@@ -7141,21 +7674,28 @@
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
       <c r="P59" s="2"/>
-      <c r="Q59" s="2"/>
-      <c r="R59" s="2">
+      <c r="Q59" s="9"/>
+      <c r="R59" s="9"/>
+      <c r="S59" s="9"/>
+      <c r="T59" s="2">
         <f>'Traveling Line'!B49</f>
         <v>220</v>
       </c>
-      <c r="S59" s="2">
+      <c r="U59" s="2">
         <f>'Traveling Line'!C49</f>
         <v>1000</v>
       </c>
-    </row>
-    <row r="60" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B60" s="12">
+      <c r="V59" s="9">
+        <f>'Traveling Line'!D49</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A60" s="11">
         <f t="shared" si="0"/>
         <v>41.666666666666664</v>
       </c>
+      <c r="B60" s="2"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
@@ -7170,21 +7710,28 @@
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
       <c r="P60" s="2"/>
-      <c r="Q60" s="2"/>
-      <c r="R60" s="2">
+      <c r="Q60" s="9"/>
+      <c r="R60" s="9"/>
+      <c r="S60" s="9"/>
+      <c r="T60" s="2">
         <f>'Traveling Line'!B50</f>
         <v>225</v>
       </c>
-      <c r="S60" s="2">
+      <c r="U60" s="2">
         <f>'Traveling Line'!C50</f>
         <v>1000</v>
       </c>
-    </row>
-    <row r="61" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B61" s="12">
+      <c r="V60" s="9">
+        <f>'Traveling Line'!D50</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A61" s="11">
         <f t="shared" si="0"/>
         <v>41.666666666666664</v>
       </c>
+      <c r="B61" s="2"/>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
@@ -7199,21 +7746,28 @@
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
       <c r="P61" s="2"/>
-      <c r="Q61" s="2"/>
-      <c r="R61" s="2">
+      <c r="Q61" s="9"/>
+      <c r="R61" s="9"/>
+      <c r="S61" s="9"/>
+      <c r="T61" s="2">
         <f>'Traveling Line'!B51</f>
         <v>230</v>
       </c>
-      <c r="S61" s="2">
+      <c r="U61" s="2">
         <f>'Traveling Line'!C51</f>
         <v>1000</v>
       </c>
-    </row>
-    <row r="62" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B62" s="12">
+      <c r="V61" s="9">
+        <f>'Traveling Line'!D51</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A62" s="11">
         <f t="shared" si="0"/>
         <v>41.666666666666664</v>
       </c>
+      <c r="B62" s="2"/>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
@@ -7228,21 +7782,28 @@
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
       <c r="P62" s="2"/>
-      <c r="Q62" s="2"/>
-      <c r="R62" s="2">
+      <c r="Q62" s="9"/>
+      <c r="R62" s="9"/>
+      <c r="S62" s="9"/>
+      <c r="T62" s="2">
         <f>'Traveling Line'!B52</f>
         <v>235</v>
       </c>
-      <c r="S62" s="2">
+      <c r="U62" s="2">
         <f>'Traveling Line'!C52</f>
         <v>1000</v>
       </c>
-    </row>
-    <row r="63" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B63" s="12">
+      <c r="V62" s="9">
+        <f>'Traveling Line'!D52</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A63" s="11">
         <f t="shared" si="0"/>
         <v>41.666666666666664</v>
       </c>
+      <c r="B63" s="2"/>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
@@ -7257,21 +7818,28 @@
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
       <c r="P63" s="2"/>
-      <c r="Q63" s="2"/>
-      <c r="R63" s="2">
+      <c r="Q63" s="9"/>
+      <c r="R63" s="9"/>
+      <c r="S63" s="9"/>
+      <c r="T63" s="2">
         <f>'Traveling Line'!B53</f>
         <v>240</v>
       </c>
-      <c r="S63" s="2">
+      <c r="U63" s="2">
         <f>'Traveling Line'!C53</f>
         <v>1000</v>
       </c>
-    </row>
-    <row r="64" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B64" s="12">
+      <c r="V63" s="9">
+        <f>'Traveling Line'!D53</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A64" s="11">
         <f t="shared" si="0"/>
         <v>41.666666666666664</v>
       </c>
+      <c r="B64" s="2"/>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
@@ -7286,21 +7854,28 @@
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
       <c r="P64" s="2"/>
-      <c r="Q64" s="2"/>
-      <c r="R64" s="2">
+      <c r="Q64" s="9"/>
+      <c r="R64" s="9"/>
+      <c r="S64" s="9"/>
+      <c r="T64" s="2">
         <f>'Traveling Line'!B54</f>
         <v>245</v>
       </c>
-      <c r="S64" s="2">
+      <c r="U64" s="2">
         <f>'Traveling Line'!C54</f>
         <v>1000</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B65" s="12">
+      <c r="V64" s="9">
+        <f>'Traveling Line'!D54</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A65" s="11">
         <f t="shared" si="0"/>
         <v>41.666666666666664</v>
       </c>
+      <c r="B65" s="2"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
@@ -7315,21 +7890,28 @@
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
       <c r="P65" s="2"/>
-      <c r="Q65" s="2"/>
-      <c r="R65" s="2">
+      <c r="Q65" s="9"/>
+      <c r="R65" s="9"/>
+      <c r="S65" s="9"/>
+      <c r="T65" s="2">
         <f>'Traveling Line'!B55</f>
         <v>250</v>
       </c>
-      <c r="S65" s="2">
+      <c r="U65" s="2">
         <f>'Traveling Line'!C55</f>
         <v>1000</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B66" s="12">
+      <c r="V65" s="9">
+        <f>'Traveling Line'!D55</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A66" s="11">
         <f t="shared" si="0"/>
         <v>41.666666666666664</v>
       </c>
+      <c r="B66" s="2"/>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
@@ -7344,21 +7926,28 @@
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
       <c r="P66" s="2"/>
-      <c r="Q66" s="2"/>
-      <c r="R66" s="2">
+      <c r="Q66" s="9"/>
+      <c r="R66" s="9"/>
+      <c r="S66" s="9"/>
+      <c r="T66" s="2">
         <f>'Traveling Line'!B56</f>
         <v>255</v>
       </c>
-      <c r="S66" s="2">
+      <c r="U66" s="2">
         <f>'Traveling Line'!C56</f>
         <v>1000</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B67" s="12">
+      <c r="V66" s="9">
+        <f>'Traveling Line'!D56</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A67" s="11">
         <f t="shared" si="0"/>
         <v>41.666666666666664</v>
       </c>
+      <c r="B67" s="2"/>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
@@ -7373,21 +7962,28 @@
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
       <c r="P67" s="2"/>
-      <c r="Q67" s="2"/>
-      <c r="R67" s="2">
+      <c r="Q67" s="9"/>
+      <c r="R67" s="9"/>
+      <c r="S67" s="9"/>
+      <c r="T67" s="2">
         <f>'Traveling Line'!B57</f>
         <v>260</v>
       </c>
-      <c r="S67" s="2">
+      <c r="U67" s="2">
         <f>'Traveling Line'!C57</f>
         <v>1000</v>
       </c>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B68" s="12">
+      <c r="V67" s="9">
+        <f>'Traveling Line'!D57</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A68" s="11">
         <f t="shared" si="0"/>
         <v>41.666666666666664</v>
       </c>
+      <c r="B68" s="2"/>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
@@ -7402,21 +7998,28 @@
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
       <c r="P68" s="2"/>
-      <c r="Q68" s="2"/>
-      <c r="R68" s="2">
+      <c r="Q68" s="9"/>
+      <c r="R68" s="9"/>
+      <c r="S68" s="9"/>
+      <c r="T68" s="2">
         <f>'Traveling Line'!B58</f>
         <v>265</v>
       </c>
-      <c r="S68" s="2">
+      <c r="U68" s="2">
         <f>'Traveling Line'!C58</f>
         <v>1000</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B69" s="12">
+      <c r="V68" s="9">
+        <f>'Traveling Line'!D58</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A69" s="11">
         <f t="shared" si="0"/>
         <v>41.666666666666664</v>
       </c>
+      <c r="B69" s="2"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
@@ -7431,21 +8034,28 @@
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
       <c r="P69" s="2"/>
-      <c r="Q69" s="2"/>
-      <c r="R69" s="2">
+      <c r="Q69" s="9"/>
+      <c r="R69" s="9"/>
+      <c r="S69" s="9"/>
+      <c r="T69" s="2">
         <f>'Traveling Line'!B59</f>
         <v>270</v>
       </c>
-      <c r="S69" s="2">
+      <c r="U69" s="2">
         <f>'Traveling Line'!C59</f>
         <v>1000</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B70" s="12">
+      <c r="V69" s="9">
+        <f>'Traveling Line'!D59</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A70" s="11">
         <f t="shared" si="0"/>
         <v>41.666666666666664</v>
       </c>
+      <c r="B70" s="2"/>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
@@ -7460,21 +8070,28 @@
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
       <c r="P70" s="2"/>
-      <c r="Q70" s="2"/>
-      <c r="R70" s="2">
+      <c r="Q70" s="9"/>
+      <c r="R70" s="9"/>
+      <c r="S70" s="9"/>
+      <c r="T70" s="2">
         <f>'Traveling Line'!B60</f>
         <v>275</v>
       </c>
-      <c r="S70" s="2">
+      <c r="U70" s="2">
         <f>'Traveling Line'!C60</f>
         <v>1000</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B71" s="12">
+      <c r="V70" s="9">
+        <f>'Traveling Line'!D60</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A71" s="11">
         <f t="shared" si="0"/>
         <v>41.666666666666664</v>
       </c>
+      <c r="B71" s="2"/>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
@@ -7489,21 +8106,28 @@
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
       <c r="P71" s="2"/>
-      <c r="Q71" s="2"/>
-      <c r="R71" s="2">
+      <c r="Q71" s="9"/>
+      <c r="R71" s="9"/>
+      <c r="S71" s="9"/>
+      <c r="T71" s="2">
         <f>'Traveling Line'!B61</f>
         <v>280</v>
       </c>
-      <c r="S71" s="2">
+      <c r="U71" s="2">
         <f>'Traveling Line'!C61</f>
         <v>1000</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B72" s="12">
+      <c r="V71" s="9">
+        <f>'Traveling Line'!D61</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A72" s="11">
         <f t="shared" si="0"/>
         <v>41.666666666666664</v>
       </c>
+      <c r="B72" s="2"/>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
@@ -7518,21 +8142,28 @@
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
       <c r="P72" s="2"/>
-      <c r="Q72" s="2"/>
-      <c r="R72" s="2">
+      <c r="Q72" s="9"/>
+      <c r="R72" s="9"/>
+      <c r="S72" s="9"/>
+      <c r="T72" s="2">
         <f>'Traveling Line'!B62</f>
         <v>285</v>
       </c>
-      <c r="S72" s="2">
+      <c r="U72" s="2">
         <f>'Traveling Line'!C62</f>
         <v>1000</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B73" s="12">
+      <c r="V72" s="9">
+        <f>'Traveling Line'!D62</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A73" s="11">
         <f t="shared" si="0"/>
         <v>41.666666666666664</v>
       </c>
+      <c r="B73" s="2"/>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
       <c r="E73" s="2"/>
@@ -7547,21 +8178,28 @@
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
       <c r="P73" s="2"/>
-      <c r="Q73" s="2"/>
-      <c r="R73" s="2">
+      <c r="Q73" s="9"/>
+      <c r="R73" s="9"/>
+      <c r="S73" s="9"/>
+      <c r="T73" s="2">
         <f>'Traveling Line'!B63</f>
         <v>290</v>
       </c>
-      <c r="S73" s="2">
+      <c r="U73" s="2">
         <f>'Traveling Line'!C63</f>
         <v>1000</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B74" s="12">
+      <c r="V73" s="9">
+        <f>'Traveling Line'!D63</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A74" s="11">
         <f t="shared" si="0"/>
         <v>41.666666666666664</v>
       </c>
+      <c r="B74" s="2"/>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
       <c r="E74" s="2"/>
@@ -7576,21 +8214,28 @@
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
       <c r="P74" s="2"/>
-      <c r="Q74" s="2"/>
-      <c r="R74" s="2">
+      <c r="Q74" s="9"/>
+      <c r="R74" s="9"/>
+      <c r="S74" s="9"/>
+      <c r="T74" s="2">
         <f>'Traveling Line'!B64</f>
         <v>295</v>
       </c>
-      <c r="S74" s="2">
+      <c r="U74" s="2">
         <f>'Traveling Line'!C64</f>
         <v>1000</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B75" s="12">
+      <c r="V74" s="9">
+        <f>'Traveling Line'!D64</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A75" s="11">
         <f t="shared" si="0"/>
         <v>41.666666666666664</v>
       </c>
+      <c r="B75" s="2"/>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
       <c r="E75" s="2"/>
@@ -7605,21 +8250,28 @@
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
       <c r="P75" s="2"/>
-      <c r="Q75" s="2"/>
-      <c r="R75" s="2">
+      <c r="Q75" s="9"/>
+      <c r="R75" s="9"/>
+      <c r="S75" s="9"/>
+      <c r="T75" s="2">
         <f>'Traveling Line'!B65</f>
         <v>300</v>
       </c>
-      <c r="S75" s="2">
+      <c r="U75" s="2">
         <f>'Traveling Line'!C65</f>
         <v>1000</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B76" s="12">
+      <c r="V75" s="9">
+        <f>'Traveling Line'!D65</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A76" s="11">
         <f t="shared" si="0"/>
         <v>41.666666666666664</v>
       </c>
+      <c r="B76" s="2"/>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
@@ -7634,21 +8286,28 @@
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
       <c r="P76" s="2"/>
-      <c r="Q76" s="2"/>
-      <c r="R76" s="2">
+      <c r="Q76" s="9"/>
+      <c r="R76" s="9"/>
+      <c r="S76" s="9"/>
+      <c r="T76" s="2">
         <f>'Traveling Line'!B66</f>
         <v>305</v>
       </c>
-      <c r="S76" s="2">
+      <c r="U76" s="2">
         <f>'Traveling Line'!C66</f>
         <v>1000</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B77" s="12">
+      <c r="V76" s="9">
+        <f>'Traveling Line'!D66</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A77" s="11">
         <f t="shared" si="0"/>
         <v>41.666666666666664</v>
       </c>
+      <c r="B77" s="2"/>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
       <c r="E77" s="2"/>
@@ -7663,21 +8322,28 @@
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
       <c r="P77" s="2"/>
-      <c r="Q77" s="2"/>
-      <c r="R77" s="2">
+      <c r="Q77" s="9"/>
+      <c r="R77" s="9"/>
+      <c r="S77" s="9"/>
+      <c r="T77" s="2">
         <f>'Traveling Line'!B67</f>
         <v>310</v>
       </c>
-      <c r="S77" s="2">
+      <c r="U77" s="2">
         <f>'Traveling Line'!C67</f>
         <v>1000</v>
       </c>
-    </row>
-    <row r="78" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B78" s="12">
+      <c r="V77" s="9">
+        <f>'Traveling Line'!D67</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A78" s="11">
         <f t="shared" si="0"/>
         <v>41.666666666666664</v>
       </c>
+      <c r="B78" s="2"/>
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
       <c r="E78" s="2"/>
@@ -7692,21 +8358,28 @@
       <c r="N78" s="2"/>
       <c r="O78" s="2"/>
       <c r="P78" s="2"/>
-      <c r="Q78" s="2"/>
-      <c r="R78" s="2">
+      <c r="Q78" s="9"/>
+      <c r="R78" s="9"/>
+      <c r="S78" s="9"/>
+      <c r="T78" s="2">
         <f>'Traveling Line'!B68</f>
         <v>315</v>
       </c>
-      <c r="S78" s="2">
+      <c r="U78" s="2">
         <f>'Traveling Line'!C68</f>
         <v>1000</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B79" s="12">
+      <c r="V78" s="9">
+        <f>'Traveling Line'!D68</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A79" s="11">
         <f t="shared" si="0"/>
         <v>41.666666666666664</v>
       </c>
+      <c r="B79" s="2"/>
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
       <c r="E79" s="2"/>
@@ -7721,21 +8394,28 @@
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
       <c r="P79" s="2"/>
-      <c r="Q79" s="2"/>
-      <c r="R79" s="2">
+      <c r="Q79" s="9"/>
+      <c r="R79" s="9"/>
+      <c r="S79" s="9"/>
+      <c r="T79" s="2">
         <f>'Traveling Line'!B69</f>
         <v>320</v>
       </c>
-      <c r="S79" s="2">
+      <c r="U79" s="2">
         <f>'Traveling Line'!C69</f>
         <v>1000</v>
       </c>
-    </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B80" s="12">
-        <f t="shared" ref="B80:B95" si="1">IF((ABS(S82)*C$2*9.806)^0.5&gt;C$7/3.6,C$7/3.6,(ABS(S82)*C$2*9.806)^0.5)</f>
+      <c r="V79" s="9">
+        <f>'Traveling Line'!D69</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A80" s="11">
+        <f t="shared" ref="A80:A95" si="1">IF((ABS(U82)*B$2*9.806)^0.5&gt;B$7/3.6,B$7/3.6,(ABS(U82)*B$2*9.806)^0.5)</f>
         <v>41.666666666666664</v>
       </c>
+      <c r="B80" s="2"/>
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
       <c r="E80" s="2"/>
@@ -7750,21 +8430,28 @@
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
       <c r="P80" s="2"/>
-      <c r="Q80" s="2"/>
-      <c r="R80" s="2">
+      <c r="Q80" s="9"/>
+      <c r="R80" s="9"/>
+      <c r="S80" s="9"/>
+      <c r="T80" s="2">
         <f>'Traveling Line'!B70</f>
         <v>325</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <f>'Traveling Line'!C70</f>
         <v>1000</v>
       </c>
-    </row>
-    <row r="81" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B81" s="12">
+      <c r="V80" s="9">
+        <f>'Traveling Line'!D70</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A81" s="11">
         <f t="shared" si="1"/>
         <v>41.666666666666664</v>
       </c>
+      <c r="B81" s="2"/>
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
@@ -7779,21 +8466,28 @@
       <c r="N81" s="2"/>
       <c r="O81" s="2"/>
       <c r="P81" s="2"/>
-      <c r="Q81" s="2"/>
-      <c r="R81" s="2">
+      <c r="Q81" s="9"/>
+      <c r="R81" s="9"/>
+      <c r="S81" s="9"/>
+      <c r="T81" s="2">
         <f>'Traveling Line'!B71</f>
         <v>330</v>
       </c>
-      <c r="S81" s="2">
+      <c r="U81" s="2">
         <f>'Traveling Line'!C71</f>
         <v>1000</v>
       </c>
-    </row>
-    <row r="82" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B82" s="12">
+      <c r="V81" s="9">
+        <f>'Traveling Line'!D71</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A82" s="11">
         <f t="shared" si="1"/>
         <v>41.666666666666664</v>
       </c>
+      <c r="B82" s="2"/>
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
       <c r="E82" s="2"/>
@@ -7808,21 +8502,28 @@
       <c r="N82" s="2"/>
       <c r="O82" s="2"/>
       <c r="P82" s="2"/>
-      <c r="Q82" s="2"/>
-      <c r="R82" s="2">
+      <c r="Q82" s="9"/>
+      <c r="R82" s="9"/>
+      <c r="S82" s="9"/>
+      <c r="T82" s="2">
         <f>'Traveling Line'!B72</f>
         <v>335</v>
       </c>
-      <c r="S82" s="2">
+      <c r="U82" s="2">
         <f>'Traveling Line'!C72</f>
         <v>1000</v>
       </c>
-    </row>
-    <row r="83" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B83" s="12">
+      <c r="V82" s="9">
+        <f>'Traveling Line'!D72</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A83" s="11">
         <f t="shared" si="1"/>
         <v>41.666666666666664</v>
       </c>
+      <c r="B83" s="2"/>
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
       <c r="E83" s="2"/>
@@ -7837,21 +8538,28 @@
       <c r="N83" s="2"/>
       <c r="O83" s="2"/>
       <c r="P83" s="2"/>
-      <c r="Q83" s="2"/>
-      <c r="R83" s="2">
+      <c r="Q83" s="9"/>
+      <c r="R83" s="9"/>
+      <c r="S83" s="9"/>
+      <c r="T83" s="2">
         <f>'Traveling Line'!B73</f>
         <v>340</v>
       </c>
-      <c r="S83" s="2">
+      <c r="U83" s="2">
         <f>'Traveling Line'!C73</f>
         <v>1000</v>
       </c>
-    </row>
-    <row r="84" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B84" s="12">
+      <c r="V83" s="9">
+        <f>'Traveling Line'!D73</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A84" s="11">
         <f t="shared" si="1"/>
         <v>41.666666666666664</v>
       </c>
+      <c r="B84" s="2"/>
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
       <c r="E84" s="2"/>
@@ -7866,21 +8574,28 @@
       <c r="N84" s="2"/>
       <c r="O84" s="2"/>
       <c r="P84" s="2"/>
-      <c r="Q84" s="2"/>
-      <c r="R84" s="2">
+      <c r="Q84" s="9"/>
+      <c r="R84" s="9"/>
+      <c r="S84" s="9"/>
+      <c r="T84" s="2">
         <f>'Traveling Line'!B74</f>
         <v>345</v>
       </c>
-      <c r="S84" s="2">
+      <c r="U84" s="2">
         <f>'Traveling Line'!C74</f>
         <v>1000</v>
       </c>
-    </row>
-    <row r="85" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B85" s="12">
+      <c r="V84" s="9">
+        <f>'Traveling Line'!D74</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A85" s="11">
         <f t="shared" si="1"/>
         <v>41.666666666666664</v>
       </c>
+      <c r="B85" s="2"/>
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
       <c r="E85" s="2"/>
@@ -7895,21 +8610,28 @@
       <c r="N85" s="2"/>
       <c r="O85" s="2"/>
       <c r="P85" s="2"/>
-      <c r="Q85" s="2"/>
-      <c r="R85" s="2">
+      <c r="Q85" s="9"/>
+      <c r="R85" s="9"/>
+      <c r="S85" s="9"/>
+      <c r="T85" s="2">
         <f>'Traveling Line'!B75</f>
         <v>350</v>
       </c>
-      <c r="S85" s="2">
+      <c r="U85" s="2">
         <f>'Traveling Line'!C75</f>
         <v>1000</v>
       </c>
-    </row>
-    <row r="86" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B86" s="12">
+      <c r="V85" s="9">
+        <f>'Traveling Line'!D75</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A86" s="11">
         <f t="shared" si="1"/>
         <v>41.666666666666664</v>
       </c>
+      <c r="B86" s="2"/>
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
       <c r="E86" s="2"/>
@@ -7924,21 +8646,28 @@
       <c r="N86" s="2"/>
       <c r="O86" s="2"/>
       <c r="P86" s="2"/>
-      <c r="Q86" s="2"/>
-      <c r="R86" s="2">
+      <c r="Q86" s="9"/>
+      <c r="R86" s="9"/>
+      <c r="S86" s="9"/>
+      <c r="T86" s="2">
         <f>'Traveling Line'!B76</f>
         <v>355</v>
       </c>
-      <c r="S86" s="2">
+      <c r="U86" s="2">
         <f>'Traveling Line'!C76</f>
         <v>1000</v>
       </c>
-    </row>
-    <row r="87" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B87" s="12">
+      <c r="V86" s="9">
+        <f>'Traveling Line'!D76</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A87" s="11">
         <f t="shared" si="1"/>
         <v>41.666666666666664</v>
       </c>
+      <c r="B87" s="2"/>
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
       <c r="E87" s="2"/>
@@ -7953,21 +8682,28 @@
       <c r="N87" s="2"/>
       <c r="O87" s="2"/>
       <c r="P87" s="2"/>
-      <c r="Q87" s="2"/>
-      <c r="R87" s="2">
+      <c r="Q87" s="9"/>
+      <c r="R87" s="9"/>
+      <c r="S87" s="9"/>
+      <c r="T87" s="2">
         <f>'Traveling Line'!B77</f>
         <v>360</v>
       </c>
-      <c r="S87" s="2">
+      <c r="U87" s="2">
         <f>'Traveling Line'!C77</f>
         <v>1000</v>
       </c>
-    </row>
-    <row r="88" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B88" s="12">
+      <c r="V87" s="9">
+        <f>'Traveling Line'!D77</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A88" s="11">
         <f t="shared" si="1"/>
         <v>41.666666666666664</v>
       </c>
+      <c r="B88" s="2"/>
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
       <c r="E88" s="2"/>
@@ -7982,21 +8718,28 @@
       <c r="N88" s="2"/>
       <c r="O88" s="2"/>
       <c r="P88" s="2"/>
-      <c r="Q88" s="2"/>
-      <c r="R88" s="2">
+      <c r="Q88" s="9"/>
+      <c r="R88" s="9"/>
+      <c r="S88" s="9"/>
+      <c r="T88" s="2">
         <f>'Traveling Line'!B78</f>
         <v>365</v>
       </c>
-      <c r="S88" s="2">
+      <c r="U88" s="2">
         <f>'Traveling Line'!C78</f>
         <v>1000</v>
       </c>
-    </row>
-    <row r="89" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B89" s="12">
+      <c r="V88" s="9">
+        <f>'Traveling Line'!D78</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A89" s="11">
         <f t="shared" si="1"/>
         <v>41.666666666666664</v>
       </c>
+      <c r="B89" s="2"/>
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
       <c r="E89" s="2"/>
@@ -8011,21 +8754,28 @@
       <c r="N89" s="2"/>
       <c r="O89" s="2"/>
       <c r="P89" s="2"/>
-      <c r="Q89" s="2"/>
-      <c r="R89" s="2">
+      <c r="Q89" s="9"/>
+      <c r="R89" s="9"/>
+      <c r="S89" s="9"/>
+      <c r="T89" s="2">
         <f>'Traveling Line'!B79</f>
         <v>370</v>
       </c>
-      <c r="S89" s="2">
+      <c r="U89" s="2">
         <f>'Traveling Line'!C79</f>
         <v>1000</v>
       </c>
-    </row>
-    <row r="90" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B90" s="12">
+      <c r="V89" s="9">
+        <f>'Traveling Line'!D79</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A90" s="11">
         <f t="shared" si="1"/>
         <v>41.666666666666664</v>
       </c>
+      <c r="B90" s="2"/>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
       <c r="E90" s="2"/>
@@ -8040,21 +8790,28 @@
       <c r="N90" s="2"/>
       <c r="O90" s="2"/>
       <c r="P90" s="2"/>
-      <c r="Q90" s="2"/>
-      <c r="R90" s="2">
+      <c r="Q90" s="9"/>
+      <c r="R90" s="9"/>
+      <c r="S90" s="9"/>
+      <c r="T90" s="2">
         <f>'Traveling Line'!B80</f>
         <v>375</v>
       </c>
-      <c r="S90" s="2">
+      <c r="U90" s="2">
         <f>'Traveling Line'!C80</f>
         <v>1000</v>
       </c>
-    </row>
-    <row r="91" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B91" s="12">
+      <c r="V90" s="9">
+        <f>'Traveling Line'!D80</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A91" s="11">
         <f t="shared" si="1"/>
         <v>41.666666666666664</v>
       </c>
+      <c r="B91" s="2"/>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
       <c r="E91" s="2"/>
@@ -8069,21 +8826,28 @@
       <c r="N91" s="2"/>
       <c r="O91" s="2"/>
       <c r="P91" s="2"/>
-      <c r="Q91" s="2"/>
-      <c r="R91" s="2">
+      <c r="Q91" s="9"/>
+      <c r="R91" s="9"/>
+      <c r="S91" s="9"/>
+      <c r="T91" s="2">
         <f>'Traveling Line'!B81</f>
         <v>380</v>
       </c>
-      <c r="S91" s="2">
+      <c r="U91" s="2">
         <f>'Traveling Line'!C81</f>
         <v>1000</v>
       </c>
-    </row>
-    <row r="92" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B92" s="12">
+      <c r="V91" s="9">
+        <f>'Traveling Line'!D81</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A92" s="11">
         <f t="shared" si="1"/>
         <v>41.666666666666664</v>
       </c>
+      <c r="B92" s="2"/>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
       <c r="E92" s="2"/>
@@ -8098,21 +8862,28 @@
       <c r="N92" s="2"/>
       <c r="O92" s="2"/>
       <c r="P92" s="2"/>
-      <c r="Q92" s="2"/>
-      <c r="R92" s="2">
+      <c r="Q92" s="9"/>
+      <c r="R92" s="9"/>
+      <c r="S92" s="9"/>
+      <c r="T92" s="2">
         <f>'Traveling Line'!B82</f>
         <v>385</v>
       </c>
-      <c r="S92" s="2">
+      <c r="U92" s="2">
         <f>'Traveling Line'!C82</f>
         <v>1000</v>
       </c>
-    </row>
-    <row r="93" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B93" s="12">
+      <c r="V92" s="9">
+        <f>'Traveling Line'!D82</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A93" s="11">
         <f t="shared" si="1"/>
         <v>41.666666666666664</v>
       </c>
+      <c r="B93" s="2"/>
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
       <c r="E93" s="2"/>
@@ -8127,21 +8898,28 @@
       <c r="N93" s="2"/>
       <c r="O93" s="2"/>
       <c r="P93" s="2"/>
-      <c r="Q93" s="2"/>
-      <c r="R93" s="2">
+      <c r="Q93" s="9"/>
+      <c r="R93" s="9"/>
+      <c r="S93" s="9"/>
+      <c r="T93" s="2">
         <f>'Traveling Line'!B83</f>
         <v>390</v>
       </c>
-      <c r="S93" s="2">
+      <c r="U93" s="2">
         <f>'Traveling Line'!C83</f>
         <v>1000</v>
       </c>
-    </row>
-    <row r="94" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B94" s="12">
+      <c r="V93" s="9">
+        <f>'Traveling Line'!D83</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A94" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="B94" s="2"/>
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
       <c r="E94" s="2"/>
@@ -8156,21 +8934,28 @@
       <c r="N94" s="2"/>
       <c r="O94" s="2"/>
       <c r="P94" s="2"/>
-      <c r="Q94" s="2"/>
-      <c r="R94" s="2">
+      <c r="Q94" s="9"/>
+      <c r="R94" s="9"/>
+      <c r="S94" s="9"/>
+      <c r="T94" s="2">
         <f>'Traveling Line'!B84</f>
         <v>395</v>
       </c>
-      <c r="S94" s="2">
+      <c r="U94" s="2">
         <f>'Traveling Line'!C84</f>
         <v>1000</v>
       </c>
-    </row>
-    <row r="95" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B95" s="12">
+      <c r="V94" s="9">
+        <f>'Traveling Line'!D84</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A95" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="B95" s="2"/>
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
       <c r="E95" s="2"/>
@@ -8185,27 +8970,34 @@
       <c r="N95" s="2"/>
       <c r="O95" s="2"/>
       <c r="P95" s="2"/>
-      <c r="Q95" s="2"/>
-      <c r="R95" s="2">
+      <c r="Q95" s="9"/>
+      <c r="R95" s="9"/>
+      <c r="S95" s="9"/>
+      <c r="T95" s="2">
         <f>'Traveling Line'!B85</f>
         <v>400</v>
       </c>
-      <c r="S95" s="2">
+      <c r="U95" s="2">
         <f>'Traveling Line'!C85</f>
         <v>1000</v>
+      </c>
+      <c r="V95" s="9">
+        <f>'Traveling Line'!D85</f>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="C11:H11"/>
-    <mergeCell ref="I11:O11"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="H11:N11"/>
+    <mergeCell ref="O11:S11"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>